--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="548">
   <si>
     <t>gusher</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3240,6 +3240,1703 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tauten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distrait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>occlude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traipse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squeamish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camouflage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsettling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overhaul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prognosis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intangibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dainty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inoculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rendering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>procrastinate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cozen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scotch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consequential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequestrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chipper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loiter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)拉进，(使)绷紧</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>la jin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>beng jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.心不在焉的</t>
+    <rPh sb="4" eb="5">
+      <t>xin bu zai yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.杀戮，杀死</t>
+    <rPh sb="2" eb="3">
+      <t>sha lu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sha si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.漂亮的，时髦的</t>
+    <rPh sb="4" eb="5">
+      <t>piao liang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi mao de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.剥皮；抢夺，掠夺；严厉指责</t>
+    <rPh sb="2" eb="3">
+      <t>bo pi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiang duo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lue duo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yan li</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.作呕，恶心</t>
+    <rPh sb="2" eb="3">
+      <t>zuo ou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>e xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使闭塞</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bi se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.漫步，闲荡</t>
+    <rPh sb="2" eb="3">
+      <t>man bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易受惊的；易恶心的</t>
+    <rPh sb="4" eb="5">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>e xin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.掩饰，伪饰 n.伪装</t>
+    <rPh sb="2" eb="3">
+      <t>yan shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei zhuang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.使人不安的，扰乱的</t>
+    <rPh sb="4" eb="5">
+      <t>shi ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu an</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>rao luan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.彻底检查；大修</t>
+    <rPh sb="2" eb="3">
+      <t>che di</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian cha</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>da xiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.[医](对病情的)预断，预后</t>
+    <rPh sb="3" eb="4">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bing qing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yu duan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.无形</t>
+    <rPh sb="2" eb="3">
+      <t>wu xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.美味；精美的食品</t>
+    <rPh sb="2" eb="3">
+      <t>mei wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing mei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.娇美的；挑剔的</t>
+    <rPh sb="4" eb="5">
+      <t>jiao mei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tiao ti</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.注射预防针</t>
+    <rPh sb="2" eb="3">
+      <t>zhu she</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu fang zhen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.表演；翻译</t>
+    <rPh sb="2" eb="3">
+      <t>biao yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.耽搁，拖延</t>
+    <rPh sb="2" eb="3">
+      <t>dan ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tuo yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.欺骗，哄骗</t>
+    <rPh sb="2" eb="3">
+      <t>qi pian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hong pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.鞍，马鞍</t>
+    <rPh sb="4" eb="5">
+      <t>ma an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.镇压，扑灭</t>
+    <rPh sb="2" eb="3">
+      <t>zhen ya</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pu mie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.傲慢的，自尊大的</t>
+    <rPh sb="4" eb="5">
+      <t>ao man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi zun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>da</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.扣押，没收</t>
+    <rPh sb="2" eb="3">
+      <t>kou ya</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./v.惊吓，受惊，惊恐</t>
+    <rPh sb="5" eb="6">
+      <t>jing xia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shou jing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jing kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.爽朗的，活泼的</t>
+    <rPh sb="4" eb="5">
+      <t>shuang lang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huo po</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.闲逛，游荡；慢慢前行；</t>
+    <rPh sb="2" eb="3">
+      <t>xian guang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you dang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>man man</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qian xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消磨时光，虚度光阴</t>
+    <rPh sb="0" eb="1">
+      <t>xiao mo shi guang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xu du guang yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obsolete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vagrancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seraphic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fasten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complaisance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amplify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stimulant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brisk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impermeability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>furor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enfetter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asinine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cacophony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subterfuge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardihood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>douse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uproarious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aftermath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incriminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affeted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elephantine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.重击；打败</t>
+    <rPh sb="2" eb="3">
+      <t>zhong ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.废弃的；过时的</t>
+    <rPh sb="4" eb="5">
+      <t>fei qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guo shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.漂泊，流浪</t>
+    <rPh sb="2" eb="3">
+      <t>piao bo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu lang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.修剪 adj.井井有条的</t>
+    <rPh sb="2" eb="3">
+      <t>xiu jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jing jing you tiao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.如天使般的，美丽的</t>
+    <rPh sb="4" eb="5">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tian shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei li de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使固定</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gu ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.钝的；直率的 v.使迟钝</t>
+    <rPh sb="4" eb="5">
+      <t>dun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi shuai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chi dun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.彬彬有礼；殷勤；柔顺</t>
+    <rPh sb="2" eb="3">
+      <t>bin bin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yin qin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>rou shun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.放大；详述</t>
+    <rPh sb="2" eb="3">
+      <t>fang da</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.半身(雕)像</t>
+    <rPh sb="2" eb="3">
+      <t>ban shen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>diao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发明，设计</t>
+    <rPh sb="2" eb="3">
+      <t>fa ming</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>she ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.兴奋剂，刺激物</t>
+    <rPh sb="2" eb="3">
+      <t>xing fen ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ci ji wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.敏捷的，活泼的；清新健康的</t>
+    <rPh sb="4" eb="5">
+      <t>min jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huo po</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qing xin jian kang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不渗透性</t>
+    <rPh sb="2" eb="3">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shen tou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.喧闹，轰动；盛怒</t>
+    <rPh sb="2" eb="3">
+      <t>xuan nao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hong dong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sheng nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.给……上脚镣；束缚，使受制于</t>
+    <rPh sb="2" eb="3">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiao liao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu fu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shou zhi yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.愚笨的</t>
+    <rPh sb="4" eb="5">
+      <t>yu ben</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使羞愧，使尴尬</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiu kui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gan ga</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.喜怒无常的；抑郁的</t>
+    <rPh sb="4" eb="5">
+      <t>xi nu wu chang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi yu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.刺耳的声音</t>
+    <rPh sb="2" eb="3">
+      <t>ci er</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.诡计，托辞</t>
+    <rPh sb="2" eb="3">
+      <t>gui ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tuo ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.大胆，刚毅；厚颜</t>
+    <rPh sb="2" eb="3">
+      <t>da dan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gang yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hou yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.把……浸入水中；熄灭</t>
+    <rPh sb="2" eb="3">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin ru</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shui zhong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xi mie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.分配，分发</t>
+    <rPh sb="2" eb="3">
+      <t>fen pei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.骚动的；喧嚣的；令人捧腹大笑的</t>
+    <rPh sb="4" eb="5">
+      <t>sao dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xuan xiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>peng fu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>da xiao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.奖牌，勋章</t>
+    <rPh sb="2" eb="3">
+      <t>jiang pai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xun zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.极速上升，猛增</t>
+    <rPh sb="2" eb="3">
+      <t>ji su</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sahng sheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>meng zeng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.后果，余波</t>
+    <rPh sb="2" eb="3">
+      <t>hou guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.命令，训令</t>
+    <rPh sb="2" eb="3">
+      <t>ming ling</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xun ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.连累，牵挂</t>
+    <rPh sb="2" eb="3">
+      <t>lian lei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qian gua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不自然的；假装的</t>
+    <rPh sb="4" eb="5">
+      <t>bu zi ran</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jia zhuang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.笨拙的；巨大的</t>
+    <rPh sb="4" eb="5">
+      <t>ben zhuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ju da</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>churl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulcerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burlesque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flimflam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>martial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gobble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simmer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>germicide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snobbish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bruise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lymphatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infatuate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eulogy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pecan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.粗鄙之人</t>
+    <rPh sb="2" eb="3">
+      <t>cu bi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.拼贴画</t>
+    <rPh sb="2" eb="3">
+      <t>pin tie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.溃烂</t>
+    <rPh sb="2" eb="3">
+      <t>kui lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.讽刺或滑稽的戏剧，滑稽剧</t>
+    <rPh sb="2" eb="3">
+      <t>feng ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hua ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hua ji ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.孤独</t>
+    <rPh sb="2" eb="3">
+      <t>gu du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.欺骗；胡言乱语</t>
+    <rPh sb="2" eb="3">
+      <t>qi pian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hu yan luan yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.战争的，军事的</t>
+    <rPh sb="4" eb="5">
+      <t>zhan zheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jun shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.喘息；发出呼哧呼哧的声音</t>
+    <rPh sb="2" eb="3">
+      <t>chuan xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hu chi hu chi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>sheng yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.畏缩，退缩</t>
+    <rPh sb="2" eb="3">
+      <t>wei suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tui suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.贪婪地吃，狼吞虎咽；吞没</t>
+    <rPh sb="2" eb="3">
+      <t>tan lan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lang tun hu yan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tun mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.击出凹痕</t>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ao hen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.炖，慢煮</t>
+    <rPh sb="2" eb="3">
+      <t>dun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.即将沸腾的状态，即将发生</t>
+    <rPh sb="2" eb="3">
+      <t>ji jiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fei teng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuang tai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji jiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fa sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.杀菌剂</t>
+    <rPh sb="2" eb="3">
+      <t>sha jun ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.势力眼的；假充绅士的</t>
+    <rPh sb="4" eb="5">
+      <t>shi li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shen shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.无，零</t>
+    <rPh sb="2" eb="3">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.猫科的，猫的</t>
+    <rPh sb="4" eb="5">
+      <t>mao ke</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.受伤，擦伤</t>
+    <rPh sb="2" eb="3">
+      <t>shou shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ca shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无力的；迟缓的；淋巴的</t>
+    <rPh sb="4" eb="5">
+      <t>wu li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chi huan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lin ba</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.降低……的地位，贬抑，使卑下</t>
+    <rPh sb="2" eb="3">
+      <t>jiang di</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bian yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bei wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.过滤</t>
+    <rPh sb="2" eb="3">
+      <t>guo lü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使迷恋；使糊涂</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mi lian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hu tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.颂词，颂文</t>
+    <rPh sb="2" eb="3">
+      <t>song ci</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>song</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.山核桃</t>
+    <rPh sb="2" eb="3">
+      <t>shan he tao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.跛行</t>
+    <rPh sb="2" eb="3">
+      <t>bo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.软弱的，无力的；柔软的</t>
+    <rPh sb="4" eb="5">
+      <t>ruan ruo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>rou ruan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nomad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vitalize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execrable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harpsichord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inmate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>molest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lattice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.流浪者；游牧部落的人</t>
+    <rPh sb="2" eb="3">
+      <t>liu lang zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you mu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu luo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.赋予生命，使有生气</t>
+    <rPh sb="2" eb="3">
+      <t>fu yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sheng ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sheng qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可憎的，讨厌的</t>
+    <rPh sb="4" eb="5">
+      <t>ke zeng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tao yan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.钢琴</t>
+    <rPh sb="2" eb="3">
+      <t>gang qin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.同住者，同居者</t>
+    <rPh sb="2" eb="3">
+      <t>tong zhu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.骚扰，困扰</t>
+    <rPh sb="2" eb="3">
+      <t>sao rao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kun rao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(用木片或金属片叠成的)格子架</t>
+    <rPh sb="3" eb="4">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mu pian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin shu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>die cheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ge zi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.安全的；稳固的</t>
+    <rPh sb="4" eb="5">
+      <t>an quan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen gu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.握紧，关牢；使安全</t>
+    <rPh sb="2" eb="3">
+      <t>wo jin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>an quan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3567,10 +5264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A177" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147:A190"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A269" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5051,6 +6748,751 @@
         <v>362</v>
       </c>
     </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>363</v>
+      </c>
+      <c r="B191" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>364</v>
+      </c>
+      <c r="B192" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>365</v>
+      </c>
+      <c r="B193" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>366</v>
+      </c>
+      <c r="B194" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>367</v>
+      </c>
+      <c r="B195" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>368</v>
+      </c>
+      <c r="B196" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>369</v>
+      </c>
+      <c r="B197" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>370</v>
+      </c>
+      <c r="B198" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>371</v>
+      </c>
+      <c r="B199" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>372</v>
+      </c>
+      <c r="B200" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>373</v>
+      </c>
+      <c r="B201" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>374</v>
+      </c>
+      <c r="B202" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>375</v>
+      </c>
+      <c r="B203" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>376</v>
+      </c>
+      <c r="B204" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>377</v>
+      </c>
+      <c r="B205" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>378</v>
+      </c>
+      <c r="B207" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>379</v>
+      </c>
+      <c r="B208" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>380</v>
+      </c>
+      <c r="B209" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>381</v>
+      </c>
+      <c r="B210" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>382</v>
+      </c>
+      <c r="B211" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>383</v>
+      </c>
+      <c r="B212" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>384</v>
+      </c>
+      <c r="B213" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>385</v>
+      </c>
+      <c r="B214" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>386</v>
+      </c>
+      <c r="B215" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>387</v>
+      </c>
+      <c r="B216" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>388</v>
+      </c>
+      <c r="B217" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>417</v>
+      </c>
+      <c r="B219" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>418</v>
+      </c>
+      <c r="B220" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>419</v>
+      </c>
+      <c r="B221" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>420</v>
+      </c>
+      <c r="B222" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>421</v>
+      </c>
+      <c r="B223" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>422</v>
+      </c>
+      <c r="B224" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>423</v>
+      </c>
+      <c r="B225" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>424</v>
+      </c>
+      <c r="B226" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>425</v>
+      </c>
+      <c r="B227" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>426</v>
+      </c>
+      <c r="B228" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>427</v>
+      </c>
+      <c r="B229" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>428</v>
+      </c>
+      <c r="B230" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>429</v>
+      </c>
+      <c r="B231" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>430</v>
+      </c>
+      <c r="B232" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>431</v>
+      </c>
+      <c r="B233" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>432</v>
+      </c>
+      <c r="B234" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>433</v>
+      </c>
+      <c r="B235" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>434</v>
+      </c>
+      <c r="B236" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>435</v>
+      </c>
+      <c r="B237" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>436</v>
+      </c>
+      <c r="B238" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>437</v>
+      </c>
+      <c r="B239" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>438</v>
+      </c>
+      <c r="B240" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>439</v>
+      </c>
+      <c r="B241" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>440</v>
+      </c>
+      <c r="B242" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>441</v>
+      </c>
+      <c r="B243" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>442</v>
+      </c>
+      <c r="B244" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>443</v>
+      </c>
+      <c r="B245" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>444</v>
+      </c>
+      <c r="B246" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>445</v>
+      </c>
+      <c r="B247" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>446</v>
+      </c>
+      <c r="B248" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>447</v>
+      </c>
+      <c r="B249" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>448</v>
+      </c>
+      <c r="B250" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>481</v>
+      </c>
+      <c r="B251" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>482</v>
+      </c>
+      <c r="B252" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>483</v>
+      </c>
+      <c r="B253" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>484</v>
+      </c>
+      <c r="B254" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>485</v>
+      </c>
+      <c r="B255" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>486</v>
+      </c>
+      <c r="B256" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>487</v>
+      </c>
+      <c r="B257" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>488</v>
+      </c>
+      <c r="B258" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>489</v>
+      </c>
+      <c r="B259" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>490</v>
+      </c>
+      <c r="B260" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>491</v>
+      </c>
+      <c r="B261" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>492</v>
+      </c>
+      <c r="B262" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>493</v>
+      </c>
+      <c r="B264" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>494</v>
+      </c>
+      <c r="B265" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>495</v>
+      </c>
+      <c r="B266" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>496</v>
+      </c>
+      <c r="B267" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>497</v>
+      </c>
+      <c r="B268" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>498</v>
+      </c>
+      <c r="B269" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>499</v>
+      </c>
+      <c r="B270" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>500</v>
+      </c>
+      <c r="B271" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>501</v>
+      </c>
+      <c r="B272" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>502</v>
+      </c>
+      <c r="B273" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>503</v>
+      </c>
+      <c r="B274" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>504</v>
+      </c>
+      <c r="B275" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>531</v>
+      </c>
+      <c r="B277" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>532</v>
+      </c>
+      <c r="B278" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>533</v>
+      </c>
+      <c r="B279" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>534</v>
+      </c>
+      <c r="B280" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>535</v>
+      </c>
+      <c r="B281" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>536</v>
+      </c>
+      <c r="B282" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>537</v>
+      </c>
+      <c r="B283" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>538</v>
+      </c>
+      <c r="B284" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B285" t="s">
+        <v>547</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="826">
   <si>
     <t>gusher</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4938,6 +4938,2489 @@
     <rPh sb="9" eb="10">
       <t>an quan</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noxious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insuperable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limousine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nifty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>furbish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.横穿，横跨</t>
+    <rPh sb="2" eb="3">
+      <t>heng chuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>heng kua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.要点，要旨</t>
+    <rPh sb="2" eb="3">
+      <t>yao dian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yao zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有害的，有毒的</t>
+    <rPh sb="4" eb="5">
+      <t>you hai de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you du</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.难以克服的</t>
+    <rPh sb="4" eb="5">
+      <t>nan yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke fu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.大型轿车，(常指)大型豪华轿车</t>
+    <rPh sb="2" eb="3">
+      <t>da xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao che</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>da xing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hao hua</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jiao che</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.哀求，恳求</t>
+    <rPh sb="2" eb="3">
+      <t>ai qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ken qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.床垫</t>
+    <rPh sb="2" eb="3">
+      <t>chuang dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.极好的，极妙的</t>
+    <rPh sb="4" eb="5">
+      <t>ji hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji miao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.磨光，刷新</t>
+    <rPh sb="2" eb="3">
+      <t>mo guang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shua xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>persnickety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>digestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abrogate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissimulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aplomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iridescence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lactic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myopia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adolescent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canopy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lubricant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boreal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blasé</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enclosure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comatose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vanquish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ravish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.短距离全速奔跑</t>
+    <rPh sb="2" eb="3">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ju li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>quan su</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ben pao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.势力的；爱挑剔的</t>
+    <rPh sb="4" eb="5">
+      <t>shi li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ai tiao ti</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.消化，吸收</t>
+    <rPh sb="2" eb="3">
+      <t>xiao hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.愚钝的；粗糙的</t>
+    <rPh sb="4" eb="5">
+      <t>yu dun de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cu cao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.废止，废除</t>
+    <rPh sb="2" eb="3">
+      <t>fei zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.隐藏，掩饰(感情、动机等)</t>
+    <rPh sb="2" eb="3">
+      <t>yin cang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gan qing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dong ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.胁迫</t>
+    <rPh sb="2" eb="3">
+      <t>xie po</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.明喻</t>
+    <rPh sb="2" eb="3">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.沉着，镇静</t>
+    <rPh sb="2" eb="3">
+      <t>chen zhuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.彩虹色</t>
+    <rPh sb="2" eb="3">
+      <t>cai hong se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(指人)无所事事的；无效的</t>
+    <rPh sb="5" eb="6">
+      <t>zhi ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu suo shi shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wu xiao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.懒散，无所事事</t>
+    <rPh sb="2" eb="3">
+      <t>lan san</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wu suo shi shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.乳汁的</t>
+    <rPh sb="4" eb="5">
+      <t>ru zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(报刊等的文章开头或结尾)标出作者名字的一行</t>
+    <rPh sb="3" eb="4">
+      <t>bao kan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen zhang kai tou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jie wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>biao chu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zuo zhe xing ming</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ming zi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>de</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yi hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.近视；缺乏远见</t>
+    <rPh sb="2" eb="3">
+      <t>jin shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.青春期的 n.青少年</t>
+    <rPh sb="4" eb="5">
+      <t>qing chun qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qing shao nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.护航，护送</t>
+    <rPh sb="2" eb="3">
+      <t>hu hang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hu song</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.猛刺</t>
+    <rPh sb="2" eb="3">
+      <t>meng ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.克制，抑制</t>
+    <rPh sb="2" eb="3">
+      <t>ke zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.蚊帐</t>
+    <rPh sb="2" eb="3">
+      <t>wen zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.润滑剂</t>
+    <rPh sb="2" eb="3">
+      <t>run hua ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.北方的，北风的</t>
+    <rPh sb="4" eb="5">
+      <t>bei fang de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bei feng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.懊悔；良心不安</t>
+    <rPh sb="2" eb="3">
+      <t>ao hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liang xin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.厌倦享乐的，玩厌了的</t>
+    <rPh sb="4" eb="5">
+      <t>yan juan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang le</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yan juan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>le</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.圈地，围场</t>
+    <rPh sb="2" eb="3">
+      <t>quan di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.昏迷的</t>
+    <rPh sb="4" eb="5">
+      <t>hun mi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.征服，击溃</t>
+    <rPh sb="2" eb="3">
+      <t>zheng fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji kui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使着迷；抢夺</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhao mi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qiang duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.喷出；滔滔不绝地讲</t>
+    <rPh sb="2" eb="3">
+      <t>pen chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tao tao bu jue</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exculpate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boulder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustrious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mellifluous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grotesque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emasculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>august</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embolden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rumple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whoop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enunciate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frisk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fleece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impasse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>even-tempered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allergic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>martyr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.开脱；申明无罪，证明无罪</t>
+    <rPh sb="2" eb="3">
+      <t>kai tuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shen ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wu zui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zheng ming</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu zui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.巨砾</t>
+    <rPh sb="2" eb="3">
+      <t>ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.著名的，显赫的</t>
+    <rPh sb="4" eb="5">
+      <t>zhu ming</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(音乐等)柔美流畅的</t>
+    <rPh sb="5" eb="6">
+      <t>yin yue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>rou mei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>liu chang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(外形或方式)怪诞的，古怪的</t>
+    <rPh sb="5" eb="6">
+      <t>wai xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang hsi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guai dan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gu guai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.免职；宣誓作证</t>
+    <rPh sb="2" eb="3">
+      <t>mian zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zuo zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(艺术等)风格怪异的</t>
+    <rPh sb="1" eb="2">
+      <t>yi shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>feng ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guai yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.仁慈的；温和的</t>
+    <rPh sb="4" eb="5">
+      <t>ren ci</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使柔软；阉割；adj.柔软的</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>rou ruan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yan ge</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>rou ruan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.用陶罐等炖；关押</t>
+    <rPh sb="2" eb="3">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tao guan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.威严的，令人敬畏的</t>
+    <rPh sb="4" eb="5">
+      <t>wei yan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jing wei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.鼓励</t>
+    <rPh sb="2" eb="3">
+      <t>gu li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.浮标；就生圈</t>
+    <rPh sb="2" eb="3">
+      <t>fu biao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiu sheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.支持，鼓励</t>
+    <rPh sb="2" eb="3">
+      <t>zhi chi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gu li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.弄皱，弄乱</t>
+    <rPh sb="2" eb="3">
+      <t>nong zhou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nong luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.高喊，欢呼</t>
+    <rPh sb="2" eb="3">
+      <t>gao hu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>han</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huan hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.统一，一致</t>
+    <rPh sb="2" eb="3">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发音；(清楚地)表达</t>
+    <rPh sb="2" eb="3">
+      <t>fa yin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing ch</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>biao da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.烧焦；把……烧成炭</t>
+    <rPh sb="2" eb="3">
+      <t>shao jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shao cheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.欢跃，蹦跳  v.欢跃，嬉戏</t>
+    <rPh sb="2" eb="3">
+      <t>huan yue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>beng tiao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huan yue</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xi xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.生羊皮，羊毛</t>
+    <rPh sb="2" eb="3">
+      <t>sheng yang pi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yang mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.骗取，欺诈</t>
+    <rPh sb="2" eb="3">
+      <t>pian qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi zha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.僵局；死路</t>
+    <rPh sb="2" eb="3">
+      <t>jiang ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>si lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.沮丧，气馁  v.使气馁</t>
+    <rPh sb="2" eb="3">
+      <t>ju sang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi nei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qi nei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.性情平和的；不易生气的</t>
+    <rPh sb="4" eb="5">
+      <t>xing qing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ping he</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>sheng qi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.小母鸡</t>
+    <rPh sb="2" eb="3">
+      <t>xiao mu ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.过敏的；对……讨厌的</t>
+    <rPh sb="4" eb="5">
+      <t>guo min</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tao yan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.烈士，殉道者</t>
+    <rPh sb="2" eb="3">
+      <t>lie shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xun dao zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ennoble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wiry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accrue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sullen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manifesto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oxidize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enthralling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incogitant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unassuming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anneal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disinter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>celerity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forfeiture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malfeasance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scurvy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ogle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pharmacology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheedle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>careen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vandalism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.涂抹；乱画</t>
+    <rPh sb="2" eb="3">
+      <t>tu mo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>luan hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.编织；交错</t>
+    <rPh sb="2" eb="3">
+      <t>bian zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.授予爵位，使高贵</t>
+    <rPh sb="2" eb="3">
+      <t>shou yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jue wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gao gui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.瘦而结实的</t>
+    <rPh sb="4" eb="5">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>er</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.同意，允许</t>
+    <rPh sb="2" eb="3">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yun xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.求爱，求婚；恳求，争取</t>
+    <rPh sb="2" eb="3">
+      <t>qiu ai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiu hun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ken qiu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zheng qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(利息等)增加；积累</t>
+    <rPh sb="3" eb="4">
+      <t>li xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zeng jia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.忧郁的</t>
+    <rPh sb="4" eb="5">
+      <t>you yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.宣言，声明</t>
+    <rPh sb="2" eb="3">
+      <t>xuan yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.氧化，生锈</t>
+    <rPh sb="2" eb="3">
+      <t>yang hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng xiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.怨恨，恶意</t>
+    <rPh sb="2" eb="3">
+      <t>yuan hen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>e yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.迷人的，吸引人的</t>
+    <rPh sb="4" eb="5">
+      <t>mi ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi yin ren</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.未经思考的，考虑不周的</t>
+    <rPh sb="4" eb="5">
+      <t>wei jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>si kao de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kao lü</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu zhou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不摆架子的，不装腔作势的，谦逊的</t>
+    <rPh sb="4" eb="5">
+      <t>bu bai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia zi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhuang qiang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zuo shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qian xun</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使(金属、玻璃等)退火；使加强，使变硬</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bo li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tui huo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jia qiang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bian ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.挖出，掘出</t>
+    <rPh sb="2" eb="3">
+      <t>wa chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jue chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.下船，下飞机，下车</t>
+    <rPh sb="2" eb="3">
+      <t>xia chuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fei ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xia che</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载(客、货)</t>
+    <rPh sb="0" eb="1">
+      <t>xie zai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.快速，迅速</t>
+    <rPh sb="2" eb="3">
+      <t>kuai su</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xun su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(名誉等)丧失</t>
+    <rPh sb="3" eb="4">
+      <t>ming yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sang shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不法行为，渎职</t>
+    <rPh sb="2" eb="3">
+      <t>bu fa</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>du zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.卑鄙的，下流的</t>
+    <rPh sb="4" eb="5">
+      <t>bei bi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xia liu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.送秋波 n.眉眼</t>
+    <rPh sb="2" eb="3">
+      <t>song</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qiu bo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mei yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.焊接，熔接；锻接</t>
+    <rPh sb="2" eb="3">
+      <t>han jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>rong jie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duan jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.药理学，药物学；药理</t>
+    <rPh sb="2" eb="3">
+      <t>yao li xue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yao wu xue</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yao li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.担保，保证</t>
+    <rPh sb="2" eb="3">
+      <t>dan bao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.哄骗，诱骗</t>
+    <rPh sb="2" eb="3">
+      <t>hong pian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(船)倾斜；使倾斜</t>
+    <rPh sb="3" eb="4">
+      <t>chuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing xie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qing xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.挪用(公款)</t>
+    <rPh sb="2" eb="3">
+      <t>nuo yong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(对公物等的)恶意破坏</t>
+    <rPh sb="3" eb="4">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>e yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>po huai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anguish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entreaty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oratory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effulgent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thermal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encomiast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cephalic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pellucid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preponderate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snuggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disparity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hubris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riveting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encyclopedia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shabby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deprivation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.极大的痛苦</t>
+    <rPh sb="2" eb="3">
+      <t>ji da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.恳求，哀求</t>
+    <rPh sb="2" eb="3">
+      <t>ken qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ai qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.演讲术</t>
+    <rPh sb="2" eb="3">
+      <t>yan jiagn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使出神，使入迷</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu shen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ru mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.遗弃，离弃</t>
+    <rPh sb="2" eb="3">
+      <t>yi qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.灿烂的，光辉的</t>
+    <rPh sb="4" eb="5">
+      <t>can lan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guang hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.热的，热量的；温暖的</t>
+    <rPh sb="4" eb="5">
+      <t>re</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>re liang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wen nuan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.上升的暖气流</t>
+    <rPh sb="2" eb="3">
+      <t>shang sheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nuan qi liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.贿赂</t>
+    <rPh sb="2" eb="3">
+      <t>hui lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.积聚</t>
+    <rPh sb="2" eb="3">
+      <t>ji ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.赞美者</t>
+    <rPh sb="2" eb="3">
+      <t>zan mei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.狂欢寻乐</t>
+    <rPh sb="2" eb="3">
+      <t>kuang huan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xun le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.闲荡，嬉戏</t>
+    <rPh sb="2" eb="3">
+      <t>xian dang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.头的，头部的</t>
+    <rPh sb="4" eb="5">
+      <t>tou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tou bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.清晰的，清澈的</t>
+    <rPh sb="4" eb="5">
+      <t>qing xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qing che</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.虚弱的；病态的</t>
+    <rPh sb="4" eb="5">
+      <t>xu ruo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bing tai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.超过，胜过</t>
+    <rPh sb="2" eb="3">
+      <t>chao guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.朴素的；不漂亮的</t>
+    <rPh sb="4" eb="5">
+      <t>pu su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu piao liang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.紧靠，依偎</t>
+    <rPh sb="2" eb="3">
+      <t>jin kao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不同，差异</t>
+    <rPh sb="2" eb="3">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cha yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.得罪，冒犯</t>
+    <rPh sb="2" eb="3">
+      <t>de zui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mao fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.投票反对；排斥</t>
+    <rPh sb="2" eb="3">
+      <t>tou piao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fan dui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pai chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.脸红；奔流；冲洗</t>
+    <rPh sb="2" eb="3">
+      <t>lain hong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ben liu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chong xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.激动；脸红</t>
+    <rPh sb="2" eb="3">
+      <t>ji dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lian hong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.傲慢，目中无人</t>
+    <rPh sb="2" eb="3">
+      <t>ao man</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mu zhong wu ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.非常精彩的，引人入胜的</t>
+    <rPh sb="4" eb="5">
+      <t>fei chang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jing cai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yin ren ru sheng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.百科全书</t>
+    <rPh sb="2" eb="3">
+      <t>bai ke</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>quan shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.破旧的；卑鄙的</t>
+    <rPh sb="4" eb="5">
+      <t>po jiu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bei bi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.壕沟；护城河</t>
+    <rPh sb="2" eb="3">
+      <t>hao gou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hu cheng he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.剥夺，丧失</t>
+    <rPh sb="2" eb="3">
+      <t>bo duo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sang shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heckle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compulsion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evasion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>habitable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demonstrative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snarl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grumpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tangy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impeach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snappy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.诘问，责问</t>
+    <rPh sb="2" eb="3">
+      <t>jie wen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ze wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.强迫；(难以抗拒的)冲动</t>
+    <rPh sb="2" eb="3">
+      <t>qiang po</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nan yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kang ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chong dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.旧式步枪，毛瑟枪</t>
+    <rPh sb="2" eb="3">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu qiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mao se qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.躲避，借口</t>
+    <rPh sb="2" eb="3">
+      <t>duo bi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可居住的</t>
+    <rPh sb="4" eb="5">
+      <t>ke ju zhu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.证明的，论证的；感情流露的</t>
+    <rPh sb="4" eb="5">
+      <t>zheng ming</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lun zheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gan qing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>liu lu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.纠缠，混乱；怒吼声，咆哮声</t>
+    <rPh sb="2" eb="3">
+      <t>jiu chan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hun luan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nu hou sheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pao xiao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.纠缠，混乱；咆哮，怒骂；</t>
+    <rPh sb="2" eb="3">
+      <t>jiu chan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hun luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.脾气暴躁的</t>
+    <rPh sb="4" eb="5">
+      <t>pi qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao zao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.被动的，缺乏活力的</t>
+    <rPh sb="4" eb="5">
+      <t>bei dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>que fa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huo li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.气味刺激的，扑鼻的</t>
+    <rPh sb="4" eb="5">
+      <t>qi wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ci ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pu bi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.控告；怀疑；弹劾</t>
+    <rPh sb="2" eb="3">
+      <t>kong gao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huai yhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tan he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.生机勃勃的；漂亮的，时髦的</t>
+    <rPh sb="4" eb="5">
+      <t>sheng ji bo bo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>piao liang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi mao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.申请人</t>
+    <rPh sb="2" eb="3">
+      <t>shen qing ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.辛辣的，刻薄的</t>
+    <rPh sb="4" eb="5">
+      <t>xin la</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke bo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.召集，聚集</t>
+    <rPh sb="2" eb="3">
+      <t>zhao ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5264,10 +7747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B285"/>
+  <dimension ref="A1:B430"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A269" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="B285" sqref="B285"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A217" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5826,1676 +8309,2802 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" t="s">
-        <v>145</v>
-      </c>
+      <c r="A72" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>132</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>133</v>
-      </c>
-      <c r="B76" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>167</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>168</v>
-      </c>
-      <c r="B96" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B97" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B100" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B110" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B111" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="B114" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B115" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B116" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B117" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>220</v>
+      </c>
+      <c r="B118" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>221</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>222</v>
-      </c>
-      <c r="B120" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>223</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>224</v>
-      </c>
-      <c r="B123" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B124" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>226</v>
+      </c>
+      <c r="B126" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>227</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>228</v>
-      </c>
-      <c r="B128" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B129" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B131" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B134" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B135" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B137" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B138" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B139" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B140" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B141" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B142" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B143" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B144" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>275</v>
+      </c>
+      <c r="B145" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>272</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>278</v>
-      </c>
-      <c r="B147" t="s">
-        <v>291</v>
-      </c>
-    </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>279</v>
-      </c>
-      <c r="B148" t="s">
-        <v>292</v>
-      </c>
+      <c r="A148" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B148" s="1"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B152" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B153" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B156" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B157" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B158" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B159" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B160" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B161" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B162" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B163" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B164" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B165" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B166" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B167" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B168" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B169" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B170" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B171" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B172" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B173" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B174" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>321</v>
+      </c>
       <c r="B179" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B180" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>324</v>
-      </c>
       <c r="B181" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B182" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>324</v>
+      </c>
       <c r="B183" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B184" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>327</v>
-      </c>
       <c r="B185" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B186" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B187" t="s">
-        <v>140</v>
+        <v>358</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B188" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B189" t="s">
-        <v>361</v>
+        <v>140</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B190" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="B191" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="B192" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B193" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B194" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B195" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B196" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B197" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B198" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B199" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B200" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B201" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B202" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B203" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B204" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B205" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>376</v>
+      </c>
       <c r="B206" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B207" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>379</v>
-      </c>
       <c r="B208" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B209" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B210" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B211" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B212" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B213" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B214" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B215" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B216" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B217" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>387</v>
+      </c>
       <c r="B218" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="B219" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>418</v>
-      </c>
       <c r="B220" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B221" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B222" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B223" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>422</v>
-      </c>
-      <c r="B224" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B225" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B226" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B227" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B228" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B229" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B230" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B231" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B232" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B233" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B234" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B235" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B236" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B237" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B238" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B239" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B240" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B241" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B242" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B243" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B244" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B245" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B246" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B247" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B248" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B249" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B250" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="B251" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="B252" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="B253" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B254" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B255" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B256" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B257" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B258" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B259" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B260" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B261" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B262" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>490</v>
+      </c>
       <c r="B263" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B264" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B265" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>495</v>
-      </c>
       <c r="B266" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B267" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B268" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B269" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B270" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B271" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B272" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B273" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B274" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B275" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>502</v>
+      </c>
       <c r="B276" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="B277" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="B278" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>533</v>
-      </c>
       <c r="B279" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B280" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B281" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B282" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B283" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
+        <v>535</v>
+      </c>
+      <c r="B284" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>536</v>
+      </c>
+      <c r="B285" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>537</v>
+      </c>
+      <c r="B286" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
         <v>538</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B287" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B285" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B288" t="s">
         <v>547</v>
       </c>
     </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>548</v>
+      </c>
+      <c r="B289" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>549</v>
+      </c>
+      <c r="B290" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>550</v>
+      </c>
+      <c r="B291" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>551</v>
+      </c>
+      <c r="B292" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>552</v>
+      </c>
+      <c r="B293" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>553</v>
+      </c>
+      <c r="B294" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>554</v>
+      </c>
+      <c r="B295" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>555</v>
+      </c>
+      <c r="B296" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>556</v>
+      </c>
+      <c r="B297" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>566</v>
+      </c>
+      <c r="B298" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>567</v>
+      </c>
+      <c r="B299" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>568</v>
+      </c>
+      <c r="B300" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>569</v>
+      </c>
+      <c r="B301" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>570</v>
+      </c>
+      <c r="B302" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>571</v>
+      </c>
+      <c r="B303" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>572</v>
+      </c>
+      <c r="B304" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>573</v>
+      </c>
+      <c r="B305" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>574</v>
+      </c>
+      <c r="B306" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>575</v>
+      </c>
+      <c r="B307" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>576</v>
+      </c>
+      <c r="B308" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>577</v>
+      </c>
+      <c r="B310" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>578</v>
+      </c>
+      <c r="B311" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>579</v>
+      </c>
+      <c r="B312" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>580</v>
+      </c>
+      <c r="B313" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>581</v>
+      </c>
+      <c r="B314" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>582</v>
+      </c>
+      <c r="B315" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>583</v>
+      </c>
+      <c r="B316" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>584</v>
+      </c>
+      <c r="B317" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>585</v>
+      </c>
+      <c r="B318" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>586</v>
+      </c>
+      <c r="B319" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>587</v>
+      </c>
+      <c r="B320" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>588</v>
+      </c>
+      <c r="B321" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>589</v>
+      </c>
+      <c r="B322" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>590</v>
+      </c>
+      <c r="B323" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>591</v>
+      </c>
+      <c r="B324" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>592</v>
+      </c>
+      <c r="B325" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>621</v>
+      </c>
+      <c r="B326" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>623</v>
+      </c>
+      <c r="B327" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>624</v>
+      </c>
+      <c r="B328" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>625</v>
+      </c>
+      <c r="B329" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>626</v>
+      </c>
+      <c r="B330" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>627</v>
+      </c>
+      <c r="B331" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>628</v>
+      </c>
+      <c r="B332" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B333" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>629</v>
+      </c>
+      <c r="B334" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>630</v>
+      </c>
+      <c r="B335" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>631</v>
+      </c>
+      <c r="B336" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>632</v>
+      </c>
+      <c r="B337" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>633</v>
+      </c>
+      <c r="B338" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>634</v>
+      </c>
+      <c r="B339" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B340" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>635</v>
+      </c>
+      <c r="B341" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>636</v>
+      </c>
+      <c r="B342" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>637</v>
+      </c>
+      <c r="B343" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>638</v>
+      </c>
+      <c r="B344" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>639</v>
+      </c>
+      <c r="B345" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>640</v>
+      </c>
+      <c r="B346" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>641</v>
+      </c>
+      <c r="B347" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>642</v>
+      </c>
+      <c r="B349" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>643</v>
+      </c>
+      <c r="B350" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>644</v>
+      </c>
+      <c r="B351" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>645</v>
+      </c>
+      <c r="B352" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>646</v>
+      </c>
+      <c r="B353" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>647</v>
+      </c>
+      <c r="B354" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>676</v>
+      </c>
+      <c r="B355" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>677</v>
+      </c>
+      <c r="B356" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>678</v>
+      </c>
+      <c r="B357" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>679</v>
+      </c>
+      <c r="B358" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>680</v>
+      </c>
+      <c r="B359" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>681</v>
+      </c>
+      <c r="B360" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>682</v>
+      </c>
+      <c r="B361" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>683</v>
+      </c>
+      <c r="B362" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>684</v>
+      </c>
+      <c r="B363" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>685</v>
+      </c>
+      <c r="B364" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>686</v>
+      </c>
+      <c r="B365" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>687</v>
+      </c>
+      <c r="B366" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>688</v>
+      </c>
+      <c r="B367" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>689</v>
+      </c>
+      <c r="B368" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>690</v>
+      </c>
+      <c r="B369" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>691</v>
+      </c>
+      <c r="B370" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>692</v>
+      </c>
+      <c r="B371" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B372" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>693</v>
+      </c>
+      <c r="B373" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>694</v>
+      </c>
+      <c r="B374" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>695</v>
+      </c>
+      <c r="B375" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>696</v>
+      </c>
+      <c r="B376" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>697</v>
+      </c>
+      <c r="B377" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>698</v>
+      </c>
+      <c r="B378" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>699</v>
+      </c>
+      <c r="B379" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>700</v>
+      </c>
+      <c r="B380" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>701</v>
+      </c>
+      <c r="B381" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>702</v>
+      </c>
+      <c r="B382" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>703</v>
+      </c>
+      <c r="B383" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>704</v>
+      </c>
+      <c r="B384" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>735</v>
+      </c>
+      <c r="B385" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>736</v>
+      </c>
+      <c r="B386" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>737</v>
+      </c>
+      <c r="B387" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>738</v>
+      </c>
+      <c r="B388" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>739</v>
+      </c>
+      <c r="B389" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>740</v>
+      </c>
+      <c r="B390" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>741</v>
+      </c>
+      <c r="B391" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B392" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>742</v>
+      </c>
+      <c r="B393" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>743</v>
+      </c>
+      <c r="B394" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>744</v>
+      </c>
+      <c r="B395" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>745</v>
+      </c>
+      <c r="B396" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>746</v>
+      </c>
+      <c r="B397" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>747</v>
+      </c>
+      <c r="B398" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>748</v>
+      </c>
+      <c r="B399" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>749</v>
+      </c>
+      <c r="B400" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>750</v>
+      </c>
+      <c r="B401" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>751</v>
+      </c>
+      <c r="B402" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>752</v>
+      </c>
+      <c r="B403" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>753</v>
+      </c>
+      <c r="B404" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>754</v>
+      </c>
+      <c r="B405" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>755</v>
+      </c>
+      <c r="B406" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>756</v>
+      </c>
+      <c r="B407" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B408" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>757</v>
+      </c>
+      <c r="B409" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>758</v>
+      </c>
+      <c r="B410" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>759</v>
+      </c>
+      <c r="B411" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>760</v>
+      </c>
+      <c r="B412" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>761</v>
+      </c>
+      <c r="B413" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>762</v>
+      </c>
+      <c r="B414" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>793</v>
+      </c>
+      <c r="B415" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>794</v>
+      </c>
+      <c r="B416" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>795</v>
+      </c>
+      <c r="B417" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>796</v>
+      </c>
+      <c r="B418" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>797</v>
+      </c>
+      <c r="B419" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>798</v>
+      </c>
+      <c r="B420" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>799</v>
+      </c>
+      <c r="B421" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B422" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>800</v>
+      </c>
+      <c r="B423" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>801</v>
+      </c>
+      <c r="B424" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>802</v>
+      </c>
+      <c r="B425" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>803</v>
+      </c>
+      <c r="B426" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>804</v>
+      </c>
+      <c r="B427" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>805</v>
+      </c>
+      <c r="B428" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>806</v>
+      </c>
+      <c r="B429" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>807</v>
+      </c>
+      <c r="B430" t="s">
+        <v>823</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A148:B148"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1130">
   <si>
     <t>gusher</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1307,10 +1307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使除去危险性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v.拆除(爆破物的)引信</t>
     <rPh sb="2" eb="3">
       <t>chai chu</t>
@@ -1476,10 +1472,6 @@
   </si>
   <si>
     <t>ensue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unbidded</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1729,13 +1721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.猛扑</t>
-    <rPh sb="2" eb="3">
-      <t>meng pu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n.催眠术，催眠引导法</t>
     <rPh sb="2" eb="3">
       <t>cui mian</t>
@@ -7421,6 +7406,2685 @@
   </si>
   <si>
     <t>unit 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schematize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pittance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leisureliness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shattered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nadir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lustrous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ooze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comeuppance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.简要表示</t>
+    <rPh sb="2" eb="3">
+      <t>jian yao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.构成整体所必须的；完整的</t>
+    <rPh sb="4" eb="5">
+      <t>gou cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zheng ti</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>suo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bi xu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wan zheng</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.割让，转让</t>
+    <rPh sb="2" eb="3">
+      <t>ge rang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuan rang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.微薄的薪俸，少量的收入；少量</t>
+    <rPh sb="2" eb="3">
+      <t>wei bo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin feng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shao liang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shou ru</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shao liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.打伤，伤害</t>
+    <rPh sb="2" eb="3">
+      <t>da sahng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sahng hai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.悠然，从容</t>
+    <rPh sb="2" eb="3">
+      <t>you ran</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cong rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.破碎的</t>
+    <rPh sb="4" eb="5">
+      <t>po sui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.刚愎自用的，固执的</t>
+    <rPh sb="4" eb="5">
+      <t>gang bi zi yong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gu zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.张力的；客伸展的</t>
+    <rPh sb="4" eb="5">
+      <t>zhang li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shen zhan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.最低点</t>
+    <rPh sb="2" eb="3">
+      <t>zui di dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有光泽的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guang ze</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.慢慢地流，渗出；(勇气)逐渐消失</t>
+    <rPh sb="2" eb="3">
+      <t>man man</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shen chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yong qi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhu jian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.枫树</t>
+    <rPh sb="2" eb="3">
+      <t>feng shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.应得的惩罚，因果报应</t>
+    <rPh sb="2" eb="3">
+      <t>ying</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng fa</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin guo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bao ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extrude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forensic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contiguous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrewd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pilot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dawdle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malaise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismantle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sneaking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protuberant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lateral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crafty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doleful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>culprit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nettle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reminisce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assuage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oleaginous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variegate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menthol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.挤出，推出，逐出；伸出，突出</t>
+    <rPh sb="2" eb="3">
+      <t>ji chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tui chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tu chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.运动性</t>
+    <rPh sb="2" eb="3">
+      <t>yun dong xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.公开辩论的，争论的</t>
+    <rPh sb="4" eb="5">
+      <t>gong kai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian lun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zheng lun</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.接壤的；接近的</t>
+    <rPh sb="4" eb="5">
+      <t>jie rang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie jin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.样式；模式；方式，形式；时尚</t>
+    <rPh sb="2" eb="3">
+      <t>yang shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang hsi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xing shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.极可怜的；卑下的</t>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke lian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.机灵的，精明的</t>
+    <rPh sb="4" eb="5">
+      <t>ji ling</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jing ming</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.／v.崇拜，敬仰</t>
+    <rPh sb="5" eb="6">
+      <t>chong bai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jing yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.唤醒；激发</t>
+    <rPh sb="2" eb="3">
+      <t>huan xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.重要性；星球的亮度</t>
+    <rPh sb="2" eb="3">
+      <t>zhong yao xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing qiu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>liang du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.飞行员；领航员</t>
+    <rPh sb="2" eb="3">
+      <t>fei xing yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ling hang yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.闲荡，虚度光阴</t>
+    <rPh sb="2" eb="3">
+      <t>xian dang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xu du</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guang yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不适，不舒服</t>
+    <rPh sb="2" eb="3">
+      <t>bu shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu shu fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.拆除</t>
+    <rPh sb="2" eb="3">
+      <t>chai chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.鬼鬼祟祟的，私下的</t>
+    <rPh sb="4" eb="5">
+      <t>gui gui sui sui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>si xia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.突出的，隆起的</t>
+    <rPh sb="4" eb="5">
+      <t>tu chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>long qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.侧面的</t>
+    <rPh sb="4" eb="5">
+      <t>ce mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.矫揉造作的，故做多情的</t>
+    <rPh sb="4" eb="5">
+      <t>jiao rou zao zuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gu zuo duo qing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.狡诈的；灵巧的</t>
+    <rPh sb="4" eb="5">
+      <t>jiao zha</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ling qiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.玷污；染色</t>
+    <rPh sb="2" eb="3">
+      <t>dian wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ran se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.悲哀的，忧郁的</t>
+    <rPh sb="4" eb="5">
+      <t>bei ai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.罪犯</t>
+    <rPh sb="2" eb="3">
+      <t>zui fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.荨麻 v.烦扰，激怒</t>
+    <rPh sb="2" eb="3">
+      <t>xun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ma</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fan rao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.追忆，回想</t>
+    <rPh sb="2" eb="3">
+      <t>zhui yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hui xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.缓和，减轻</t>
+    <rPh sb="2" eb="3">
+      <t>huan he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.油腻的；圆滑的，满口恭维的</t>
+    <rPh sb="4" eb="5">
+      <t>you ni</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>man kou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gong wei</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.免除；宽恕；汇款</t>
+    <rPh sb="2" eb="3">
+      <t>mian chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kuan shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使多样化，使色彩斑斓</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>duo yang hua</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>se cai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ban lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.打滚；沉迷 n.打滚</t>
+    <rPh sb="2" eb="3">
+      <t>da gun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chen mi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>da gun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.跌跌撞撞地走，笨拙地走</t>
+    <rPh sb="2" eb="3">
+      <t>die die zhuang zhuang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ben zhuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>di</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.杂物；木材</t>
+    <rPh sb="2" eb="3">
+      <t>za wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mu cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.薄荷醇</t>
+    <rPh sb="2" eb="3">
+      <t>bo he chun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>persecute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rigor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stanza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rumpus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>misshapen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spleen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lukewarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obeisance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mirage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peremptory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choleric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspirant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incubation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predilection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exiguous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acumen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provenance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redolent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numismatist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.迫害</t>
+    <rPh sb="2" eb="3">
+      <t>po hai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.秘密行动</t>
+    <rPh sb="2" eb="3">
+      <t>mi mi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.严厉，严格，苛刻；严密，精确</t>
+    <rPh sb="2" eb="3">
+      <t>yan li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan ge</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke ke</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yan mi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jing que</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(诗的)节，段</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.喧闹，骚乱</t>
+    <rPh sb="2" eb="3">
+      <t>xuan nao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sao luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.畸形的，奇形怪状的</t>
+    <rPh sb="4" eb="5">
+      <t>ji xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi xing guai zhuang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.怒气</t>
+    <rPh sb="2" eb="3">
+      <t>nu qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.令状；书面命令</t>
+    <rPh sb="2" eb="3">
+      <t>ling zhuang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu mian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ming ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.微温的，不冷不热的</t>
+    <rPh sb="4" eb="5">
+      <t>wei wen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu leng bu re</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.羊栏 v.折叠</t>
+    <rPh sb="2" eb="3">
+      <t>yang lan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhe die</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.鞠躬，敬礼</t>
+    <rPh sb="2" eb="3">
+      <t>ju gong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.海市蜃楼；幻想，幻影</t>
+    <rPh sb="2" eb="3">
+      <t>hai shi shen lou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>huan xiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huan ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不容反抗的；专横的</t>
+    <rPh sb="4" eb="5">
+      <t>bu rong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan kang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhuan heng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.产生，引起</t>
+    <rPh sb="2" eb="3">
+      <t>chan sheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.散开，驱散</t>
+    <rPh sb="2" eb="3">
+      <t>san kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qu san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易怒的，暴躁的</t>
+    <rPh sb="4" eb="5">
+      <t>yi nu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bao zao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.嘲笑</t>
+    <rPh sb="2" eb="3">
+      <t>chao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.许多，大量；(水流)暴涨，发洪水</t>
+    <rPh sb="2" eb="3">
+      <t>xu duo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da liang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shui liu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bao zhang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fa hong shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.有抱负者</t>
+    <rPh sb="2" eb="3">
+      <t>you</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.孵卵期，潜伏期</t>
+    <rPh sb="2" eb="3">
+      <t>fu luan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qian fu qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.该得的，理所当然的</t>
+    <rPh sb="4" eb="5">
+      <t>gai de de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>li suo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.祈求，恳求；使生效</t>
+    <rPh sb="2" eb="3">
+      <t>qi qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ken qiu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sheng xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.津贴，补助；承认，允许</t>
+    <rPh sb="2" eb="3">
+      <t>jin tie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu zhu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cheng ren</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yun xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.偏好，嗜好</t>
+    <rPh sb="2" eb="3">
+      <t>pian hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.骑兵部队，装甲部队</t>
+    <rPh sb="2" eb="3">
+      <t>qi bing bu dui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuang jia</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.太少的，不足的</t>
+    <rPh sb="4" eb="5">
+      <t>tai shao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu zu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.敏锐，精明</t>
+    <rPh sb="2" eb="3">
+      <t>min rui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.涉水；跋涉</t>
+    <rPh sb="2" eb="3">
+      <t>she shui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ba she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.刺激，激励；用马刺刺马</t>
+    <rPh sb="2" eb="3">
+      <t>ci ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ma ci</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ci ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.出处，起源</t>
+    <rPh sb="2" eb="3">
+      <t>chu chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.时髦的</t>
+    <rPh sb="4" eb="5">
+      <t>shi mao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.芬芳的，芳香的</t>
+    <rPh sb="4" eb="5">
+      <t>fen ffang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang xiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.钱币学家，钱币收藏家</t>
+    <rPh sb="2" eb="3">
+      <t>qian bi xue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qian bi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shou cang jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-assertion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gourmand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profiteer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toothsome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hurdle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gargoyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rabid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particularize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hinge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>putrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remonstrance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gruff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abnegate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensconce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoodoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vista</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egoism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitiless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tusk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.自作主张</t>
+    <rPh sb="2" eb="3">
+      <t>zi zuo zhu zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.嗜食者</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.奸商，牟取暴利者</t>
+    <rPh sb="2" eb="3">
+      <t>jian shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mou qu bao li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.兴奋的，有强烈兴趣的</t>
+    <rPh sb="4" eb="5">
+      <t>xing fen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qiang lie</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xing qu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.酒窝，笑靥</t>
+    <rPh sb="2" eb="3">
+      <t>jiu wo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.豆荚 v.剥掉(豆荚)</t>
+    <rPh sb="2" eb="3">
+      <t>dou jia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bo diao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dou jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可口的，美味的</t>
+    <rPh sb="4" eb="5">
+      <t>ke kou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mei wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.障碍；跨栏  v.克服(障碍)</t>
+    <rPh sb="2" eb="3">
+      <t>zhang ai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kua lan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ke fu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhang ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(雕刻成怪兽状的)滴水嘴</t>
+    <rPh sb="3" eb="4">
+      <t>diao ke</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guai shou zhuang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>di shui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面容丑恶的人</t>
+  </si>
+  <si>
+    <t>adj.患狂犬病的；疯狂的，狂暴的</t>
+    <rPh sb="4" eb="5">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kuang quan bing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>feng kuang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kuang bao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.详述，列举</t>
+    <rPh sb="2" eb="3">
+      <t>xiang shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lie ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.竞争</t>
+    <rPh sb="2" eb="3">
+      <t>jing zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.铰链；关键</t>
+    <rPh sb="2" eb="3">
+      <t>jiao lian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guan jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.欺骗；幻想</t>
+    <rPh sb="2" eb="3">
+      <t>qi pian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huan xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.雄鹅；笨人，傻瓜  v.闲逛</t>
+    <rPh sb="2" eb="3">
+      <t>xiong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>e</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ben ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sha gua</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xian guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.谷仓</t>
+    <rPh sb="2" eb="3">
+      <t>gu cang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.腐臭的</t>
+    <rPh sb="4" eb="5">
+      <t>fu chou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使陶醉；施魔法于</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tao zui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi mo fa</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.豪华的</t>
+    <rPh sb="4" eb="5">
+      <t>hao hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.抗议，抱怨</t>
+    <rPh sb="2" eb="3">
+      <t>kang yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.粗鲁的，板着脸的；(声音)嘶哑的</t>
+    <rPh sb="4" eb="5">
+      <t>cu lu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ban zhe lian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>sheng yin</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>si ya</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.把……比做</t>
+    <rPh sb="2" eb="3">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bi zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.子女的</t>
+    <rPh sb="4" eb="5">
+      <t>zi nü</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.否认，放弃</t>
+    <rPh sb="2" eb="3">
+      <t>fou ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.安置，安坐</t>
+    <rPh sb="2" eb="3">
+      <t>an zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.厄运；招来不幸的人</t>
+    <rPh sb="2" eb="3">
+      <t>e yun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.远景；展望</t>
+    <rPh sb="2" eb="3">
+      <t>yuan jing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhan wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.利己主义</t>
+    <rPh sb="2" eb="3">
+      <t>li ji zhu yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(吃甜食)生腻，吃腻</t>
+    <rPh sb="3" eb="4">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tian shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chi ni</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无情的，冷酷的，无同情心的</t>
+    <rPh sb="4" eb="5">
+      <t>wu qing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>leng ku</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu tong qing xin</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.识别，看出</t>
+    <rPh sb="2" eb="3">
+      <t>shi bie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kan chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(象等的)长牙</t>
+    <rPh sb="3" eb="4">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhang ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parturition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beacon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shriek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>differentiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curdle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaffe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vicissitudinous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gutless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magniloquent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potboiler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demarcate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smudge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consecrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeopardy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.痛击，严惩</t>
+    <rPh sb="2" eb="3">
+      <t>tong ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.生产，分娩</t>
+    <rPh sb="2" eb="3">
+      <t>sheng chan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winkle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.挑出，剔出，取出</t>
+    <rPh sb="2" eb="3">
+      <t>tiao chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qu chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cohesion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.内聚力；凝聚力</t>
+    <rPh sb="2" eb="3">
+      <t>nei ju li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ning ju li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.烽火；灯塔</t>
+    <rPh sb="2" eb="3">
+      <t>feng huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.弯腰，俯身；屈尊</t>
+    <rPh sb="2" eb="3">
+      <t>wan yao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu shen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qu zun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.尖叫</t>
+    <rPh sb="2" eb="3">
+      <t>jian jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.附属的，次要的</t>
+    <rPh sb="4" eb="5">
+      <t>fu shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.辨别，区别</t>
+    <rPh sb="2" eb="3">
+      <t>bian bie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qu bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使凝结，变稠</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ning ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(社交上令人不快的)失礼，失态</t>
+    <rPh sb="3" eb="4">
+      <t>she jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu kuai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi li</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.行，走，前进</t>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qian jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.中伤，诽谤</t>
+    <rPh sb="2" eb="3">
+      <t>zhong shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei bang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有变化的，变迁的</t>
+    <rPh sb="4" eb="5">
+      <t>you bian hua</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bian qian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.疾行，飞奔</t>
+    <rPh sb="2" eb="3">
+      <t>ji xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.没有勇气的，怯懦的</t>
+    <rPh sb="4" eb="5">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yong qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qie nuo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.夸张的</t>
+    <rPh sb="4" eb="5">
+      <t>kua zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.任命，指定；约定</t>
+    <rPh sb="2" eb="3">
+      <t>ren ming</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yue ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.粗制滥造的文艺作品</t>
+    <rPh sb="2" eb="3">
+      <t>cu zhi lan zao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen yi zuo p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.凶兆，前兆，预感</t>
+    <rPh sb="2" eb="3">
+      <t>xiong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qian zhao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yu gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.凶兆的，先兆的</t>
+    <rPh sb="4" eb="5">
+      <t>xiong zhao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian zhao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.划分，划界</t>
+    <rPh sb="2" eb="3">
+      <t>hua fen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hua jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.污迹，污点   v.弄张</t>
+    <rPh sb="2" eb="3">
+      <t>wu ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wu dian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nong zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.奉献，使神圣</t>
+    <rPh sb="2" eb="3">
+      <t>feng cxian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shen sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不断的变动，变迁，动荡不安</t>
+    <rPh sb="2" eb="3">
+      <t>bu duan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bian dong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bian qian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dong dang bu an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.危险</t>
+    <rPh sb="2" eb="3">
+      <t>wei xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consolidate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corporeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harshly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neurosis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overriding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judicial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brochure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zealotry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.推挤，猛推</t>
+    <rPh sb="2" eb="3">
+      <t>tui ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>meng tui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.溺爱；昏聩</t>
+    <rPh sb="2" eb="3">
+      <t>ni ai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hun kui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.啜饮  n.小口喝，抿；一小口的量</t>
+    <rPh sb="2" eb="3">
+      <t>chuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao kou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>min</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yi xiao kou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.巩固；加强；合并</t>
+    <rPh sb="2" eb="3">
+      <t>gong gu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia qiang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he bong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.肉体的，身体的；物质的</t>
+    <rPh sb="4" eb="5">
+      <t>rou ti</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shen ti</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu zhi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.严酷地，无情地</t>
+    <rPh sb="4" eb="5">
+      <t>yan ku</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu qong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.神经官能症</t>
+    <rPh sb="2" eb="3">
+      <t>shen jing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.奇怪的，反常的</t>
+    <rPh sb="4" eb="5">
+      <t>qi guai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan chang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.最主要的，优先的</t>
+    <rPh sb="4" eb="5">
+      <t>zui zhu yao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you xian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.法庭的，法官的</t>
+    <rPh sb="4" eb="5">
+      <t>fa ting</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa guan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.小册子，说明书</t>
+    <rPh sb="2" eb="3">
+      <t>xiao ce</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shuo ming shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.狂热</t>
+    <rPh sb="2" eb="3">
+      <t>kuang re</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.喧扰，骚动  v.烦恼</t>
+    <rPh sb="2" eb="3">
+      <t>xuan rao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sao dong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fan nao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使除去危险性；平息</t>
+    <rPh sb="7" eb="8">
+      <t>ping xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.猛扑；攫取</t>
+    <rPh sb="2" eb="3">
+      <t>meng pu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jue qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unbidden</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7747,10 +10411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B430"/>
+  <dimension ref="A1:B590"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A217" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A94" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8310,7 +10974,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B72" s="1"/>
     </row>
@@ -8335,12 +10999,12 @@
         <v>132</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>147</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -8348,7 +11012,7 @@
         <v>133</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -8356,7 +11020,7 @@
         <v>134</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -8364,7 +11028,7 @@
         <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -8372,7 +11036,7 @@
         <v>136</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -8380,7 +11044,7 @@
         <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -8388,145 +11052,145 @@
         <v>138</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B88" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B90" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B91" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B94" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B95" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B97" t="s">
-        <v>200</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B98" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
         <v>54</v>
@@ -8534,686 +11198,686 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>175</v>
+        <v>1129</v>
       </c>
       <c r="B104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B106" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B109" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B110" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B112" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B115" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B116" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B117" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B118" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B119" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B121" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B122" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B125" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B137" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B139" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B140" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B141" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B142" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>267</v>
+      </c>
+      <c r="B143" t="s">
         <v>270</v>
-      </c>
-      <c r="B143" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>268</v>
+      </c>
+      <c r="B144" t="s">
         <v>271</v>
-      </c>
-      <c r="B144" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B146" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B148" s="1"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B150" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B151" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B152" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B153" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B154" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B155" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B156" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B157" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B158" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B159" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B160" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B161" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B162" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B163" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B164" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B165" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B166" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B167" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B168" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B169" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B170" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B171" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B172" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B173" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B174" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B175" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B176" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B177" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B178" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B179" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B180" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B182" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B183" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B184" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B186" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B187" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B188" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B189" t="s">
         <v>140</v>
@@ -9221,1890 +11885,3124 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B190" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B191" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B192" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B193" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B194" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B195" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B196" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B197" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B198" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B199" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B200" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B201" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B202" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B203" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B204" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B205" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B206" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B207" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B209" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B210" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B211" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B212" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B213" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B214" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B215" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B216" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B217" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B218" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B219" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B221" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B222" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B223" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>420</v>
-      </c>
-      <c r="B225" t="s">
-        <v>452</v>
-      </c>
+      <c r="A225" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B225" s="1"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B226" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B227" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B228" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B229" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B230" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B232" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B233" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B234" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B235" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B236" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B237" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B238" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B239" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B240" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B241" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B242" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B243" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B244" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B245" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B246" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B247" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B248" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B249" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B250" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B251" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B252" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B253" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="B254" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B255" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B256" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B257" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B258" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B259" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B260" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B261" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B262" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B263" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B264" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B265" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>489</v>
+      </c>
       <c r="B266" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>493</v>
-      </c>
       <c r="B267" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B268" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B269" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B270" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B271" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B272" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B273" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B274" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B275" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B276" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B277" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B278" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>501</v>
+      </c>
       <c r="B279" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>531</v>
-      </c>
       <c r="B280" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B281" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B282" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B283" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B284" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B285" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B286" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B287" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>535</v>
+      </c>
       <c r="B288" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>548</v>
-      </c>
       <c r="B289" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B290" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B291" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B292" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B293" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B294" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B295" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B296" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B297" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="B298" t="s">
-        <v>593</v>
+        <v>562</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B299" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B300" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>569</v>
-      </c>
-      <c r="B301" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>570</v>
-      </c>
-      <c r="B302" t="s">
-        <v>597</v>
-      </c>
+      <c r="A302" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B302" s="1"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B303" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B304" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B305" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B306" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B307" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B308" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>571</v>
+      </c>
       <c r="B309" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B310" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B311" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>579</v>
-      </c>
       <c r="B312" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B313" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B314" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B315" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B316" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B317" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B318" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B319" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B320" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B321" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B322" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B323" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B324" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B325" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>621</v>
+        <v>587</v>
       </c>
       <c r="B326" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>623</v>
+        <v>588</v>
       </c>
       <c r="B327" t="s">
-        <v>648</v>
+        <v>616</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>624</v>
+        <v>589</v>
       </c>
       <c r="B328" t="s">
-        <v>649</v>
+        <v>617</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B329" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B330" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B331" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B332" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>623</v>
+      </c>
       <c r="B333" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B334" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B335" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>631</v>
-      </c>
       <c r="B336" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B337" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B338" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B339" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>629</v>
+      </c>
       <c r="B340" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B341" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B342" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>637</v>
-      </c>
       <c r="B343" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B344" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B345" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B346" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B347" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>636</v>
+      </c>
       <c r="B348" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B349" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B350" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
-        <v>644</v>
-      </c>
       <c r="B351" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B352" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B353" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B354" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>676</v>
+        <v>642</v>
       </c>
       <c r="B355" t="s">
-        <v>705</v>
+        <v>670</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>677</v>
+        <v>643</v>
       </c>
       <c r="B356" t="s">
-        <v>706</v>
+        <v>671</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>678</v>
+        <v>644</v>
       </c>
       <c r="B357" t="s">
-        <v>707</v>
+        <v>672</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B358" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B359" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B360" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B361" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B362" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B363" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B364" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B365" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B366" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B367" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B368" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B369" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B370" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B371" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>687</v>
+      </c>
       <c r="B372" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B373" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B374" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
-        <v>695</v>
-      </c>
       <c r="B375" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B376" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B377" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B378" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>699</v>
-      </c>
-      <c r="B379" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>700</v>
-      </c>
-      <c r="B380" t="s">
-        <v>730</v>
-      </c>
+      <c r="A380" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B380" s="1"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B381" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="B382" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B383" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B384" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>735</v>
+        <v>697</v>
       </c>
       <c r="B385" t="s">
-        <v>763</v>
+        <v>727</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>736</v>
+        <v>698</v>
       </c>
       <c r="B386" t="s">
-        <v>764</v>
+        <v>728</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>737</v>
+        <v>699</v>
       </c>
       <c r="B387" t="s">
-        <v>765</v>
+        <v>729</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>738</v>
+        <v>700</v>
       </c>
       <c r="B388" t="s">
-        <v>766</v>
+        <v>730</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>739</v>
+        <v>701</v>
       </c>
       <c r="B389" t="s">
-        <v>767</v>
+        <v>731</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B390" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B391" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>734</v>
+      </c>
       <c r="B392" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B393" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B394" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B395" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B396" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>746</v>
-      </c>
       <c r="B397" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B398" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B399" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B400" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B401" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B402" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B403" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B404" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B405" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B406" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B407" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>749</v>
+      </c>
       <c r="B408" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B409" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B410" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B411" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="B412" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
-        <v>761</v>
-      </c>
       <c r="B413" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="B414" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>793</v>
+        <v>755</v>
       </c>
       <c r="B415" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>794</v>
+        <v>756</v>
       </c>
       <c r="B416" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>795</v>
+        <v>757</v>
       </c>
       <c r="B417" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
       <c r="B418" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
       <c r="B419" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="B420" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="B421" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>792</v>
+      </c>
       <c r="B422" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="B423" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B424" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="B425" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B426" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
-        <v>804</v>
-      </c>
       <c r="B427" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="B428" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B429" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B430" t="s">
-        <v>823</v>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>800</v>
+      </c>
+      <c r="B431" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>801</v>
+      </c>
+      <c r="B432" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>802</v>
+      </c>
+      <c r="B433" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>803</v>
+      </c>
+      <c r="B434" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>804</v>
+      </c>
+      <c r="B435" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>826</v>
+      </c>
+      <c r="B436" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>827</v>
+      </c>
+      <c r="B437" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>828</v>
+      </c>
+      <c r="B438" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>829</v>
+      </c>
+      <c r="B439" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>830</v>
+      </c>
+      <c r="B440" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>831</v>
+      </c>
+      <c r="B441" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>832</v>
+      </c>
+      <c r="B442" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>833</v>
+      </c>
+      <c r="B443" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>834</v>
+      </c>
+      <c r="B444" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>835</v>
+      </c>
+      <c r="B445" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>836</v>
+      </c>
+      <c r="B446" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>837</v>
+      </c>
+      <c r="B447" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>838</v>
+      </c>
+      <c r="B448" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>839</v>
+      </c>
+      <c r="B449" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>854</v>
+      </c>
+      <c r="B450" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>855</v>
+      </c>
+      <c r="B451" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>856</v>
+      </c>
+      <c r="B452" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>857</v>
+      </c>
+      <c r="B453" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B455" s="1"/>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>858</v>
+      </c>
+      <c r="B456" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>859</v>
+      </c>
+      <c r="B457" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>860</v>
+      </c>
+      <c r="B458" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>861</v>
+      </c>
+      <c r="B459" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>862</v>
+      </c>
+      <c r="B460" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>863</v>
+      </c>
+      <c r="B461" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>864</v>
+      </c>
+      <c r="B462" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>865</v>
+      </c>
+      <c r="B463" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>866</v>
+      </c>
+      <c r="B464" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>867</v>
+      </c>
+      <c r="B465" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>868</v>
+      </c>
+      <c r="B466" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>869</v>
+      </c>
+      <c r="B467" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>870</v>
+      </c>
+      <c r="B468" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>871</v>
+      </c>
+      <c r="B469" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>872</v>
+      </c>
+      <c r="B470" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>873</v>
+      </c>
+      <c r="B471" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>874</v>
+      </c>
+      <c r="B472" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>875</v>
+      </c>
+      <c r="B473" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>876</v>
+      </c>
+      <c r="B474" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>877</v>
+      </c>
+      <c r="B475" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>878</v>
+      </c>
+      <c r="B476" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>879</v>
+      </c>
+      <c r="B477" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>880</v>
+      </c>
+      <c r="B478" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>881</v>
+      </c>
+      <c r="B479" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>882</v>
+      </c>
+      <c r="B480" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>883</v>
+      </c>
+      <c r="B481" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B482" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>884</v>
+      </c>
+      <c r="B483" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>917</v>
+      </c>
+      <c r="B484" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>918</v>
+      </c>
+      <c r="B485" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>919</v>
+      </c>
+      <c r="B486" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>920</v>
+      </c>
+      <c r="B487" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>921</v>
+      </c>
+      <c r="B488" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>922</v>
+      </c>
+      <c r="B489" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>923</v>
+      </c>
+      <c r="B490" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>924</v>
+      </c>
+      <c r="B491" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>925</v>
+      </c>
+      <c r="B492" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>926</v>
+      </c>
+      <c r="B493" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>927</v>
+      </c>
+      <c r="B494" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>928</v>
+      </c>
+      <c r="B495" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>929</v>
+      </c>
+      <c r="B496" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>930</v>
+      </c>
+      <c r="B497" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>931</v>
+      </c>
+      <c r="B498" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>932</v>
+      </c>
+      <c r="B499" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>933</v>
+      </c>
+      <c r="B500" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>934</v>
+      </c>
+      <c r="B501" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>935</v>
+      </c>
+      <c r="B502" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>936</v>
+      </c>
+      <c r="B503" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>937</v>
+      </c>
+      <c r="B504" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>938</v>
+      </c>
+      <c r="B505" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>939</v>
+      </c>
+      <c r="B506" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>940</v>
+      </c>
+      <c r="B507" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>941</v>
+      </c>
+      <c r="B508" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>942</v>
+      </c>
+      <c r="B509" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>943</v>
+      </c>
+      <c r="B510" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>944</v>
+      </c>
+      <c r="B511" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>945</v>
+      </c>
+      <c r="B512" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>946</v>
+      </c>
+      <c r="B513" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>947</v>
+      </c>
+      <c r="B514" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>948</v>
+      </c>
+      <c r="B515" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>949</v>
+      </c>
+      <c r="B516" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>983</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>984</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>985</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>986</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>987</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>988</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>989</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>990</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>991</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B526" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>992</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B529" s="1"/>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>993</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>994</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>995</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>996</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>997</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>998</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>999</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B572" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="A529:B529"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A302:B302"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="920" windowWidth="17980" windowHeight="10380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="1687">
   <si>
     <t>gusher</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10085,6 +10085,4952 @@
   </si>
   <si>
     <t>unbidden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stranded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beholden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obtrude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perforate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissertation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dislocate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niggling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interweave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ersatz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuttle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaseous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cramp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fabulous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extinguish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gadget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odoriferous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archetype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jibe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulpit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>natal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pertain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.搁浅的，处于困境的</t>
+    <rPh sb="4" eb="5">
+      <t>ge qian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chu yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kun jing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.旗舰(船上表示所属国家的旗帜)</t>
+    <rPh sb="2" eb="3">
+      <t>qi jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuan shang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>suo shu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guo jia</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.因受恩惠而心存感激的，感谢的；欠人情的</t>
+    <rPh sb="4" eb="5">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou en hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>er</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xin cun</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gan ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gan xie</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>qian ren qing</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.突出；强加</t>
+    <rPh sb="2" eb="3">
+      <t>tu chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiang jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.重击，锤击</t>
+    <rPh sb="2" eb="3">
+      <t>zhong ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chui ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.妨碍；使减速</t>
+    <rPh sb="2" eb="3">
+      <t>fang ai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.打洞</t>
+    <rPh sb="2" eb="3">
+      <t>da dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.专题论文</t>
+    <rPh sb="2" eb="3">
+      <t>zhuan ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lun wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.磨刀石  v.磨刀</t>
+    <rPh sb="2" eb="3">
+      <t>mo dao shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mo dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使脱臼；把……弄乱</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tuo jiu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>nong luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.琐碎的</t>
+    <rPh sb="4" eb="5">
+      <t>suo sui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.交织</t>
+    <rPh sb="2" eb="3">
+      <t>jiao zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.代用的，假的</t>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jia de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)穿梭移动，往返运送</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuan suo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi dong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wang fan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yun song</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.波涛汹涌</t>
+    <rPh sb="2" eb="3">
+      <t>bo tao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiong yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.气体的，气态的</t>
+    <rPh sb="4" eb="5">
+      <t>qi ti</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi tai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.实现，完成</t>
+    <rPh sb="2" eb="3">
+      <t>shi xian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.铁箍，夹子  v.把……箍紧</t>
+    <rPh sb="2" eb="3">
+      <t>tie gu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia zi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gu jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.难以置信的；寓言的</t>
+    <rPh sb="4" eb="5">
+      <t>nan yi zhi xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yu yan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.树胶，树脂；橡皮糖，口香糖</t>
+    <rPh sb="2" eb="3">
+      <t>shu jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang pi tang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kou xiang tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.把……熄灭；使……不复存在</t>
+    <rPh sb="2" eb="3">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi mie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu fu cun zai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.值得  n.价值；长处</t>
+    <rPh sb="2" eb="3">
+      <t>zhi de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jia zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chang chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.小工具，小机械</t>
+    <rPh sb="2" eb="3">
+      <t>xiao gong ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.效忠；敬意</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有气味的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.原型；典型</t>
+    <rPh sb="2" eb="3">
+      <t>yuan xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dian xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.与……一致，符合；嘲笑</t>
+    <rPh sb="2" eb="3">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.讲道坛</t>
+    <rPh sb="2" eb="3">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.出生的，诞生时的</t>
+    <rPh sb="4" eb="5">
+      <t>chu sheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dan sheng shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.属于；关于</t>
+    <rPh sb="2" eb="3">
+      <t>shu yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guan yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.责任；债务</t>
+    <rPh sb="2" eb="3">
+      <t>ze ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhai wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cynic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cupidity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>figurine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aleatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bungle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lineal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sardonic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>palaver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blasphemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dereliction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complicity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraternal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shirk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atonal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deluxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>famine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>languor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malfunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entreat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endearing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asterisk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fertile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serried</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.犬儒主义者，愤世嫉俗者</t>
+    <rPh sb="2" eb="3">
+      <t>quan ru zhu yi zhe</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fen shi ji su</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.出口(a way goes out)</t>
+    <rPh sb="2" eb="3">
+      <t>chu kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.贪婪</t>
+    <rPh sb="2" eb="3">
+      <t>tan lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.小塑像，小雕像</t>
+    <rPh sb="2" eb="3">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>su xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>diao xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.侥幸的，偶然的</t>
+    <rPh sb="4" eb="5">
+      <t>jiao xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ou ran</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.笨拙地做</t>
+    <rPh sb="2" eb="3">
+      <t>ben zhuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.直系的，嫡系的</t>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.胡说   n.糊涂话</t>
+    <rPh sb="2" eb="3">
+      <t>hu shuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hu tu hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.讽刺的，嘲笑的</t>
+    <rPh sb="4" eb="5">
+      <t>feng ci</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chao xiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.空谈  v.空谈；奉承</t>
+    <rPh sb="2" eb="3">
+      <t>kong tan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kong tan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>feng cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.草草记下</t>
+    <rPh sb="2" eb="3">
+      <t>cao cao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.亵渎(神明)</t>
+    <rPh sb="2" eb="3">
+      <t>xie du</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shen ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.遗弃，玩忽职守</t>
+    <rPh sb="2" eb="3">
+      <t>yi qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan hu zhi shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.放弃；推迟</t>
+    <rPh sb="2" eb="3">
+      <t>fang qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tui chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.合谋，串通</t>
+    <rPh sb="2" eb="3">
+      <t>he mou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuan tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.死记硬背</t>
+    <rPh sb="2" eb="3">
+      <t>si ji ying bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.兄弟的，兄弟般的</t>
+    <rPh sb="4" eb="5">
+      <t>xiong di</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiong di ban de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.逃避，回避</t>
+    <rPh sb="2" eb="3">
+      <t>tao bi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hui bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(音乐)无调的</t>
+    <rPh sb="5" eb="6">
+      <t>yin yue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu diao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(蛇的)毒牙</t>
+    <rPh sb="3" eb="4">
+      <t>she</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>du ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.圈套，陷阱</t>
+    <rPh sb="2" eb="3">
+      <t>quan tao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(运动或战争中的)弓箭手，射手</t>
+    <rPh sb="3" eb="4">
+      <t>yun dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhan zheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gong jian shou</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>she shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.豪华的，华丽的</t>
+    <rPh sb="4" eb="5">
+      <t>hao hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hua li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.饥荒</t>
+    <rPh sb="2" eb="3">
+      <t>ji huang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.小口啜饮</t>
+    <rPh sb="2" eb="3">
+      <t>xiao kou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chuo yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.无精打采，衰弱无力</t>
+    <rPh sb="2" eb="3">
+      <t>wu jing da cai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shuai ruo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发生故障，失灵  n.故障</t>
+    <rPh sb="2" eb="3">
+      <t>fa sheng gu zhang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi ling</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gu zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.恳求</t>
+    <rPh sb="2" eb="3">
+      <t>ken qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.修改，改进</t>
+    <rPh sb="2" eb="3">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gai jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.讨人喜欢的</t>
+    <rPh sb="4" eb="5">
+      <t>tao ren xi huan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.肾脏的，肾的</t>
+    <rPh sb="2" eb="3">
+      <t>shen zang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.星号</t>
+    <rPh sb="2" eb="3">
+      <t>xing hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.多产的；肥沃的</t>
+    <rPh sb="4" eb="5">
+      <t>duo chan de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fei wo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.密集的</t>
+    <rPh sb="4" eb="5">
+      <t>mi ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topsy-turvy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vengeful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mendacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mushy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modicum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kudos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depredation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characterization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mighty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conscience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mourn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onslaught</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>austerity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeworn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gloomy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bustle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.颠倒的，相反的；</t>
+    <rPh sb="4" eb="5">
+      <t>dian dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang fan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱七八糟的；混乱的</t>
+    <rPh sb="6" eb="7">
+      <t>hun luan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n.没精打采的样子  </t>
+    <rPh sb="2" eb="3">
+      <t>mei jing da cai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yang zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.没精打采地坐(站、走)</t>
+    <rPh sb="7" eb="8">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.渴望复仇的，复仇心重的</t>
+    <rPh sb="4" eb="5">
+      <t>ke wang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu chou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fu chou xin</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不诚实</t>
+    <rPh sb="2" eb="3">
+      <t>bu cheng shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n.溃败 </t>
+    <rPh sb="2" eb="3">
+      <t>kui bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.撤回(声明)，放弃(信仰)</t>
+    <rPh sb="2" eb="3">
+      <t>che hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng ming</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fang qi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xin yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.糊状的；感伤的，多情的</t>
+    <rPh sb="4" eb="5">
+      <t>hu zhuang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gan shang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>duo qing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.少量</t>
+    <rPh sb="2" eb="3">
+      <t>shao liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.声誉，名声</t>
+    <rPh sb="2" eb="3">
+      <t>sheng yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ming sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.劫掠，蹂躏</t>
+    <rPh sb="2" eb="3">
+      <t>jie lue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>rou lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.诡计多端的，狡猾的</t>
+    <rPh sb="4" eb="5">
+      <t>gui ji duo duan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiao hua</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.描绘，刻画</t>
+    <rPh sb="2" eb="3">
+      <t>miao hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.强有力的，强大的；巨大的</t>
+    <rPh sb="4" eb="5">
+      <t>qiang you li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qiang da</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ju da</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.定罪  n.犯罪</t>
+    <rPh sb="2" eb="3">
+      <t>ding zui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan zui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.能动的</t>
+    <rPh sb="4" eb="5">
+      <t>neng dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.良心，是非感</t>
+    <rPh sb="2" eb="3">
+      <t>liang xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi fei gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.悲痛，哀伤；哀悼</t>
+    <rPh sb="2" eb="3">
+      <t>bei tong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ai shang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ai dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.鲤鱼  v.吹毛求疵</t>
+    <rPh sb="2" eb="3">
+      <t>li yu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chui mao qiu ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.猛攻，猛袭</t>
+    <rPh sb="2" eb="3">
+      <t>meng gong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>meng xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.朴素，艰苦</t>
+    <rPh sb="2" eb="3">
+      <t>pu su</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.陈旧的，陈腐的</t>
+    <rPh sb="4" eb="5">
+      <t>chen jiu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chen fu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使弯曲  n.  钩状物</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan qu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gou zhuang wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.阴暗的；没油希望的；</t>
+    <rPh sb="4" eb="5">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xi wang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴郁的，忧郁的</t>
+    <rPh sb="0" eb="1">
+      <t>yin yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you yu de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.奔忙，忙乱</t>
+    <rPh sb="2" eb="3">
+      <t>ben mang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mang luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.喧闹，熙熙攘攘</t>
+    <rPh sb="2" eb="3">
+      <t>xuan nao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi xi rang rang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rapprochement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excrete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jerk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dyspeptic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wacky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agnostic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bogus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stigma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delectation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjudicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skullduggery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blemish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>badge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poignancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>josh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unflappable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendetta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contented</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.友好，友善关系的建立</t>
+    <rPh sb="2" eb="3">
+      <t>you hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you shan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guan xi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jian li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.排泄，分泌</t>
+    <rPh sb="2" eb="3">
+      <t>pai xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.／n. 猛拉</t>
+    <rPh sb="6" eb="7">
+      <t>meng la</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.消化不良的；不高兴的</t>
+    <rPh sb="4" eb="5">
+      <t>xiao hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu liang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu gao xing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(行为等)古怪的，乖僻的</t>
+    <rPh sb="5" eb="6">
+      <t>xing wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gu guai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使愉快，逗某人笑</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu kuai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mou ren</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.种植；培养(友谊)</t>
+    <rPh sb="2" eb="3">
+      <t>zhong zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pei yang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不可知论的 n.不可知论者</t>
+    <rPh sb="4" eb="5">
+      <t>bu ke zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu ke zhi lun</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.伪造的，假的</t>
+    <rPh sb="4" eb="5">
+      <t>wei zao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.发辫   v.编成辫</t>
+    <rPh sb="2" eb="3">
+      <t>fa bian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bian cheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bian zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.耻辱的标志，污点</t>
+    <rPh sb="2" eb="3">
+      <t>chi ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.享受，愉快</t>
+    <rPh sb="2" eb="3">
+      <t>xiang shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.充当裁判；判决</t>
+    <rPh sb="2" eb="3">
+      <t>chong dang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cai pan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pan jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.突袭，偷袭；劫掠，掠夺  n.突袭</t>
+    <rPh sb="2" eb="3">
+      <t>tu xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tou xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie lue</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lue duo</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>tu xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.应罚款的</t>
+    <rPh sb="4" eb="5">
+      <t>ying</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.脆的，易碎的</t>
+    <rPh sb="4" eb="5">
+      <t>cui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi sui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.欺骗，使诈</t>
+    <rPh sb="2" eb="3">
+      <t>qi pian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi zha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.损害；玷污  n.瑕疵，缺点</t>
+    <rPh sb="2" eb="3">
+      <t>sun hai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dian wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xia ci</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>que dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.徽章</t>
+    <rPh sb="2" eb="3">
+      <t>hui zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.&lt;贬&gt;钱，利益</t>
+    <rPh sb="3" eb="4">
+      <t>bian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>li yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.辛辣，尖锐</t>
+    <rPh sb="2" eb="3">
+      <t>xin la</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian rui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.伤痕，伤疤</t>
+    <rPh sb="2" eb="3">
+      <t>shang hen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang ba</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.鬼混，浪费</t>
+    <rPh sb="2" eb="3">
+      <t>gui hun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lang fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.剪(羊毛)，剪发</t>
+    <rPh sb="2" eb="3">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yang mao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.喧闹，骚扰</t>
+    <rPh sb="2" eb="3">
+      <t>xuan nao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sao rao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(无恶意地)戏弄，戏耍</t>
+    <rPh sb="3" eb="4">
+      <t>wu e yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi nong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xi shua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不惊慌的，镇定的</t>
+    <rPh sb="4" eb="5">
+      <t>bu jing huang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhen ding</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.血仇，世仇；宿怨，深仇</t>
+    <rPh sb="2" eb="3">
+      <t>xue chou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi chou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>su yuan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shen chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.心满意足的</t>
+    <rPh sb="4" eb="5">
+      <t>xin man yi zu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ritzy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exalt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gracious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rollicking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecstatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.高雅的；势利的</t>
+    <rPh sb="4" eb="5">
+      <t>gao ya</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.赞扬，歌颂</t>
+    <rPh sb="2" eb="3">
+      <t>zan yang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ge song</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.怨恨；激怒</t>
+    <rPh sb="2" eb="3">
+      <t>yuan hen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.疯子  adj.极蠢的</t>
+    <rPh sb="2" eb="3">
+      <t>feng zi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chun</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.大方的，和善的；奢华的</t>
+    <rPh sb="4" eb="5">
+      <t>da fang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he shan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>she hua</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优美的，雅致的</t>
+    <rPh sb="0" eb="1">
+      <t>you mei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ya zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.欢乐的，喧闹的</t>
+    <rPh sb="4" eb="5">
+      <t>huan le</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xuan nao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.狂喜的，心花怒放的</t>
+    <rPh sb="4" eb="5">
+      <t>kuang xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin hua nu fang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.上等的；精选的</t>
+    <rPh sb="4" eb="5">
+      <t>shang deng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jing xuan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redemptive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caudal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parochial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>automation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mansion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardiologist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ligneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.失误；(时间等)流逝</t>
+    <rPh sb="2" eb="3">
+      <t>shi wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>liu shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.赎回的，救赎的，挽回的</t>
+    <rPh sb="4" eb="5">
+      <t>shu hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiu shu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wan hui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.尾部的，像尾部的</t>
+    <rPh sb="4" eb="5">
+      <t>wei bu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.教区的；地方性的，狭小的</t>
+    <rPh sb="4" eb="5">
+      <t>jiao qu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di fang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xia xiao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.自动装置</t>
+    <rPh sb="2" eb="3">
+      <t>zi dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuang zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.公寓；大厦</t>
+    <rPh sb="2" eb="3">
+      <t>gong yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.舔食</t>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.心脏病专家</t>
+    <rPh sb="2" eb="3">
+      <t>xin zang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuan jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.木质的，木头般的</t>
+    <rPh sb="4" eb="5">
+      <t>mu zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mu tou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.代神发布神谕的人</t>
+    <rPh sb="2" eb="3">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shen yu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periphrastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monolithic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fathom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feeble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uproar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trinket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encompass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dicker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reciprocal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unscrupulousness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gangly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plagiarize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clammy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sterilize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temerity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mollycoddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ribald</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bristling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aquiline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>derivation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.迂回的，冗赘的</t>
+    <rPh sb="4" eb="5">
+      <t>yu hi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>rong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.坚若磐石的；巨大的</t>
+    <rPh sb="4" eb="5">
+      <t>jian ruo pan shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ju da</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.英寻 v.彻底了解，弄清真相</t>
+    <rPh sb="2" eb="3">
+      <t>ying xun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>che di</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>liao jie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nong qing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhen xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.传言的，据称的</t>
+    <rPh sb="4" eb="5">
+      <t>chuan yan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ju cheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.刺激性；兴趣，热心</t>
+    <rPh sb="2" eb="3">
+      <t>ci ji xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing qu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>re xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.开始，发作；攻击，袭击</t>
+    <rPh sb="2" eb="3">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa zuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xi ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.虚弱的</t>
+    <rPh sb="4" eb="5">
+      <t>xu ruo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.喧嚣，吵闹；骚动，骚乱</t>
+    <rPh sb="2" eb="3">
+      <t>xuan xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao nao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sao dong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>sao luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.小装饰品，(尤指)不值钱的珠宝</t>
+    <rPh sb="2" eb="3">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuang shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu zhi qian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhu bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琐事</t>
+    <rPh sb="0" eb="1">
+      <t>suo shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.服装；戏装</t>
+    <rPh sb="2" eb="3">
+      <t>fu zhuang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.讨价还价</t>
+    <rPh sb="2" eb="3">
+      <t>tao jia huan jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.互惠的，相互的</t>
+    <rPh sb="4" eb="5">
+      <t>hu hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang hu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.狂妄，不折手段</t>
+    <rPh sb="2" eb="3">
+      <t>kuang wang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu zhe shou duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.瘦长的难看的</t>
+    <rPh sb="4" eb="5">
+      <t>shou chang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nan kan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.剽窃，抄袭</t>
+    <rPh sb="2" eb="3">
+      <t>piao qie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.湿冷的，发粘的</t>
+    <rPh sb="4" eb="5">
+      <t>shi leng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使不育；杀菌</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sha jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.鲁莽，大胆</t>
+    <rPh sb="2" eb="3">
+      <t>lu mang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.粗野的人</t>
+    <rPh sb="2" eb="3">
+      <t>cu ye</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.痛饮</t>
+    <rPh sb="2" eb="3">
+      <t>tong yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.过分的爱惜，娇惯 </t>
+    <rPh sb="2" eb="3">
+      <t>guo fen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ai xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.娇生惯养的人</t>
+    <rPh sb="2" eb="3">
+      <t>jiao sheng guan yang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.一条(面包);  v.虚度光阴</t>
+    <rPh sb="2" eb="3">
+      <t>yi tiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mian bao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xu du</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>guang yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.疾走，快速</t>
+    <rPh sb="2" eb="3">
+      <t>ji zou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kuai su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.下流的，粗俗的</t>
+    <rPh sb="4" eb="5">
+      <t>xia liu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cu su</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.竖立的</t>
+    <rPh sb="4" eb="5">
+      <t>shu li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.鹰的，似鹰的</t>
+    <rPh sb="4" eb="5">
+      <t>ying</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>si</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ying</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.发展，起源；辞源</t>
+    <rPh sb="2" eb="3">
+      <t>fa zhan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi yuan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.草率地做</t>
+    <rPh sb="2" eb="3">
+      <t>cao s</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.流氓；顽皮的家伙</t>
+    <rPh sb="2" eb="3">
+      <t>liu mang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan pi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jia huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.撕裂 n.裂缝</t>
+    <rPh sb="2" eb="3">
+      <t>si lie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lie feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.陡峭的；过高的</t>
+    <rPh sb="4" eb="5">
+      <t>dou qao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guo gao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.浸泡，浸透</t>
+    <rPh sb="2" eb="3">
+      <t>jin pao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conceit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ineluctable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pavid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dishevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>humid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grisly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>droop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outwit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flatten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stubborn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>envisage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indignant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neutralize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overweening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aroma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ornery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>veritable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oasis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odometer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abhorrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soulful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daredevil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reliance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inelasticity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.自负，自大</t>
+    <rPh sb="2" eb="3">
+      <t>zi fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不能逃避的</t>
+    <rPh sb="4" eb="5">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tao bi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.害怕的，胆小的</t>
+    <rPh sb="4" eb="5">
+      <t>hai pa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dan xiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使蓬乱，使(头发)凌乱</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>peng luan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tou fa</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ling luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.湿润的</t>
+    <rPh sb="4" eb="5">
+      <t>shi run</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.恐怖的，可怕的</t>
+    <rPh sb="4" eb="5">
+      <t>kong bu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke pa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.低垂；萎靡</t>
+    <rPh sb="2" eb="3">
+      <t>di chui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.以机智胜过</t>
+    <rPh sb="2" eb="3">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.逗乐，戏弄；强求，强要</t>
+    <rPh sb="2" eb="3">
+      <t>dou le</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi nong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qiang qiu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qiang yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.逗乐，戏弄</t>
+    <rPh sb="2" eb="3">
+      <t>dou le</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi nong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)变平；彻底打败，击倒</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ping</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>che di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>da bai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.固执的；难以改变的</t>
+    <rPh sb="4" eb="5">
+      <t>gu zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nan yi gai bian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.正规；想象</t>
+    <rPh sb="2" eb="3">
+      <t>zheng gui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.粘上，贴上；(尤指在末尾)添上</t>
+    <rPh sb="2" eb="3">
+      <t>nian shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tie shang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mo wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>sahng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.词缀</t>
+    <rPh sb="2" eb="3">
+      <t>ci zhui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.愤慨的，愤愤不平的</t>
+    <rPh sb="4" eb="5">
+      <t>fen kai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fen fne bu ping</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使无效；中和，使中性</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wu xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhong he</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhong he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.自负的，过于自信的</t>
+    <rPh sb="4" eb="5">
+      <t>zi fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guo yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi xin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.抄袭，剽窃</t>
+    <rPh sb="2" eb="3">
+      <t>chao xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>piao qie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.佯攻，佯击 v.佯攻，伪装</t>
+    <rPh sb="2" eb="3">
+      <t>yang zhuang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wei zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.芳香，香气</t>
+    <rPh sb="2" eb="3">
+      <t>fang xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.顽固的，爱争吵的</t>
+    <rPh sb="4" eb="5">
+      <t>wan gu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zheng chao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.名副其实的，真正的，确实的</t>
+    <rPh sb="4" eb="5">
+      <t>ming fu qi shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhen zheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>que shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.绿洲</t>
+    <rPh sb="2" eb="3">
+      <t>lü zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.标题</t>
+    <rPh sb="2" eb="3">
+      <t>biao ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. (汽车)里程表</t>
+    <rPh sb="4" eb="5">
+      <t>qi che</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>li cheng biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可恨的，讨厌的</t>
+    <rPh sb="4" eb="5">
+      <t>ke zeng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tao yan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.充满感情的，深情的</t>
+    <rPh sb="4" eb="5">
+      <t>chong man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gan qing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shen qing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.胆大的，冒失的 </t>
+    <rPh sb="4" eb="5">
+      <t>dan da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mao shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.胆大的人，冒失的人</t>
+    <rPh sb="2" eb="3">
+      <t>dan da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mao shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.信赖，信任</t>
+    <rPh sb="2" eb="3">
+      <t>xin lai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.形成的；影响发展的</t>
+    <rPh sb="4" eb="5">
+      <t>xing chneg</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ying xiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fa zhan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.无弹性，无伸缩性</t>
+    <rPh sb="2" eb="3">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tan xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shen suo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pilfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oversee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yielding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roughen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tempestuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downpour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slurp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superimpose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acclaim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atrocious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>residue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correspondent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnawing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ague</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>augury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gawky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoarse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plentitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shamble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plangent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chuckle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muniments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loutish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sophism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.偷窃</t>
+    <rPh sb="2" eb="3">
+      <t>tou qie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.监督</t>
+    <rPh sb="2" eb="3">
+      <t>jian du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易弯曲的，柔软的；</t>
+    <rPh sb="4" eb="5">
+      <t>yi wan qu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>rou ruan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺从的，服从的</t>
+    <rPh sb="4" eb="5">
+      <t>fu cong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.否定，否认</t>
+    <rPh sb="2" eb="3">
+      <t>fou ding</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fou ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)变粗糙</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cu cao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.狂暴的(turbulent,stormy)</t>
+    <rPh sb="4" eb="5">
+      <t>kuang bao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.倾盆大雨</t>
+    <rPh sb="2" eb="3">
+      <t>qing pen da yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.出声地吃或喝 </t>
+    <rPh sb="2" eb="3">
+      <t>chu sheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.啜食，啜食声</t>
+    <rPh sb="2" eb="3">
+      <t>chuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.重叠，叠加</t>
+    <rPh sb="2" eb="3">
+      <t>chong die</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>die jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.纷争，冲突</t>
+    <rPh sb="2" eb="3">
+      <t>fen zheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chong tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.欢呼，称赞</t>
+    <rPh sb="2" eb="3">
+      <t>huan hu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng zan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.怯懦，恐惧；懦夫</t>
+    <rPh sb="2" eb="3">
+      <t>qie nuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kong ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nuo fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.残忍的，凶恶的</t>
+    <rPh sb="4" eb="5">
+      <t>can ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiong e</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.剩余</t>
+    <rPh sb="2" eb="3">
+      <t>sheng yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.恶意，怨恨</t>
+    <rPh sb="2" eb="3">
+      <t>e yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan hen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.符合的，一致的</t>
+    <rPh sb="4" eb="5">
+      <t>fu he</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.通讯员，记者</t>
+    <rPh sb="2" eb="3">
+      <t>tong xun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.鄙视，蔑视</t>
+    <rPh sb="2" eb="3">
+      <t>bi shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mie shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.啃，咬  adj.痛苦的，折磨人的</t>
+    <rPh sb="2" eb="3">
+      <t>ken</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tong ku</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhe mo ren</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.波动，起伏</t>
+    <rPh sb="2" eb="3">
+      <t>bo dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.大提琴</t>
+    <rPh sb="2" eb="3">
+      <t>da ti qin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.冷战，发冷</t>
+    <rPh sb="2" eb="3">
+      <t>leng zhan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa leng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.偷猎，窃取</t>
+    <rPh sb="2" eb="3">
+      <t>tou lie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qie qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.压迫，压制</t>
+    <rPh sb="2" eb="3">
+      <t>ya po</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ya zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.占卜术；预兆</t>
+    <rPh sb="2" eb="3">
+      <t>zhan bu shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu zhoa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.迟钝的，笨拙的</t>
+    <rPh sb="4" eb="5">
+      <t>chi dun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ben zhuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.嘶哑的，粗哑的</t>
+    <rPh sb="4" eb="5">
+      <t>si ya</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cu ya</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.充分</t>
+    <rPh sb="2" eb="3">
+      <t>chong fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.蹒跚而行，踉跄地走</t>
+    <rPh sb="2" eb="3">
+      <t>pan shan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>er</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>liang qiang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.轰鸣的；凄凉的</t>
+    <rPh sb="4" eb="5">
+      <t>hong ming</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi liang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.光辉，关泽</t>
+    <rPh sb="2" eb="3">
+      <t>guang hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guan ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.轻声地笑，咯咯地笑</t>
+    <rPh sb="2" eb="3">
+      <t>qing sheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ge ge</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.契据</t>
+    <rPh sb="2" eb="3">
+      <t>qi ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.粗鲁的</t>
+    <rPh sb="4" eb="5">
+      <t>cu lu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.诡辩；诡辩法(术)</t>
+    <rPh sb="2" eb="3">
+      <t>gui bian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gui bian shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinkle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rampage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offbeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promissory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analgesia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flighty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buxom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sneer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scabrous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clairvoyant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsidy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reconnoiter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zesty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pierce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>badger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beatific</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smirch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ostensible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simultaneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intestate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>digress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)发车叮当声</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa che</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ding dang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.担任主席；负责；指挥</t>
+    <rPh sb="2" eb="3">
+      <t>dan ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fu ze</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.掌舵，驾驶  n.公牛，食用牛</t>
+    <rPh sb="2" eb="3">
+      <t>zhang duo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gong niu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.乱冲乱撞  n.狂暴行为</t>
+    <rPh sb="2" eb="3">
+      <t>luan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>luan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kuang bao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xing wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不规则的，不平常的</t>
+    <rPh sb="4" eb="5">
+      <t>bu gui ze</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ping chang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.命令；出价，投标</t>
+    <rPh sb="2" eb="3">
+      <t>ming ling</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu jia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tou biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.允诺的，约定的</t>
+    <rPh sb="4" eb="5">
+      <t>yun nuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yue ding</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.狡猾的，狡诈的</t>
+    <rPh sb="4" eb="5">
+      <t>jiao hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao zha</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)旋转</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan zhuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.无痛觉，痛觉丧失</t>
+    <rPh sb="2" eb="3">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tong jue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong jue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sang shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.巧妙手法；诡计；灵巧</t>
+    <rPh sb="2" eb="3">
+      <t>qiao miao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shou fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gui ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ling qiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.轻浮的；反复无常的</t>
+    <rPh sb="4" eb="5">
+      <t>qing fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan fu wu chang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.体态丰满的</t>
+    <rPh sb="4" eb="5">
+      <t>ti tai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>feng man</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.嘲笑，鄙视</t>
+    <rPh sb="2" eb="3">
+      <t>chao xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bi shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.粗糙的</t>
+    <rPh sb="4" eb="5">
+      <t>cu cao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.透视的，有洞察力的</t>
+    <rPh sb="4" eb="5">
+      <t>tou shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dong cha li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.盖印，刻印</t>
+    <rPh sb="2" eb="3">
+      <t>gai yin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.补助金</t>
+    <rPh sb="2" eb="3">
+      <t>bu zhu jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.勘察，侦察</t>
+    <rPh sb="2" eb="3">
+      <t>kan cha</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.兴致很高的，热望的</t>
+    <rPh sb="4" eb="5">
+      <t>xing zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hen gao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.刺穿；穿透</t>
+    <rPh sb="2" eb="3">
+      <t>ci chuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuan tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.仰卧的；懒散的</t>
+    <rPh sb="4" eb="5">
+      <t>yang wo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lan san</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.獾  v.烦扰，纠缠不清</t>
+    <rPh sb="2" eb="3">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fan rao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiu chan bu qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.幸福的，快乐的</t>
+    <rPh sb="4" eb="5">
+      <t>xing fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kuai le</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.弄张  n.污点</t>
+    <rPh sb="2" eb="3">
+      <t>nong zhang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.表面上的</t>
+    <rPh sb="4" eb="5">
+      <t>biao mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发光，发热；(脸)发红</t>
+    <rPh sb="2" eb="3">
+      <t>fa guang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa re</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fa hong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.发光；兴高采烈</t>
+    <rPh sb="2" eb="3">
+      <t>fa guang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing gao cai lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.同时发生的</t>
+    <rPh sb="4" eb="5">
+      <t>tong shi fa sheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.未留遗憾的</t>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi han</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.后悔，懊悔</t>
+    <rPh sb="2" eb="3">
+      <t>hou hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ao hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.离题</t>
+    <rPh sb="2" eb="3">
+      <t>li ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>languish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wobble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sulky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imbroglio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>providential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sartorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knotty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.衰弱，憔悴</t>
+    <rPh sb="2" eb="3">
+      <t>shuai ruo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiao cui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.摇晃，摇摆；犹豫</t>
+    <rPh sb="2" eb="3">
+      <t>yao huang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yao bai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.生气的</t>
+    <rPh sb="4" eb="5">
+      <t>sheng qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.纠纷，纠葛，纠缠不清</t>
+    <rPh sb="2" eb="3">
+      <t>jiu fen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiu ge</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiu chan bu qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.幸运的；适时的</t>
+    <rPh sb="4" eb="5">
+      <t>xing yun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.裁缝的，缝制的</t>
+    <rPh sb="4" eb="5">
+      <t>cai feng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>feng zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.多结的，多瘤的；困难的，棘手的</t>
+    <rPh sb="4" eb="5">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kun nan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ji shou</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10411,10 +15357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B590"/>
+  <dimension ref="A1:B883"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A94" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A442" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="A834" sqref="A834:B834"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14993,8 +19939,2268 @@
         <v>1126</v>
       </c>
     </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B602" s="1"/>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B659" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B661" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B677" s="1"/>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B685" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B687" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B722" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B745" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B746" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B753" s="1"/>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B761" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B769" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B772" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B782" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B787" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B802" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B809" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B815" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B824" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B834" s="1"/>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B872" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1682</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A602:B602"/>
+    <mergeCell ref="A677:B677"/>
+    <mergeCell ref="A753:B753"/>
+    <mergeCell ref="A834:B834"/>
     <mergeCell ref="A380:B380"/>
     <mergeCell ref="A455:B455"/>
     <mergeCell ref="A529:B529"/>

--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="2079">
   <si>
     <t>gusher</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -17489,6 +17489,1038 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>guo lü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>straiten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encyclopedic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slippage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>treachery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelheaded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coruscate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delirium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v,开始，进行</t>
+    <rPh sb="2" eb="3">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使为难；使变窄</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei nan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bian zhai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.广博的，知识渊博的</t>
+    <rPh sb="4" eb="5">
+      <t>guang bo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yuan bo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.滑动，下降</t>
+    <rPh sb="2" eb="3">
+      <t>hua dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.断绝，分离</t>
+    <rPh sb="2" eb="3">
+      <t>duan jue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.背叛</t>
+    <rPh sb="2" eb="3">
+      <t>bei pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.头脑冷静的，清醒的</t>
+    <rPh sb="4" eb="5">
+      <t>tou nao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>leng jing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qing xing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.闪亮</t>
+    <rPh sb="2" eb="3">
+      <t>shan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>laing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有霉臭味的，有恶臭的</t>
+    <rPh sb="4" eb="5">
+      <t>you mei wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chou wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>e chou de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.精神错乱</t>
+    <rPh sb="2" eb="3">
+      <t>jing shen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cuo luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.抑郁，闷闷不乐  n.情绪低落</t>
+    <rPh sb="2" eb="3">
+      <t>yi yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>men men</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu le</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qing xu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>di luo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juxtapose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inkling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regurgitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glamor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advisable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stupor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supreme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>murmur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extenuate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fancied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spasmodic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matriculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pell-mell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mulish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remonstrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rudder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sticky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbohydrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>membrane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.并列，并置</t>
+    <rPh sb="2" eb="3">
+      <t>bing lie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bing zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.暗示；略知，模糊概念</t>
+    <rPh sb="2" eb="3">
+      <t>an shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lue zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mo hu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gai nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.涌回，流回；反胃，反刍</t>
+    <rPh sb="2" eb="3">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fan chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.迷惑</t>
+    <rPh sb="2" eb="3">
+      <t>mi huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.魔法，魔力；迷人的美，魅力</t>
+    <rPh sb="2" eb="3">
+      <t>mo fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mi ren de mei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>mei li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.／v. 重击，猛击</t>
+    <rPh sb="6" eb="7">
+      <t>zhong ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>meng ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.适当的，可取的</t>
+    <rPh sb="4" eb="5">
+      <t>shi dang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke qu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不整洁的  n.邋遢的女人</t>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>la ta</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>nü ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.锄头</t>
+    <rPh sb="2" eb="3">
+      <t>chu tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.酸的；尖酸的</t>
+    <rPh sb="4" eb="5">
+      <t>suan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jian suan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.昏迷，恍惚</t>
+    <rPh sb="2" eb="3">
+      <t>hun mi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huang hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.切碎；装腔作势地小步走</t>
+    <rPh sb="2" eb="3">
+      <t>qie sui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuang qiang zuo shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.最高的；极度的</t>
+    <rPh sb="4" eb="5">
+      <t>zui gao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.支撑，加固  n.支撑物</t>
+    <rPh sb="2" eb="3">
+      <t>zhi cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia gu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi cheng wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.柔声地说；抱怨</t>
+    <rPh sb="2" eb="3">
+      <t>rou shneg</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bao yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.掩饰(罪行)，减轻(罪行等)</t>
+    <rPh sb="2" eb="3">
+      <t>yan shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zui xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jian qing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zui xing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.空想的，虚构的</t>
+    <rPh sb="4" eb="5">
+      <t>kong xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xu gou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.痉挛的；间歇性的</t>
+    <rPh sb="4" eb="5">
+      <t>jing luan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian xie xing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.折射</t>
+    <rPh sb="2" eb="3">
+      <t>zhe she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.录取</t>
+    <rPh sb="2" eb="3">
+      <t>lu qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.混乱地</t>
+    <rPh sb="4" eb="5">
+      <t>hun luan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使湿透</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.沙粒；决心，勇气</t>
+    <rPh sb="2" eb="3">
+      <t>sha li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jue xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yong qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.下定决心，咬紧牙关</t>
+    <rPh sb="2" eb="3">
+      <t>xia ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jue xin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yao jin ya guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.骡一样累的，执拗的</t>
+    <rPh sb="4" eb="5">
+      <t>luo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi yang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi niu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.抗议；告诫</t>
+    <rPh sb="2" eb="3">
+      <t>kang yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gao jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.反复敲打；连续打击</t>
+    <rPh sb="2" eb="3">
+      <t>fan fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qiao da</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lian xu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>da ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.船舵领导者</t>
+    <rPh sb="2" eb="3">
+      <t>chuan duo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ling dao zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.湿热的；闷热的</t>
+    <rPh sb="4" eb="5">
+      <t>shi re</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>men re</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.碳水化合物</t>
+    <rPh sb="2" eb="3">
+      <t>tan shui hua he wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.渴望，追求</t>
+    <rPh sb="2" eb="3">
+      <t>ke wang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhui qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.薄膜；膜</t>
+    <rPh sb="2" eb="3">
+      <t>bo mo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.坚定的，忠实的</t>
+    <rPh sb="4" eb="5">
+      <t>jian ding</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhong shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catharsis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cogitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chauvinistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penicillin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rescission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crabbed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effrontery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.震动，摇晃；冲突，抵触</t>
+    <rPh sb="2" eb="3">
+      <t>zhen dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yao huang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chong tu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>di chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发出刺耳声  n.广口坛子</t>
+    <rPh sb="0" eb="1">
+      <t>fa chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci er sheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tan zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.完全的  v.发出(声音)，说(话)</t>
+    <rPh sb="4" eb="5">
+      <t>wan quan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fa chu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>sheng yin</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.光辉；光泽</t>
+    <rPh sb="2" eb="3">
+      <t>guang hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guang z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使有光泽；使有光彩，给……增光</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guang ze</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>guang c</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zeng guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光</t>
+    <rPh sb="0" eb="1">
+      <t>fa guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.宣泄，净化</t>
+    <rPh sb="2" eb="3">
+      <t>xuan xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.慎重思考，思索</t>
+    <rPh sb="2" eb="3">
+      <t>shen zhong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>si kao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>si suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.沙文主义的，盲目爱国的</t>
+    <rPh sb="4" eb="5">
+      <t>sha wen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhu yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mang mu ai guo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.青霉素</t>
+    <rPh sb="2" eb="3">
+      <t>qing mei su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.畏缩，发抖，恐惧</t>
+    <rPh sb="2" eb="3">
+      <t>wei suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa dou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kong ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.痛苦，悲痛</t>
+    <rPh sb="2" eb="3">
+      <t>tong ku</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bei tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.金条，银条</t>
+    <rPh sb="2" eb="3">
+      <t>jin tiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.撤销，废除</t>
+    <rPh sb="2" eb="3">
+      <t>che xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.光滑的，柔软的</t>
+    <rPh sb="4" eb="5">
+      <t>guang hau</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>rou ruan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.暴躁的</t>
+    <rPh sb="4" eb="5">
+      <t>bao zao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.厚颜无耻；放肆</t>
+    <rPh sb="2" eb="3">
+      <t>hou yan wu chi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang si</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -17816,10 +18848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1023"/>
+  <dimension ref="A1:B1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1003" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="C1015" sqref="C1015"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1068" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="B1084" sqref="B1084"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25762,13 +26794,481 @@
         <v>1961</v>
       </c>
     </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1025" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1026" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1027" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1028" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1029" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1030" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1031" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1032" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1033" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1034" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1035" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1036" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1037" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1038" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1039" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1040" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1041" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1042" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1043" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1044" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1045" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1046" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1047" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1048" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1049" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1050" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1051" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1052" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1053" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1054" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1055" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1056" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1057" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1058" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1059" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1060" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1061" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1062" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1063" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1064" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1065" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1066" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1067" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1068" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1069" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1070" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1071" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1072" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1073" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1074" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1075" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1076" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1077" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1078" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1079" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1080" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1081" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1082" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1083" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1084" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>2078</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A302:B302"/>
     <mergeCell ref="A602:B602"/>
     <mergeCell ref="A677:B677"/>
     <mergeCell ref="A753:B753"/>
@@ -25776,6 +27276,11 @@
     <mergeCell ref="A380:B380"/>
     <mergeCell ref="A455:B455"/>
     <mergeCell ref="A529:B529"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A302:B302"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="2271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="2551">
   <si>
     <t>gusher</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11056,22 +11056,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n.肾脏的，肾的</t>
-    <rPh sb="2" eb="3">
-      <t>shen zang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shen</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n.星号</t>
     <rPh sb="2" eb="3">
       <t>xing hao</t>
@@ -20280,6 +20264,2492 @@
   </si>
   <si>
     <t>unit 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.肾脏的，肾的</t>
+    <rPh sb="4" eb="5">
+      <t>shen zang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shen</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cadge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conspire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>landslide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardbitten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expropriate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fringe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harangue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repercussion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temporize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presumption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peachy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caucus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discretionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appraise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impuissance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.信件，(尤指)公函</t>
+    <rPh sb="2" eb="3">
+      <t>xin jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong han</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.镀金；虚饰</t>
+    <rPh sb="2" eb="3">
+      <t>du jin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xu shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.乞讨；占便宜</t>
+    <rPh sb="2" eb="3">
+      <t>qi tao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhan pian yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.密谋，共谋</t>
+    <rPh sb="2" eb="3">
+      <t>mi mou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong mou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.山崩；压倒性的胜利</t>
+    <rPh sb="2" eb="3">
+      <t>shan beng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ya dao xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shng li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.纵火(罪),防火(罪)</t>
+    <rPh sb="2" eb="3">
+      <t>zong huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang huo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.蹲下；顽固地坚持</t>
+    <rPh sb="2" eb="3">
+      <t>dun xia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan gu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.古北欧文字的；神秘的</t>
+    <rPh sb="4" eb="5">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bei ou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen zi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shen mi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.排水；喝光</t>
+    <rPh sb="2" eb="3">
+      <t>pai shui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不屈的，顽强的</t>
+    <rPh sb="4" eb="5">
+      <t>bu qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wan qiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.充公，没收</t>
+    <rPh sb="2" eb="3">
+      <t>chong gong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.先知，预言者</t>
+    <rPh sb="2" eb="3">
+      <t>xian zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu yan zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易于移动的</t>
+    <rPh sb="4" eb="5">
+      <t>yi yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi dong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(窗帘等)须边；边缘</t>
+    <rPh sb="3" eb="4">
+      <t>chuang lian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bian yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.雕镂；追逐</t>
+    <rPh sb="2" eb="3">
+      <t>diao lou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhui zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.长篇攻击性演说</t>
+    <rPh sb="2" eb="3">
+      <t>chang pian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong ji xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yan shuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.反响；反应，影响；回声</t>
+    <rPh sb="2" eb="3">
+      <t>fan xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan yhing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ying xiang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hui sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.拖延；见风使舵</t>
+    <rPh sb="2" eb="3">
+      <t>tuo yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian feng shi duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.放肆，傲慢；假定</t>
+    <rPh sb="2" eb="3">
+      <t>fagn si</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ao man</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jia ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.极好的，漂亮的</t>
+    <rPh sb="4" eb="5">
+      <t>ji hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>piao liang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.边缘</t>
+    <rPh sb="2" eb="3">
+      <t>bian yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.刺，贯穿</t>
+    <rPh sb="2" eb="3">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.叉子，尖齿；齿状物</t>
+    <rPh sb="2" eb="3">
+      <t>cha zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chi zhuang wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.政党高层会议</t>
+    <rPh sb="2" eb="3">
+      <t>zheng dang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gao ceng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hui yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.花瓣</t>
+    <rPh sb="2" eb="3">
+      <t>hua ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.自由决定的</t>
+    <rPh sb="4" eb="5">
+      <t>zi you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jue ding</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.海报，招贴画</t>
+    <rPh sb="2" eb="3">
+      <t>hai bao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhao tie hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.评价，鉴定</t>
+    <rPh sb="2" eb="3">
+      <t>ping jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.／v. 漫步</t>
+    <rPh sb="6" eb="7">
+      <t>man bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.粗暴的，易怒的</t>
+    <rPh sb="4" eb="5">
+      <t>cu bao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi nu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.无力，虚弱</t>
+    <rPh sb="2" eb="3">
+      <t>wu li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xu ruo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expatriate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distaste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheeky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lexicographer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hedge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>procession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ransom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viscid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pettish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scorching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pestle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inflame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidebound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.驱逐，流放；移居国外</t>
+    <rPh sb="2" eb="3">
+      <t>qu zhu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu fang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi ju guo wai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.厌恶  n.厌恶，不喜欢</t>
+    <rPh sb="2" eb="3">
+      <t>yan wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu xi huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.上升的 </t>
+    <rPh sb="4" eb="5">
+      <t>shang sheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.确定方向；使熟悉情况</t>
+    <rPh sb="2" eb="3">
+      <t>que ding fang xiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qing kuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无礼的，厚颜无耻的</t>
+    <rPh sb="4" eb="5">
+      <t>wu li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hou yan wu chi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.词典编纂者</t>
+    <rPh sb="2" eb="3">
+      <t>ci dian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bian zuan zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.派……为代表或代理</t>
+    <rPh sb="2" eb="3">
+      <t>pai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dai biao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dai li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.树篱；保护手段；障碍</t>
+    <rPh sb="2" eb="3">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>li ba</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao hu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou duan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhang ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.停止，中止</t>
+    <rPh sb="2" eb="3">
+      <t>ting zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.行列；列队行进</t>
+    <rPh sb="2" eb="3">
+      <t>hang lie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lie dui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.赎金；赎身  v.赎回</t>
+    <rPh sb="2" eb="3">
+      <t>shu jin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu shen</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.全盛时期</t>
+    <rPh sb="2" eb="3">
+      <t>quan sheng shi qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.首先的；主要的；最好的</t>
+    <rPh sb="4" eb="5">
+      <t>shou xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zui hao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.粘性的</t>
+    <rPh sb="4" eb="5">
+      <t>nian xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易怒的，闹情绪的</t>
+    <rPh sb="4" eb="5">
+      <t>yi nu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nao qing xu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.政权，政治制度</t>
+    <rPh sb="2" eb="3">
+      <t>zheng quan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng zhi zhi du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.颠簸地移动</t>
+    <rPh sb="2" eb="3">
+      <t>dian bo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.灼热的</t>
+    <rPh sb="4" eb="5">
+      <t>zhuo re</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.杵，碾槌</t>
+    <rPh sb="2" eb="3">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使燃烧；激怒(某人)</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ran shao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji nu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mou ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.耳环，耳饰</t>
+    <rPh sb="2" eb="3">
+      <t>er huan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>er shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.钉牢；彻底解决</t>
+    <rPh sb="2" eb="3">
+      <t>ding</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>che di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.阻止</t>
+    <rPh sb="2" eb="3">
+      <t>zu zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)窒息，阻塞</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zu se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.思想偏狭且顽固的</t>
+    <rPh sb="4" eb="5">
+      <t>si xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wan gu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.简洁的</t>
+    <rPh sb="4" eb="5">
+      <t>jian jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wither</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platonic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surplus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balderdash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tempest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gracile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nauseate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microbe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquisitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purloin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lionize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halcyon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bliss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>occult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renovate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remittance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.大箱子</t>
+    <rPh sb="2" eb="3">
+      <t>da xiang zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v./n. 封锁</t>
+    <rPh sb="6" eb="7">
+      <t>feng suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.歪曲；扭曲</t>
+    <rPh sb="2" eb="3">
+      <t>wai qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>niu qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.匮乏，贫困</t>
+    <rPh sb="2" eb="3">
+      <t>kui fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pin kun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.咆哮；吼叫</t>
+    <rPh sb="2" eb="3">
+      <t>pao xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hou jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(人们或国家之间的)友好关系</t>
+    <rPh sb="3" eb="4">
+      <t>ren men</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guo jia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you hao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>guan xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.干枯，枯萎</t>
+    <rPh sb="2" eb="3">
+      <t>gan ku</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ku wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.恳求，祈求</t>
+    <rPh sb="2" eb="3">
+      <t>ken qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.理论的；精神上的，纯友谊的</t>
+    <rPh sb="4" eb="5">
+      <t>li lun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jing shen sahng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chun you yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.过剩的，剩余的；盈余的</t>
+    <rPh sb="4" eb="5">
+      <t>guo sheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sheng yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ying yu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.目录；系列</t>
+    <rPh sb="2" eb="3">
+      <t>mu lu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.胡言乱语，废话</t>
+    <rPh sb="2" eb="3">
+      <t>hu yan luan yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.暴风雨；骚动</t>
+    <rPh sb="2" eb="3">
+      <t>bao feng yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sao dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.尘埃，微尘</t>
+    <rPh sb="2" eb="3">
+      <t>chen ai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei chen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.细弱的，纤细优美的</t>
+    <rPh sb="4" eb="5">
+      <t>xi ruo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you mei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(宗教、政治等的)顽固盲从者</t>
+    <rPh sb="3" eb="4">
+      <t>zong jiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zheng zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wan gu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>mang cong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏执者</t>
+    <rPh sb="0" eb="1">
+      <t>pian zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.矛；嫩枝  v.用矛刺</t>
+    <rPh sb="2" eb="3">
+      <t>mao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nen zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)作呕，(使)厌恶</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yan wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.微生物</t>
+    <rPh sb="2" eb="3">
+      <t>wei sheng wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.渴望得到的，贪婪的</t>
+    <rPh sb="4" eb="5">
+      <t>ke wang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de dao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tan lan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.胆汁；愤怒</t>
+    <rPh sb="2" eb="3">
+      <t>dan zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.崇拜，着重</t>
+    <rPh sb="2" eb="3">
+      <t>chong bai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuo zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.过激的；莽撞的，冒失的，无礼的</t>
+    <rPh sb="4" eb="5">
+      <t>guo ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mang zhuang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mao shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wu li</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.平静的；愉快的；繁荣的</t>
+    <rPh sb="4" eb="5">
+      <t>ping jng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yu kuai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fan rong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.恳求；有吸引力；上诉</t>
+    <rPh sb="2" eb="3">
+      <t>ken qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi yin li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shang su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.狂喜，极乐；福气，天赐的福</t>
+    <rPh sb="2" eb="3">
+      <t>kuang xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji le</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu qi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tian ci</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.秘密的，不公开的</t>
+    <rPh sb="4" eb="5">
+      <t>mi mi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu gong kai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.空的；缺乏的</t>
+    <rPh sb="4" eb="5">
+      <t>kong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>que fa</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.空隙，裂隙；空虚感</t>
+    <rPh sb="2" eb="3">
+      <t>kong ix</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lie xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kong xu gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.翻新，修复，整修</t>
+    <rPh sb="2" eb="3">
+      <t>fan xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiu fu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zheng xiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.汇款</t>
+    <rPh sb="2" eb="3">
+      <t>hui kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.惹恼，激怒</t>
+    <rPh sb="2" eb="3">
+      <t>re nao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superannuated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gingerly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discrepancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anesthetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barefaced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repulsion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restiveness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>espy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>putative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inundate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glorify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perpetual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demeanour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaledoscopic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genteel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deaden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flinch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anvil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>butt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.老迈的</t>
+    <rPh sb="4" eb="5">
+      <t>lao mai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj./adv. 小心的(地)；谨慎的(地)</t>
+    <rPh sb="10" eb="11">
+      <t>xiao xin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>di</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jin shen</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.差异，矛盾</t>
+    <rPh sb="2" eb="3">
+      <t>cha yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mao dun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.麻醉的；麻木的  n.麻醉剂</t>
+    <rPh sb="4" eb="5">
+      <t>ma zui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ma mu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ma zui ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(因自尊心受伤而导致的)不悦，愤怒</t>
+    <rPh sb="3" eb="4">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi zun xin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou sahng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>er</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dao zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu yhue</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fen nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.激怒</t>
+    <rPh sb="2" eb="3">
+      <t>ji nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.厚颜无耻的，公然的</t>
+    <rPh sb="4" eb="5">
+      <t>hou yan wu chi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gong ran</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.厌恶，反感；排斥力</t>
+    <rPh sb="2" eb="3">
+      <t>yan wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan gan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pai chi li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.倔强，难以驾驭</t>
+    <rPh sb="2" eb="3">
+      <t>jue jiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nan yi jia yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.突然看到；望见</t>
+    <rPh sb="2" eb="3">
+      <t>tu ran</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kan dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wang jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.大声责骂；咆哮</t>
+    <rPh sb="2" eb="3">
+      <t>da sheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ze ma</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)一致，符合</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.公认的，推定的</t>
+    <rPh sb="4" eb="5">
+      <t>gong ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tui ding</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不和，纷争</t>
+    <rPh sb="2" eb="3">
+      <t>bu he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.诅咒</t>
+    <rPh sb="2" eb="3">
+      <t>zu zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.揉成，捏制</t>
+    <rPh sb="2" eb="3">
+      <t>rou cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nie zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.淹没，泛滥；压倒</t>
+    <rPh sb="2" eb="3">
+      <t>yan mo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan lan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ya dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.吹捧，美化</t>
+    <rPh sb="2" eb="3">
+      <t>chui peng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mei hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有男子气的；刚健的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nan zi qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gang jian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.沉着地走；辛勤工作</t>
+    <rPh sb="2" eb="3">
+      <t>chen zhuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xin qin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.艰难行进</t>
+    <rPh sb="2" eb="3">
+      <t>jian nan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.持续的，不间断的；永久的</t>
+    <rPh sb="4" eb="5">
+      <t>chi xu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu jian duan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yong jiu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.举止，行为</t>
+    <rPh sb="2" eb="3">
+      <t>ju zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.螃蟹  v.抱怨，发牢骚</t>
+    <rPh sb="2" eb="3">
+      <t>pang xie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bao yuan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fa lao sao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.千变万化的</t>
+    <rPh sb="4" eb="5">
+      <t>qian bian wan hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有教养的，彬彬有礼的</t>
+    <rPh sb="4" eb="5">
+      <t>you jiao yang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bin bin you li</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒充上流的，附庸风雅的</t>
+    <rPh sb="0" eb="1">
+      <t>mao chong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang liu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu yong feng ya</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.减弱，缓和</t>
+    <rPh sb="2" eb="3">
+      <t>jian ruo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huan he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.铁砧</t>
+    <rPh sb="2" eb="3">
+      <t>tie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.用头抵撞，顶撞(to strike with head)</t>
+    <rPh sb="2" eb="3">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ding zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 粗大的一端；烟蒂</t>
+    <rPh sb="3" eb="4">
+      <t>cu da</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi duan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yan di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.煽动</t>
+    <rPh sb="2" eb="3">
+      <t>shan dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tyro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prologue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carrion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>placard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>famish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gregariousness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dabble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inconstancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grasping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>palate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corrugated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excoriate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rattle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.新手</t>
+    <rPh sb="2" eb="3">
+      <t>xin shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.大包，大捆；灾祸，不幸</t>
+    <rPh sb="2" eb="3">
+      <t>da bao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zai huo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.浸泡，渗透</t>
+    <rPh sb="2" eb="3">
+      <t>jin pao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shen tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.开场白；序言；序幕</t>
+    <rPh sb="2" eb="3">
+      <t>kia chang bai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xu yan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xu mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.腐肉</t>
+    <rPh sb="2" eb="3">
+      <t>fu rou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.招贴，布告  v.张贴布告</t>
+    <rPh sb="2" eb="3">
+      <t>zhao tie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu gao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhang tie</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使饥饿</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.j金丝雀；女歌星</t>
+    <rPh sb="3" eb="4">
+      <t>jin si que</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nü ge xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.鱼卵</t>
+    <rPh sb="2" eb="3">
+      <t>yu luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(动物)群居；合群，爱社交</t>
+    <rPh sb="3" eb="4">
+      <t>dong wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qun ju</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>he qun</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>she jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.勒索，敲诈</t>
+    <rPh sb="2" eb="3">
+      <t>lw suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiao zha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.抚摸</t>
+    <rPh sb="2" eb="3">
+      <t>fu mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.击，打；一笔，一画</t>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi bi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.涉足，浅尝</t>
+    <rPh sb="2" eb="3">
+      <t>she zu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qian chang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(指人)反复无常</t>
+    <rPh sb="3" eb="4">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan fu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.贪心的，贪婪的</t>
+    <rPh sb="4" eb="5">
+      <t>tan xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tan lan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.给予(理由),举出(例证)</t>
+    <rPh sb="2" eb="3">
+      <t>gei yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ju chu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>li zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.流浪，漂泊</t>
+    <rPh sb="2" eb="3">
+      <t>liu lang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>piao bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.上颚；口味；爱好</t>
+    <rPh sb="2" eb="3">
+      <t>shan ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kou wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ai hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.起皱纹的</t>
+    <rPh sb="4" eb="5">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhou wen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.剥皮；严厉批评</t>
+    <rPh sb="2" eb="3">
+      <t>bo pi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pi ping</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使发出咯咯声</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fa chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ge ge sheng</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20606,10 +23076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1189"/>
+  <dimension ref="A1:B1335"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1128" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="C1139" sqref="C1139"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1319" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="B1335" sqref="B1335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22563,12 +25033,12 @@
         <v>443</v>
       </c>
       <c r="B252" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B253" t="s">
         <v>474</v>
@@ -22903,7 +25373,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B296" t="s">
         <v>557</v>
@@ -23085,7 +25555,7 @@
         <v>578</v>
       </c>
       <c r="B320" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -23149,7 +25619,7 @@
         <v>586</v>
       </c>
       <c r="B328" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -23708,7 +26178,7 @@
         <v>737</v>
       </c>
       <c r="B401" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -24046,7 +26516,7 @@
         <v>828</v>
       </c>
       <c r="B444" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -25270,7 +27740,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B602" s="1"/>
     </row>
@@ -25687,7 +28157,7 @@
         <v>1215</v>
       </c>
       <c r="B654" t="s">
-        <v>1249</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -25695,7 +28165,7 @@
         <v>1216</v>
       </c>
       <c r="B655" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
@@ -25703,7 +28173,7 @@
         <v>1217</v>
       </c>
       <c r="B656" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
@@ -25711,688 +28181,688 @@
         <v>1218</v>
       </c>
       <c r="B657" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B658" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B659" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B660" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B661" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B662" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B663" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B664" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B665" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B666" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B667" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B668" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B669" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B670" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B671" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B672" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B673" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B674" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B675" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B677" s="1"/>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B678" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B679" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B680" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B681" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B682" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B683" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B684" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B685" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B686" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B687" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B688" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B689" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B690" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B691" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B692" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B693" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B694" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B695" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B696" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B697" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B698" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B699" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B700" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B701" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B702" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B703" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B704" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B705" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B706" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B707" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B708" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B709" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B710" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B711" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B712" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B713" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B714" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B715" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B716" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B717" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B718" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B719" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B720" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B721" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B722" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B723" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B724" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B725" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B726" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B727" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B728" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B729" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B730" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B731" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B732" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B733" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B734" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B735" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B736" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B737" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B738" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B739" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B740" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B741" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B742" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B743" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B744" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B745" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B746" t="s">
         <v>91</v>
@@ -26400,1958 +28870,1958 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B747" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B748" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B749" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B750" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B751" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B753" s="1"/>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B754" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B755" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B756" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B757" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B758" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B759" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B760" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B761" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B762" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B763" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B764" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B765" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B766" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B767" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B768" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B769" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B770" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B771" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B772" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B773" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B774" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B775" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B776" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B777" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B778" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B779" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B780" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B781" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B782" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B783" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B784" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B785" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B786" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B787" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B788" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B789" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B790" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B791" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B792" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B793" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B794" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B795" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B796" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B797" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B798" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B799" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B800" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B801" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B802" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B803" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B804" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B805" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B806" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B807" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B808" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B809" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B810" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B811" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B812" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B813" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B814" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B815" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B816" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B817" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B818" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B819" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B820" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B821" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B822" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B823" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B824" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B825" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B826" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B827" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B828" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B829" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B830" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B831" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B832" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B834" s="1"/>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B835" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B836" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B837" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B838" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B839" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B840" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B841" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B842" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B843" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B844" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B845" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B846" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B847" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B848" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B849" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B850" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B851" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B852" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B853" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B854" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B855" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B856" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B857" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B858" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B859" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B860" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B861" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B862" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B863" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B864" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B865" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B866" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B867" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B868" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B869" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B870" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B871" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B872" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B873" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B874" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B875" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B876" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B877" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B878" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B879" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B880" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B881" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B882" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B883" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B884" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B885" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B886" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B887" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B888" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B889" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B890" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B891" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B892" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B893" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B894" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B895" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B896" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B897" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B898" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B899" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B900" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B901" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B902" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B903" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B904" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B905" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B906" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B908" s="1"/>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B909" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B910" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B911" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B912" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B913" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B914" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B915" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B916" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B917" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B918" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B919" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B920" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B921" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B922" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B923" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B924" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B925" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B926" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B927" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B928" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B929" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B930" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B931" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B932" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B933" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B934" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B935" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B936" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B937" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B938" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B939" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B940" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B941" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B942" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B943" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B944" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B945" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B946" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B947" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B948" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B949" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B950" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B951" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B952" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B953" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B954" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B955" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B956" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B957" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B958" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B959" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B960" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B961" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B962" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B963" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B964" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B965" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B966" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B967" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B968" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B969" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B970" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B971" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B972" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B973" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B974" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B975" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B976" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B977" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B978" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B979" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B980" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="B982" s="1"/>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B983" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B984" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B985" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B986" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B987" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B988" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B989" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B990" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B991" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B992" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B993" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B994" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B995" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B996" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B997" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B998" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B999" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B1000" t="s">
         <v>1161</v>
@@ -28359,1452 +30829,2590 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B1001" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B1002" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B1003" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B1004" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B1005" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1006" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B1007" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B1008" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1009" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B1010" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B1011" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1012" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B1013" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B1014" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B1015" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B1016" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B1017" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B1018" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B1019" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B1020" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B1021" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B1022" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B1023" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B1024" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1025" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B1026" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B1027" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1028" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1029" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B1030" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B1031" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B1032" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B1033" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B1034" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B1035" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B1036" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B1037" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B1038" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B1039" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B1040" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B1041" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B1042" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1043" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B1044" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B1045" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1046" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1047" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B1048" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B1049" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B1050" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B1051" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B1052" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B1053" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B1054" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B1055" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B1056" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="B1058" s="1"/>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B1059" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B1060" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B1061" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B1062" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B1063" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1064" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B1065" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B1066" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B1067" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B1068" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B1069" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B1070" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B1071" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B1072" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B1073" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B1074" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1075" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B1076" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B1077" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1078" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1079" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B1080" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B1081" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B1082" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B1083" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B1084" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B1085" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B1086" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B1087" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B1088" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B1089" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B1090" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B1091" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B1092" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1093" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B1094" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B1095" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B1096" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B1097" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B1098" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B1099" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B1100" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B1101" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B1102" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B1103" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B1104" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B1105" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B1106" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B1107" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B1108" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B1109" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B1110" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1111" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1112" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B1113" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B1114" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B1115" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B1116" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B1117" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B1118" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B1119" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B1120" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B1121" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B1122" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B1123" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B1124" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B1125" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B1126" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B1127" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B1128" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B1129" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B1130" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B1131" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B1132" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B1133" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B1134" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B1135" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B1136" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B1138" s="1"/>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B1139" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B1140" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B1141" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B1142" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B1143" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B1144" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B1145" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B1146" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B1147" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B1148" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B1149" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B1150" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B1151" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B1152" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B1153" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1154" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B1155" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B1156" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B1157" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B1158" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B1159" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B1160" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B1161" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B1162" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B1163" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B1164" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B1165" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B1166" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B1167" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B1168" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B1169" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B1170" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B1171" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="B1172" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1173" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="B1174" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="B1175" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B1176" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B1177" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B1178" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B1179" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B1180" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B1181" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B1182" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1183" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B1184" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B1185" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B1186" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B1187" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B1188" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B1189" t="s">
-        <v>2266</v>
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1190" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1191" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1192" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1193" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1194" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1195" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1196" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1197" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1198" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1199" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1200" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1201" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1202" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1203" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1204" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1205" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1206" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1207" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1208" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1209" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1210" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1211" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1212" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1213" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1214" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1215" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1216" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1217" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1218" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1219" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1220" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1221" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1222" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1223" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1224" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1225" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1226" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1227" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1228" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1229" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1230" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1231" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1232" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1233" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1234" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1235" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1236" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1237" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1238" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1239" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1240" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1241" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1242" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1243" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1244" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1245" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1246" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1247" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1248" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1249" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1250" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1251" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1252" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1253" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1254" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1255" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1256" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1257" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1259" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1260" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1261" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1262" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1263" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1264" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1265" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1266" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1267" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1268" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1269" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1270" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1271" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1272" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1273" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1274" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1275" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1277" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1278" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1279" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1280" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1281" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1282" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1283" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1284" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1285" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1286" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1287" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1288" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1289" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1290" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1291" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1292" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1293" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1294" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1295" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1296" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1297" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1298" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1299" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1300" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1301" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1302" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1303" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1304" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1305" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1306" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1307" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1308" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1309" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1310" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1311" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1312" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1313" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1314" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1315" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1316" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1317" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1318" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1319" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1320" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1321" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1322" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1323" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1324" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1325" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1326" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1327" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1328" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1329" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1330" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1331" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1332" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1333" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1334" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1335" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>2550</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="2551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="2797">
   <si>
     <t>gusher</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -22750,6 +22750,2162 @@
     <rPh sb="5" eb="6">
       <t>ge ge sheng</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compulsory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stubby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plummet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebuttal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divagate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fossilize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waspish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snooze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>felicitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>well-groomed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obnoxious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefigure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>palpitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elliptical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desiccate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crumble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nostrum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>governance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>understudy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.强制性的，必须做的</t>
+    <rPh sb="4" eb="5">
+      <t>qiang zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bi xu zuo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.拾(穗);收集(材料等)</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cai liao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.重击，猛打</t>
+    <rPh sb="2" eb="3">
+      <t>zhong ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>meng da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.短粗的</t>
+    <rPh sb="4" eb="5">
+      <t>duan cu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.垂直或突然落下</t>
+    <rPh sb="2" eb="3">
+      <t>chui zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu ran</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>luo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.重击，痛打</t>
+    <rPh sb="2" eb="3">
+      <t>zhong ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong dda</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.蹲伏，弯腰</t>
+    <rPh sb="2" eb="3">
+      <t>dun fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.反驳，反证</t>
+    <rPh sb="2" eb="3">
+      <t>fan bo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan zheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.离题；漂泊</t>
+    <rPh sb="2" eb="3">
+      <t>li ti</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>piao bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使成化石；使过时</t>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guo shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.赋予形体，使具体化；出现</t>
+    <rPh sb="2" eb="3">
+      <t>fu yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing ti</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ju ti hua</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chu xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易怒的；尖刻的</t>
+    <rPh sb="4" eb="5">
+      <t>yi nu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian ke</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.打盹，打瞌睡</t>
+    <rPh sb="2" eb="3">
+      <t>da dun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da ke shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.祝贺，庆祝</t>
+    <rPh sb="2" eb="3">
+      <t>zhu he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.羞怯的；胆怯的，怯懦的</t>
+    <rPh sb="4" eb="5">
+      <t>xiu qie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dan qie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qie nuo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.整齐干净的，衣着入时的</t>
+    <rPh sb="4" eb="5">
+      <t>zheng qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gan jing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi zhuo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ru shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.令人极不愉快的，可憎的</t>
+    <rPh sb="4" eb="5">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji bu yu kuai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ke zeng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.预示；预想</t>
+    <rPh sb="2" eb="3">
+      <t>yu shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu she</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(心脏)急速跳动</t>
+    <rPh sb="3" eb="4">
+      <t>xin zang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji su tiao dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.椭圆的；晦涩的；省略的</t>
+    <rPh sb="4" eb="5">
+      <t>tuo yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui se</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>sheng lue</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)完全干涸，脱水</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan quan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gan he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tuo shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.微不足道的食物，琐事</t>
+    <rPh sb="2" eb="3">
+      <t>wei bu zu dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>suo shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.弄碎；崩溃</t>
+    <rPh sb="2" eb="3">
+      <t>nong sui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>beng kui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.家传秘方，江湖药；万灵丹；妙策</t>
+    <rPh sb="2" eb="3">
+      <t>jia chuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mi fang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiang hu yao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wan ling dan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>miao ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.统治，支配</t>
+    <rPh sb="2" eb="3">
+      <t>tong zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi pei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.预备演员，替角  v.充当……的替角</t>
+    <rPh sb="2" eb="3">
+      <t>yu bei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan yuan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji ao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chong dang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ji ao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.特殊能力；窍门</t>
+    <rPh sb="2" eb="3">
+      <t>te shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>neng li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qiao men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accrete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjourn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delegate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doodle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fabric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embargo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condescend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tempo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irksome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vibrancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piebald</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obstreperous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bondage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squelch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.逐渐增长；添加生长；连生</t>
+    <rPh sb="2" eb="3">
+      <t>zhu jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zeng zhang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tian jia sheng zhang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lian sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)延期，(使)推迟；(使)休会</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan qi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tui chi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.代表  v.委托……为代表，授权</t>
+    <rPh sb="2" eb="3">
+      <t>dai biao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei tuo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dai biao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shou quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.啄食；轻啄</t>
+    <rPh sb="2" eb="3">
+      <t>zhuo shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.涂鸦；混时间</t>
+    <rPh sb="2" eb="3">
+      <t>tu ya</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hun shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.畏缩，蜷缩</t>
+    <rPh sb="2" eb="3">
+      <t>wei suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>quan suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不新鲜的，陈腐的</t>
+    <rPh sb="4" eb="5">
+      <t>bu xin xian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chen fu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.纺织品；结构</t>
+    <rPh sb="2" eb="3">
+      <t>fang zhi pin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.禁港令，封运令</t>
+    <rPh sb="2" eb="3">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ling</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>feng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.敏捷的，迅速的</t>
+    <rPh sb="4" eb="5">
+      <t>min jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xun su</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.肿胀的；傲慢的</t>
+    <rPh sb="4" eb="5">
+      <t>zhong zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ao man</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.屈尊，俯就</t>
+    <rPh sb="2" eb="3">
+      <t>qu zun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(音乐的)速度</t>
+    <rPh sb="3" eb="4">
+      <t>yin yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>su du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(动作、生活的)步调，节奏</t>
+    <rPh sb="1" eb="2">
+      <t>dong zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sheng huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu diao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jie zou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.令人苦恼的，讨厌的</t>
+    <rPh sb="4" eb="5">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ku nao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tao yan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.阻碍，妨碍</t>
+    <rPh sb="2" eb="3">
+      <t>zu ai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.禁止，阻挡  n.条，棒</t>
+    <rPh sb="2" eb="3">
+      <t>jin zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zu dang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tiao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.生机勃勃，活泼</t>
+    <rPh sb="2" eb="3">
+      <t>sheng ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bo bo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>huo po</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.肩带</t>
+    <rPh sb="2" eb="3">
+      <t>jian dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.花斑的，黑白两色的</t>
+    <rPh sb="4" eb="5">
+      <t>hua ban</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hei bai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>liang se</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.有责任</t>
+    <rPh sb="2" eb="3">
+      <t>you</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ze ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.夸耀，炫耀</t>
+    <rPh sb="2" eb="3">
+      <t>kua yao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.切断，分离，断开</t>
+    <rPh sb="2" eb="3">
+      <t>qie duan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duan kai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.诱骗</t>
+    <rPh sb="2" eb="3">
+      <t>you pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.吵闹的；难管束的</t>
+    <rPh sb="4" eb="5">
+      <t>chao nao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>guan su</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.一点儿，少量</t>
+    <rPh sb="2" eb="3">
+      <t>yi dian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>er</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shao liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.奴役，束缚</t>
+    <rPh sb="2" eb="3">
+      <t>nu yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.奉献，贡献；提议，建议</t>
+    <rPh sb="2" eb="3">
+      <t>feng xian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jian yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.赠送，献出</t>
+    <rPh sb="2" eb="3">
+      <t>zeng song</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.压制，镇压</t>
+    <rPh sb="2" eb="3">
+      <t>ya zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bowdlerize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snicker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raspy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turncoat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prosperity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptionable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immemorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pirate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deductive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excogitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amnesia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epitomize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minutes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genuine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.删除，删改</t>
+    <rPh sb="2" eb="3">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shan gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.前奏曲，序曲</t>
+    <rPh sb="2" eb="3">
+      <t>qian zou qu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xu qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.娇弱的；雅致的，精美的</t>
+    <rPh sb="4" eb="5">
+      <t>jiao ruo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ya zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jing mei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.狭槽</t>
+    <rPh sb="2" eb="3">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v./n. 窃笑，暗笑</t>
+    <rPh sb="6" eb="7">
+      <t>qie xiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>an xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.／n. 倾斜 </t>
+    <rPh sb="6" eb="7">
+      <t>qing xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.刺耳的；易怒的</t>
+    <rPh sb="4" eb="5">
+      <t>ci er</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi nu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.渴望</t>
+    <rPh sb="2" eb="3">
+      <t>ke wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.背叛者，变节者</t>
+    <rPh sb="2" eb="3">
+      <t>bei pan z</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian jie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.电影放映机，幻灯机</t>
+    <rPh sb="2" eb="3">
+      <t>dian ying</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang ying ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huan deng ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.繁荣；幸运</t>
+    <rPh sb="2" eb="3">
+      <t>fna rong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing yun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.引起反感的</t>
+    <rPh sb="4" eb="5">
+      <t>yin qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan gan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.太古的，极古的</t>
+    <rPh sb="4" eb="5">
+      <t>tai gu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.海盗；剽窃者 v.盗印；掠夺</t>
+    <rPh sb="2" eb="3">
+      <t>hai dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>piao qie zhe</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>lue duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.推论的，演绎的</t>
+    <rPh sb="4" eb="5">
+      <t>tui ln</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.掘出，发掘</t>
+    <rPh sb="2" eb="3">
+      <t>jue chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa jue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.认真想出</t>
+    <rPh sb="2" eb="3">
+      <t>ren zhen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.健忘症</t>
+    <rPh sb="2" eb="3">
+      <t>jian wang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.卖国贼，叛徒</t>
+    <rPh sb="2" eb="3">
+      <t>mai guo zei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pan tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.概括，摘要</t>
+    <rPh sb="2" eb="3">
+      <t>gai kuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhai yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.会议记录</t>
+    <rPh sb="2" eb="3">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.收割，收获</t>
+    <rPh sb="2" eb="3">
+      <t>shou ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.猛拉，拽</t>
+    <rPh sb="2" eb="3">
+      <t>meng la</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.真的；真诚的</t>
+    <rPh sb="4" eb="5">
+      <t>zhen de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhen cheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.折磨，痛苦</t>
+    <rPh sb="2" eb="3">
+      <t>zhe m</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slosh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flammable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peril</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>espionage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pullulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liaison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>measured</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hermetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desideratum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antecedence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inexpedient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apostate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strangulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innuendo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delinquent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puerile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>treaty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.犯错误；闲逛，消磨时间</t>
+    <rPh sb="2" eb="3">
+      <t>fan cuo wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian guang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiao mo shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.溅，泼  n.泥泞</t>
+    <rPh sb="2" eb="3">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>po</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ni ning</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.耙   v.耙地；使痛苦</t>
+    <rPh sb="2" eb="3">
+      <t>pa</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pa</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tong ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易燃的</t>
+    <rPh sb="4" eb="5">
+      <t>yi ran</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.许多，巨额</t>
+    <rPh sb="2" eb="3">
+      <t>xu duo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.蚀刻；铭记</t>
+    <rPh sb="2" eb="3">
+      <t>shi ke</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ming ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.间谍活动</t>
+    <rPh sb="2" eb="3">
+      <t>jian die</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.繁殖；充满</t>
+    <rPh sb="2" eb="3">
+      <t>fan zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chong man</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.孩子；顽童</t>
+    <rPh sb="2" eb="3">
+      <t>hai zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.拘守礼仪的人</t>
+    <rPh sb="2" eb="3">
+      <t>ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li ui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.密切的联系；暧昧的关系</t>
+    <rPh sb="2" eb="3">
+      <t>mi qie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lian xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ai mei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guan xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.量过的，精确的；</t>
+    <rPh sb="4" eb="5">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jing que</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慎重的，恰如其分的</t>
+  </si>
+  <si>
+    <t>adj.密封的；神秘的，深奥的</t>
+    <rPh sb="4" eb="5">
+      <t>mi feng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shen mi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shen ao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发炫光；怒目而视</t>
+    <rPh sb="2" eb="3">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xuan guang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nu mu er shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.拖，费力拉  n.拖，拉</t>
+    <rPh sb="2" eb="3">
+      <t>tuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tuo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>la</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.减去，扣除；演绎</t>
+    <rPh sb="2" eb="3">
+      <t>jian qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.必需品</t>
+    <rPh sb="2" eb="3">
+      <t>bi xu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.居先，先行</t>
+    <rPh sb="2" eb="3">
+      <t>ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不适当的，不明智的</t>
+    <rPh sb="4" eb="5">
+      <t>bu shi dang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu ming zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.马夫；新郎</t>
+    <rPh sb="2" eb="3">
+      <t>ma fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin lang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.背教者；变节者</t>
+    <rPh sb="2" eb="3">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian jie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.扼杀，勒死</t>
+    <rPh sb="2" eb="3">
+      <t>e sha</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lei si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.用药物医治；加药于</t>
+    <rPh sb="2" eb="3">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yao wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.含沙射影，暗讽</t>
+    <rPh sb="2" eb="3">
+      <t>han sha she ying</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>an feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.玩忽职守的</t>
+    <rPh sb="4" eb="5">
+      <t>wan hu zhi shou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.幼稚的；孩子气的</t>
+    <rPh sb="4" eb="5">
+      <t>you zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hai zi qi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.条约；协议</t>
+    <rPh sb="2" eb="3">
+      <t>tiao yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xie yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stygian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commencement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subjugate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unfold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orchard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.露齿而笑；</t>
+    <rPh sb="2" eb="3">
+      <t>lou chi er xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(因痛苦、愤恨等)龇牙咧嘴</t>
+    <rPh sb="1" eb="2">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong ku</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen hen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zi ya lie zui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.阴暗的，阴森森的</t>
+    <rPh sb="4" eb="5">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin sen sen</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.开始；毕业典礼</t>
+    <rPh sb="2" eb="3">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bi ye</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dian li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.沉默的 </t>
+    <rPh sb="4" eb="5">
+      <t>chen mo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.减弱……的声音</t>
+    <rPh sb="2" eb="3">
+      <t>jian ruo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sheng yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.弱音器</t>
+    <rPh sb="2" eb="3">
+      <t>ruo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.迷乱，恍惚</t>
+    <rPh sb="2" eb="3">
+      <t>mi luan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huang hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使茫然， 使眩晕</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mang ran</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xuan yun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(博物馆)馆长</t>
+    <rPh sb="3" eb="4">
+      <t>bo wu guan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guan zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.征服，镇压</t>
+    <rPh sb="2" eb="3">
+      <t>zheng fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.展开，打开；逐渐呈现</t>
+    <rPh sb="2" eb="3">
+      <t>zhan kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da kai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chng xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.告密；偷</t>
+    <rPh sb="2" eb="3">
+      <t>gao mi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.果园</t>
+    <rPh sb="2" eb="3">
+      <t>guo yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23076,10 +25232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1335"/>
+  <dimension ref="A1:B1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1319" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="B1335" sqref="B1335"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1442" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="B1451" sqref="B1451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32474,949 +34630,1956 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1215" t="s">
-        <v>2295</v>
-      </c>
-      <c r="B1215" t="s">
-        <v>2326</v>
-      </c>
-    </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1216" t="s">
-        <v>2296</v>
-      </c>
-      <c r="B1216" t="s">
-        <v>2327</v>
-      </c>
+      <c r="A1216" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B1216" s="1"/>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="B1217" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="B1218" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="B1219" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B1220" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2332</v>
+        <v>2299</v>
       </c>
       <c r="B1221" t="s">
-        <v>2356</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2333</v>
+        <v>2300</v>
       </c>
       <c r="B1222" t="s">
-        <v>2357</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="B1223" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1224" t="s">
+        <v>2333</v>
+      </c>
       <c r="B1224" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B1225" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1226" t="s">
-        <v>2336</v>
-      </c>
       <c r="B1226" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="B1227" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="B1228" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="B1229" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="B1230" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B1231" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="B1232" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1233" t="s">
+        <v>2341</v>
+      </c>
       <c r="B1233" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B1234" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1235" t="s">
-        <v>2344</v>
-      </c>
       <c r="B1235" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="B1236" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="B1237" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="B1238" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="B1239" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="B1240" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="B1241" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="B1242" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="B1243" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="B1244" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="B1245" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="B1246" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2382</v>
+        <v>2354</v>
       </c>
       <c r="B1247" t="s">
-        <v>2414</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2383</v>
+        <v>2355</v>
       </c>
       <c r="B1248" t="s">
-        <v>2415</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="B1249" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="B1250" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="B1251" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="B1252" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="B1253" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="B1254" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="B1255" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="B1256" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="B1257" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="B1258" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="B1259" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="B1260" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="B1261" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="B1262" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1263" t="s">
+        <v>2396</v>
+      </c>
       <c r="B1263" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B1264" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1265" t="s">
-        <v>2399</v>
-      </c>
       <c r="B1265" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="B1266" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="B1267" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="B1268" t="s">
-        <v>1561</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="B1269" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="B1270" t="s">
-        <v>2436</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="B1271" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="B1272" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="B1273" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="B1274" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="B1275" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="B1276" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1277" t="s">
+        <v>2409</v>
+      </c>
       <c r="B1277" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B1278" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1279" t="s">
-        <v>2412</v>
-      </c>
       <c r="B1279" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="B1280" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2447</v>
+        <v>2412</v>
       </c>
       <c r="B1281" t="s">
-        <v>2476</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2448</v>
+        <v>2413</v>
       </c>
       <c r="B1282" t="s">
-        <v>2477</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="B1283" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="B1284" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="B1285" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1286" t="s">
+        <v>2450</v>
+      </c>
       <c r="B1286" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B1287" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1288" t="s">
-        <v>2453</v>
-      </c>
       <c r="B1288" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="B1289" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="B1290" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B1291" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="B1292" t="s">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1293" t="s">
-        <v>2458</v>
-      </c>
-      <c r="B1293" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1294" t="s">
-        <v>2459</v>
-      </c>
-      <c r="B1294" t="s">
-        <v>2489</v>
-      </c>
+      <c r="A1294" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B1294" s="1"/>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2460</v>
+        <v>2456</v>
       </c>
       <c r="B1295" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="B1296" t="s">
-        <v>2491</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
       <c r="B1297" t="s">
-        <v>2492</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B1298" t="s">
-        <v>2493</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
       <c r="B1299" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
       <c r="B1300" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1301" t="s">
+        <v>2462</v>
+      </c>
       <c r="B1301" t="s">
-        <v>2496</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="B1302" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="B1303" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="B1304" t="s">
-        <v>2499</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1305" t="s">
-        <v>2469</v>
-      </c>
       <c r="B1305" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
       <c r="B1306" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1307" t="s">
+        <v>2467</v>
+      </c>
       <c r="B1307" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="B1308" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="B1309" t="s">
-        <v>508</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="B1310" t="s">
-        <v>2504</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1311" t="s">
-        <v>2474</v>
-      </c>
       <c r="B1311" t="s">
-        <v>2505</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1312" t="s">
+        <v>2471</v>
+      </c>
       <c r="B1312" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="B1313" t="s">
-        <v>2507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2508</v>
+        <v>2473</v>
       </c>
       <c r="B1314" t="s">
-        <v>2529</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2509</v>
+        <v>2474</v>
       </c>
       <c r="B1315" t="s">
-        <v>2530</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1316" t="s">
-        <v>2510</v>
-      </c>
       <c r="B1316" t="s">
-        <v>2531</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2511</v>
+        <v>2475</v>
       </c>
       <c r="B1317" t="s">
-        <v>2532</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="B1318" t="s">
-        <v>2533</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="B1319" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="B1320" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
       <c r="B1321" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2516</v>
+        <v>2512</v>
       </c>
       <c r="B1322" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2517</v>
+        <v>2513</v>
       </c>
       <c r="B1323" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2518</v>
+        <v>2514</v>
       </c>
       <c r="B1324" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2519</v>
+        <v>2515</v>
       </c>
       <c r="B1325" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1326" t="s">
+        <v>2516</v>
+      </c>
       <c r="B1326" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="B1327" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="B1328" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="B1329" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1330" t="s">
-        <v>2523</v>
-      </c>
       <c r="B1330" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2524</v>
+        <v>2520</v>
       </c>
       <c r="B1331" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="B1332" t="s">
-        <v>2547</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="B1333" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="B1334" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1336" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1337" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1338" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1339" t="s">
         <v>2528</v>
       </c>
-      <c r="B1335" t="s">
+      <c r="B1339" t="s">
         <v>2550</v>
       </c>
     </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1340" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1341" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1342" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1343" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1344" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1345" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1346" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1347" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1348" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1349" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1350" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1351" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1352" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1353" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1354" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1355" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1356" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1357" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1358" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1359" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1360" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1361" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1362" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1363" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1364" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1365" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1366" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1367" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1368" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1370" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B1370" s="1"/>
+    </row>
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1371" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1372" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1373" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1374" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1375" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1376" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1377" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1378" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1379" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1380" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1381" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1382" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1383" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1384" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1385" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1386" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1387" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1388" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1389" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1390" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1391" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1392" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1393" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1394" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1395" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1396" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1397" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1398" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1399" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1400" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1401" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1402" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1403" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1404" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1405" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1406" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1407" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1408" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1409" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1410" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1411" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1412" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1413" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1414" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1415" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1416" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1417" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1418" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1419" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1420" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1421" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1422" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1423" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1424" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1425" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1426" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1427" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1428" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1429" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1430" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1431" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1432" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1433" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1434" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1435" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1436" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1437" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1438" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1439" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1440" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1441" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1442" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1443" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1444" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1446" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B1446" s="1"/>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1447" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1448" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1449" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1450" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1451" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1452" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1453" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1454" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1455" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1456" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1457" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1458" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1459" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1460" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1461" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1462" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1463" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1464" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1465" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1466" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1467" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1468" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>2792</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
+    <mergeCell ref="A1216:B1216"/>
+    <mergeCell ref="A1294:B1294"/>
+    <mergeCell ref="A1370:B1370"/>
+    <mergeCell ref="A1446:B1446"/>
     <mergeCell ref="A908:B908"/>
     <mergeCell ref="A982:B982"/>
     <mergeCell ref="A1058:B1058"/>

--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -14703,16 +14703,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.弄张  n.污点</t>
-    <rPh sb="2" eb="3">
-      <t>nong zhang</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>wu dian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adj.表面上的</t>
     <rPh sb="4" eb="5">
       <t>biao mian</t>
@@ -14755,22 +14745,6 @@
     <t>adj.同时发生的</t>
     <rPh sb="4" eb="5">
       <t>tong shi fa sheng</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.未留遗憾的</t>
-    <rPh sb="4" eb="5">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yi han</t>
     </rPh>
     <rPh sb="8" eb="9">
       <t>de</t>
@@ -15353,22 +15327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adj.辛辣的，开胃的</t>
-    <rPh sb="4" eb="5">
-      <t>xin la</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>kai wei</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n.倒退，逆流</t>
     <rPh sb="2" eb="3">
       <t>dao tui</t>
@@ -24906,6 +24864,57 @@
   </si>
   <si>
     <t>unit 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.辛辣的，开胃的；开胃的</t>
+    <rPh sb="4" eb="5">
+      <t>xin la</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kai wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kai wei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.未留遗嘱的</t>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi zhu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.弄脏  n.污点</t>
+    <rPh sb="2" eb="3">
+      <t>nong zhang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu dian</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -25234,8 +25243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1442" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="B1451" sqref="B1451"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A863" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="B869" sqref="B869"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27189,12 +27198,12 @@
         <v>443</v>
       </c>
       <c r="B252" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B253" t="s">
         <v>474</v>
@@ -27529,7 +27538,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="B296" t="s">
         <v>557</v>
@@ -27711,7 +27720,7 @@
         <v>578</v>
       </c>
       <c r="B320" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -27775,7 +27784,7 @@
         <v>586</v>
       </c>
       <c r="B328" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -28334,7 +28343,7 @@
         <v>737</v>
       </c>
       <c r="B401" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -28672,7 +28681,7 @@
         <v>828</v>
       </c>
       <c r="B444" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -29896,7 +29905,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="B602" s="1"/>
     </row>
@@ -30313,7 +30322,7 @@
         <v>1215</v>
       </c>
       <c r="B654" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -30480,7 +30489,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="B677" s="1"/>
     </row>
@@ -31066,7 +31075,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B753" s="1"/>
     </row>
@@ -31677,7 +31686,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="B834" s="1"/>
     </row>
@@ -31958,7 +31967,7 @@
         <v>1622</v>
       </c>
       <c r="B869" t="s">
-        <v>1653</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
@@ -31966,7 +31975,7 @@
         <v>1623</v>
       </c>
       <c r="B870" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.2">
@@ -31974,12 +31983,12 @@
         <v>1624</v>
       </c>
       <c r="B871" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B872" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
@@ -31987,7 +31996,7 @@
         <v>1625</v>
       </c>
       <c r="B873" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.2">
@@ -31995,7 +32004,7 @@
         <v>1626</v>
       </c>
       <c r="B874" t="s">
-        <v>1658</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
@@ -32003,7 +32012,7 @@
         <v>1627</v>
       </c>
       <c r="B875" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
@@ -32011,973 +32020,973 @@
         <v>1628</v>
       </c>
       <c r="B876" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B877" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="B878" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B879" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B880" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B881" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="B882" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B883" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="B884" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="B885" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="B886" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="B887" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B888" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="B889" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="B890" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B891" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B892" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="B893" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B894" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="B895" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B896" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B897" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B898" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B899" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B900" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B901" t="s">
-        <v>1736</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B902" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B903" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B904" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B905" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B906" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="1" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="B908" s="1"/>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B909" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B910" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B911" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B912" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B913" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B914" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B915" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B916" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B917" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="B918" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B919" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="B920" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B921" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="B922" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="B923" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="B924" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="B925" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="B926" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="B927" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="B928" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="B929" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="B930" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="B931" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="B932" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="B933" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="B934" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="B935" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="B936" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="B937" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="B938" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="B939" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="B940" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="B941" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="B942" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="B943" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="B944" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="B945" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B946" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="B947" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="B948" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="B949" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="B950" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="B951" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="B952" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="B953" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="B954" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="B955" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="B956" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="B957" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="B958" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="B959" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="B960" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="B961" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="B962" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="B963" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="B964" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="B965" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="B966" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="B967" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="B968" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="B969" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="B970" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="B971" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="B972" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="B973" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="B974" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="B975" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="B976" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="B977" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="B978" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="B979" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="B980" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" s="1" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="B982" s="1"/>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="B983" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="B984" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="B985" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="B986" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="B987" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="B988" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="B989" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="B990" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="B991" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="B992" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="B993" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="B994" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="B995" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="B996" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="B997" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="B998" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="B999" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="B1000" t="s">
         <v>1161</v>
@@ -32985,2075 +32994,2075 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="B1001" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="B1002" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="B1003" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="B1004" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="B1005" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1006" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="B1007" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="B1008" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="B1009" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="B1010" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="B1011" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1012" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="B1013" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="B1014" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="B1015" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="B1016" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="B1017" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="B1018" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="B1019" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="B1020" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="B1021" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="B1022" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="B1023" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="B1024" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1025" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="B1026" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="B1027" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="B1028" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="B1029" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="B1030" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="B1031" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="B1032" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="B1033" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="B1034" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="B1035" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="B1036" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="B1037" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="B1038" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="B1039" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="B1040" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="B1041" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="B1042" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1043" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="B1044" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="B1045" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="B1046" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="B1047" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="B1048" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="B1049" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="B1050" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="B1051" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="B1052" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="B1053" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="B1054" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="B1055" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="B1056" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" s="1" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="B1058" s="1"/>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="B1059" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="B1060" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="B1061" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="B1062" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="B1063" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1064" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="B1065" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="B1066" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B1067" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B1068" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B1069" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B1070" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B1071" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B1072" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B1073" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="B1074" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1075" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="B1076" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="B1077" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1078" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1079" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="B1080" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="B1081" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="B1082" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="B1083" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="B1084" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="B1085" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="B1086" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="B1087" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="B1088" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="B1089" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="B1090" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="B1091" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="B1092" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1093" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="B1094" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="B1095" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="B1096" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="B1097" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="B1098" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="B1099" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="B1100" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="B1101" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="B1102" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="B1103" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="B1104" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="B1105" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="B1106" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="B1107" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="B1108" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="B1109" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="B1110" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1111" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1112" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="B1113" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="B1114" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="B1115" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="B1116" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="B1117" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="B1118" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="B1119" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="B1120" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="B1121" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="B1122" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="B1123" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="B1124" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="B1125" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="B1126" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="B1127" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="B1128" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="B1129" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="B1130" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="B1131" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="B1132" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="B1133" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="B1134" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="B1135" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="B1136" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" s="1" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="B1138" s="1"/>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="B1139" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="B1140" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="B1141" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="B1142" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="B1143" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="B1144" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="B1145" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="B1146" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="B1147" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
       <c r="B1148" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="B1149" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="B1150" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="B1151" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
       <c r="B1152" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
       <c r="B1153" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1154" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="B1155" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
       <c r="B1156" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="B1157" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="B1158" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
       <c r="B1159" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="B1160" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="B1161" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="B1162" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="B1163" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="B1164" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="B1165" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="B1166" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="B1167" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="B1168" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="B1169" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="B1170" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="B1171" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="B1172" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1173" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="B1174" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="B1175" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="B1176" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="B1177" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="B1178" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="B1179" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="B1180" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="B1181" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="B1182" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1183" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="B1184" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="B1185" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="B1186" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="B1187" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="B1188" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="B1189" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="B1190" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="B1191" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="B1192" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="B1193" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="B1194" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="B1195" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="B1196" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="B1197" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="B1198" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="B1199" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="B1200" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="B1201" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="B1202" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="B1203" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="B1204" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="B1205" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="B1206" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="B1207" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
       <c r="B1208" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="B1209" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="B1210" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="B1211" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1212" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="B1213" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="B1214" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="B1216" s="1"/>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="B1217" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
       <c r="B1218" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
       <c r="B1219" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="B1220" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="B1221" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="B1222" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="B1223" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="B1224" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="B1225" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1226" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="B1227" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="B1228" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="B1229" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="B1230" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="B1231" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="B1232" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="B1233" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="B1234" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1235" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="B1236" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="B1237" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="B1238" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="B1239" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="B1240" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="B1241" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="B1242" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="B1243" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="B1244" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="B1245" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="B1246" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="B1247" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="B1248" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="B1249" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="B1250" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="B1251" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="B1252" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="B1253" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="B1254" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="B1255" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="B1256" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="B1257" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="B1258" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="B1259" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="B1260" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="B1261" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="B1262" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="B1263" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="B1264" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1265" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="B1266" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="B1267" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="B1268" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="B1269" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="B1270" t="s">
         <v>1561</v>
@@ -35061,321 +35070,321 @@
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="B1271" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="B1272" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="B1273" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="B1274" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="B1275" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="B1276" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="B1277" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="B1278" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1279" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="B1280" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="B1281" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="B1282" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="B1283" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="B1284" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="B1285" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="B1286" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="B1287" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1288" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="B1289" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="B1290" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="B1291" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="B1292" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="B1294" s="1"/>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="B1295" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="B1296" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="B1297" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="B1298" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="B1299" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="B1300" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="B1301" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="B1302" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="B1303" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="B1304" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1305" t="s">
-        <v>2496</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="B1306" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="B1307" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="B1308" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="B1309" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="B1310" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1311" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="B1312" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="B1313" t="s">
         <v>508</v>
@@ -35383,913 +35392,913 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="B1314" t="s">
-        <v>2504</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="B1315" t="s">
-        <v>2505</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1316" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="B1317" t="s">
-        <v>2507</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="B1318" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="B1319" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2510</v>
+        <v>2507</v>
       </c>
       <c r="B1320" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2511</v>
+        <v>2508</v>
       </c>
       <c r="B1321" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2512</v>
+        <v>2509</v>
       </c>
       <c r="B1322" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="B1323" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="B1324" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="B1325" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="B1326" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="B1327" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2518</v>
+        <v>2515</v>
       </c>
       <c r="B1328" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="B1329" t="s">
-        <v>2540</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1330" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="B1331" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="B1332" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="B1333" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="B1334" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="B1335" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="B1336" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="B1337" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="B1338" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="B1339" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="B1340" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="B1341" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="B1342" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>2554</v>
+        <v>2551</v>
       </c>
       <c r="B1343" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
       <c r="B1344" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="B1345" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="B1346" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="B1347" t="s">
-        <v>2585</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="B1348" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="B1349" t="s">
-        <v>2587</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="B1350" t="s">
-        <v>2588</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="B1351" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="B1352" t="s">
-        <v>2590</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="B1353" t="s">
-        <v>2591</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="B1354" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="B1355" t="s">
-        <v>2593</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="B1356" t="s">
-        <v>2594</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="B1357" t="s">
-        <v>2595</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="B1358" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
       <c r="B1359" t="s">
-        <v>2597</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
       <c r="B1360" t="s">
-        <v>2598</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="B1361" t="s">
-        <v>2599</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="B1362" t="s">
-        <v>2600</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="B1363" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="B1364" t="s">
-        <v>2602</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="B1365" t="s">
-        <v>2603</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="B1366" t="s">
-        <v>2604</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2605</v>
+        <v>2602</v>
       </c>
       <c r="B1367" t="s">
-        <v>2633</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2606</v>
+        <v>2603</v>
       </c>
       <c r="B1368" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" s="1" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="B1370" s="1"/>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="B1371" t="s">
-        <v>2635</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="B1372" t="s">
-        <v>2636</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="B1373" t="s">
-        <v>2637</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="B1374" t="s">
-        <v>2638</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="B1375" t="s">
-        <v>2639</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="B1376" t="s">
-        <v>2640</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="B1377" t="s">
-        <v>2641</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="B1378" t="s">
-        <v>2642</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="B1379" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
-        <v>2616</v>
+        <v>2613</v>
       </c>
       <c r="B1380" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>2617</v>
+        <v>2614</v>
       </c>
       <c r="B1381" t="s">
-        <v>2645</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1382" t="s">
-        <v>2646</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2618</v>
+        <v>2615</v>
       </c>
       <c r="B1383" t="s">
-        <v>2647</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2619</v>
+        <v>2616</v>
       </c>
       <c r="B1384" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2620</v>
+        <v>2617</v>
       </c>
       <c r="B1385" t="s">
-        <v>2649</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2621</v>
+        <v>2618</v>
       </c>
       <c r="B1386" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2622</v>
+        <v>2619</v>
       </c>
       <c r="B1387" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2623</v>
+        <v>2620</v>
       </c>
       <c r="B1388" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2624</v>
+        <v>2621</v>
       </c>
       <c r="B1389" t="s">
-        <v>2653</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="B1390" t="s">
-        <v>2654</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="B1391" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="B1392" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="B1393" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="B1394" t="s">
-        <v>2658</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2630</v>
+        <v>2627</v>
       </c>
       <c r="B1395" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2631</v>
+        <v>2628</v>
       </c>
       <c r="B1396" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1397" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>2632</v>
+        <v>2629</v>
       </c>
       <c r="B1398" t="s">
-        <v>2662</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="B1399" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
       <c r="B1400" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2665</v>
+        <v>2662</v>
       </c>
       <c r="B1401" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2666</v>
+        <v>2663</v>
       </c>
       <c r="B1402" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="B1403" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="B1404" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2669</v>
+        <v>2666</v>
       </c>
       <c r="B1405" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="B1406" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2671</v>
+        <v>2668</v>
       </c>
       <c r="B1407" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="B1408" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="B1409" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
       <c r="B1410" t="s">
-        <v>2699</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="B1411" t="s">
-        <v>2700</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
       <c r="B1412" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="B1413" t="s">
-        <v>2702</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2678</v>
+        <v>2675</v>
       </c>
       <c r="B1414" t="s">
-        <v>2703</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="B1415" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
       <c r="B1416" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
       <c r="B1417" t="s">
-        <v>2706</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
       <c r="B1418" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="B1419" t="s">
-        <v>2708</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2684</v>
+        <v>2681</v>
       </c>
       <c r="B1420" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>2685</v>
+        <v>2682</v>
       </c>
       <c r="B1421" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
       <c r="B1422" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>2687</v>
+        <v>2684</v>
       </c>
       <c r="B1423" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="B1424" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="B1425" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="B1426" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="B1427" t="s">
-        <v>2744</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="B1428" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="B1429" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="B1430" t="s">
         <v>1091</v>
@@ -36297,285 +36306,297 @@
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="B1431" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
       <c r="B1432" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="B1433" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2723</v>
+        <v>2720</v>
       </c>
       <c r="B1434" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="B1435" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="B1436" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1437" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="B1438" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
       <c r="B1439" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="B1440" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>2729</v>
+        <v>2726</v>
       </c>
       <c r="B1441" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>2730</v>
+        <v>2727</v>
       </c>
       <c r="B1442" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
-        <v>2731</v>
+        <v>2728</v>
       </c>
       <c r="B1443" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="B1444" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="B1446" s="1"/>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2733</v>
+        <v>2730</v>
       </c>
       <c r="B1447" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="B1448" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="B1449" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
       <c r="B1450" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
       <c r="B1451" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
       <c r="B1452" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
       <c r="B1453" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="B1454" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="B1455" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1456" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="B1457" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="B1458" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="B1459" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1460" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1461" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="B1462" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1463" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="B1464" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="B1465" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="B1466" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="B1467" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="B1468" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A602:B602"/>
+    <mergeCell ref="A677:B677"/>
+    <mergeCell ref="A753:B753"/>
+    <mergeCell ref="A834:B834"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="A529:B529"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A302:B302"/>
     <mergeCell ref="A1216:B1216"/>
     <mergeCell ref="A1294:B1294"/>
     <mergeCell ref="A1370:B1370"/>
@@ -36584,18 +36605,6 @@
     <mergeCell ref="A982:B982"/>
     <mergeCell ref="A1058:B1058"/>
     <mergeCell ref="A1138:B1138"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A602:B602"/>
-    <mergeCell ref="A677:B677"/>
-    <mergeCell ref="A753:B753"/>
-    <mergeCell ref="A834:B834"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="A455:B455"/>
-    <mergeCell ref="A529:B529"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -15780,16 +15780,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n.主旨，实质</t>
-    <rPh sb="2" eb="3">
-      <t>zhu zhi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shi zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v.(使)旋转  n.大量</t>
     <rPh sb="3" eb="4">
       <t>shi</t>
@@ -16516,22 +16506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.回想，回忆起；收回</t>
-    <rPh sb="2" eb="3">
-      <t>hui xiang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hui yi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>qi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shou hui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adj.不结果实的</t>
     <rPh sb="4" eb="5">
       <t>bu jie guo shi</t>
@@ -24914,6 +24888,38 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>wu dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.回想，回忆起；收回 n.唤回</t>
+    <rPh sb="2" eb="3">
+      <t>hui xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shou hui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>huan hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.主旨，实质；物质</t>
+    <rPh sb="2" eb="3">
+      <t>zhu zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu zhi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -25243,8 +25249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A863" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="B869" sqref="B869"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A918" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="B929" sqref="B929"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27720,7 +27726,7 @@
         <v>578</v>
       </c>
       <c r="B320" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -27784,7 +27790,7 @@
         <v>586</v>
       </c>
       <c r="B328" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -28343,7 +28349,7 @@
         <v>737</v>
       </c>
       <c r="B401" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -28681,7 +28687,7 @@
         <v>828</v>
       </c>
       <c r="B444" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -30322,7 +30328,7 @@
         <v>1215</v>
       </c>
       <c r="B654" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -31967,7 +31973,7 @@
         <v>1622</v>
       </c>
       <c r="B869" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
@@ -32004,7 +32010,7 @@
         <v>1626</v>
       </c>
       <c r="B874" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
@@ -32220,7 +32226,7 @@
         <v>1705</v>
       </c>
       <c r="B901" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
@@ -32265,7 +32271,7 @@
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="1" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="B908" s="1"/>
     </row>
@@ -32434,7 +32440,7 @@
         <v>1759</v>
       </c>
       <c r="B929" t="s">
-        <v>1791</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
@@ -32442,7 +32448,7 @@
         <v>1760</v>
       </c>
       <c r="B930" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
@@ -32450,7 +32456,7 @@
         <v>1761</v>
       </c>
       <c r="B931" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
@@ -32458,7 +32464,7 @@
         <v>1762</v>
       </c>
       <c r="B932" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
@@ -32466,7 +32472,7 @@
         <v>1763</v>
       </c>
       <c r="B933" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
@@ -32474,7 +32480,7 @@
         <v>1764</v>
       </c>
       <c r="B934" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
@@ -32482,7 +32488,7 @@
         <v>1765</v>
       </c>
       <c r="B935" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
@@ -32490,7 +32496,7 @@
         <v>1766</v>
       </c>
       <c r="B936" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
@@ -32498,7 +32504,7 @@
         <v>1767</v>
       </c>
       <c r="B937" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
@@ -32506,7 +32512,7 @@
         <v>1768</v>
       </c>
       <c r="B938" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
@@ -32514,7 +32520,7 @@
         <v>1769</v>
       </c>
       <c r="B939" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
@@ -32522,7 +32528,7 @@
         <v>1770</v>
       </c>
       <c r="B940" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
@@ -32530,7 +32536,7 @@
         <v>1771</v>
       </c>
       <c r="B941" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
@@ -32538,7 +32544,7 @@
         <v>1772</v>
       </c>
       <c r="B942" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
@@ -32546,7 +32552,7 @@
         <v>1773</v>
       </c>
       <c r="B943" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
@@ -32554,7 +32560,7 @@
         <v>1774</v>
       </c>
       <c r="B944" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
@@ -32562,12 +32568,12 @@
         <v>1775</v>
       </c>
       <c r="B945" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B946" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
@@ -32575,7 +32581,7 @@
         <v>1776</v>
       </c>
       <c r="B947" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
@@ -32583,7 +32589,7 @@
         <v>1777</v>
       </c>
       <c r="B948" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
@@ -32591,7 +32597,7 @@
         <v>1778</v>
       </c>
       <c r="B949" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
@@ -32599,7 +32605,7 @@
         <v>1779</v>
       </c>
       <c r="B950" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
@@ -32607,7 +32613,7 @@
         <v>1780</v>
       </c>
       <c r="B951" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.2">
@@ -32615,7 +32621,7 @@
         <v>1781</v>
       </c>
       <c r="B952" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.2">
@@ -32623,7 +32629,7 @@
         <v>1782</v>
       </c>
       <c r="B953" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.2">
@@ -32631,7 +32637,7 @@
         <v>1783</v>
       </c>
       <c r="B954" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.2">
@@ -32639,354 +32645,354 @@
         <v>1784</v>
       </c>
       <c r="B955" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B956" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B957" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B958" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B959" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B960" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B961" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B962" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B963" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B964" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B965" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B966" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B967" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B968" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B969" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B970" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B971" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B972" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B973" t="s">
-        <v>1861</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B974" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B975" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B976" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B977" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B978" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B979" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B980" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" s="1" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B982" s="1"/>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B983" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="B984" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="B985" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="B986" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="B987" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="B988" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="B989" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="B990" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B991" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="B992" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="B993" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="B994" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="B995" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="B996" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B997" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B998" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B999" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B1000" t="s">
         <v>1161</v>
@@ -32994,2075 +33000,2075 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B1001" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="B1002" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B1003" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="B1004" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="B1005" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1006" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B1007" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B1008" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="B1009" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="B1010" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1011" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1012" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="B1013" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B1014" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="B1015" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="B1016" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B1017" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B1018" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B1019" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="B1020" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="B1021" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="B1022" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B1023" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="B1024" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1025" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="B1026" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B1027" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="B1028" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B1029" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="B1030" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B1031" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="B1032" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B1033" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="B1034" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B1035" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="B1036" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="B1037" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B1038" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B1039" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B1040" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B1041" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B1042" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1043" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B1044" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B1045" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B1046" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B1047" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B1048" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B1049" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B1050" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="B1051" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B1052" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B1053" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B1054" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B1055" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B1056" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" s="1" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="B1058" s="1"/>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B1059" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B1060" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B1061" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B1062" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B1063" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1064" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B1065" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B1066" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B1067" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B1068" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B1069" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B1070" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B1071" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B1072" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B1073" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="B1074" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1075" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B1076" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="B1077" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1078" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1079" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="B1080" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B1081" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="B1082" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="B1083" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B1084" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="B1085" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="B1086" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="B1087" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="B1088" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B1089" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="B1090" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="B1091" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="B1092" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1093" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="B1094" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="B1095" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="B1096" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="B1097" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="B1098" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="B1099" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="B1100" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="B1101" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="B1102" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B1103" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="B1104" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="B1105" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="B1106" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="B1107" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B1108" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="B1109" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="B1110" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1111" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1112" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="B1113" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="B1114" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="B1115" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="B1116" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="B1117" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="B1118" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="B1119" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="B1120" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="B1121" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="B1122" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="B1123" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="B1124" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B1125" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="B1126" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="B1127" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="B1128" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="B1129" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="B1130" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="B1131" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="B1132" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B1133" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="B1134" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="B1135" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="B1136" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" s="1" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B1138" s="1"/>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="B1139" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="B1140" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B1141" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="B1142" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="B1143" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="B1144" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="B1145" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="B1146" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="B1147" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="B1148" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="B1149" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="B1150" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B1151" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="B1152" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="B1153" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1154" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="B1155" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="B1156" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="B1157" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B1158" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="B1159" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1160" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="B1161" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="B1162" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="B1163" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="B1164" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="B1165" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="B1166" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B1167" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="B1168" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B1169" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="B1170" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B1171" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="B1172" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1173" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="B1174" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="B1175" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="B1176" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="B1177" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="B1178" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="B1179" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="B1180" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="B1181" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="B1182" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1183" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="B1184" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="B1185" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="B1186" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B1187" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="B1188" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="B1189" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="B1190" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="B1191" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="B1192" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="B1193" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B1194" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="B1195" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="B1196" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B1197" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="B1198" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="B1199" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="B1200" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="B1201" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="B1202" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B1203" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="B1204" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="B1205" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="B1206" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="B1207" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1208" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="B1209" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="B1210" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="B1211" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1212" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="B1213" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="B1214" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" s="1" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="B1216" s="1"/>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="B1217" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="B1218" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="B1219" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="B1220" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="B1221" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="B1222" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="B1223" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="B1224" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="B1225" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1226" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="B1227" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="B1228" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="B1229" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B1230" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="B1231" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="B1232" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="B1233" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="B1234" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1235" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="B1236" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B1237" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="B1238" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="B1239" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="B1240" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="B1241" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="B1242" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="B1243" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="B1244" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="B1245" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="B1246" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="B1247" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="B1248" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="B1249" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B1250" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="B1251" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="B1252" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="B1253" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="B1254" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="B1255" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="B1256" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="B1257" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="B1258" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="B1259" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="B1260" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="B1261" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="B1262" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="B1263" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="B1264" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1265" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="B1266" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="B1267" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="B1268" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="B1269" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="B1270" t="s">
         <v>1561</v>
@@ -35070,321 +35076,321 @@
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="B1271" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="B1272" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="B1273" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="B1274" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="B1275" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="B1276" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="B1277" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="B1278" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1279" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="B1280" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="B1281" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="B1282" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="B1283" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="B1284" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="B1285" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="B1286" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="B1287" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1288" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="B1289" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="B1290" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="B1291" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="B1292" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" s="1" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="B1294" s="1"/>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="B1295" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="B1296" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="B1297" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B1298" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="B1299" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="B1300" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="B1301" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="B1302" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="B1303" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="B1304" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1305" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="B1306" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="B1307" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B1308" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="B1309" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="B1310" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1311" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="B1312" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="B1313" t="s">
         <v>508</v>
@@ -35392,913 +35398,913 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="B1314" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="B1315" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1316" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="B1317" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="B1318" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="B1319" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="B1320" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B1321" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="B1322" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="B1323" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="B1324" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="B1325" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="B1326" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="B1327" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B1328" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="B1329" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1330" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="B1331" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="B1332" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="B1333" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="B1334" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="B1335" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="B1336" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="B1337" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="B1338" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="B1339" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="B1340" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="B1341" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="B1342" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="B1343" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="B1344" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="B1345" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="B1346" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="B1347" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="B1348" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="B1349" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="B1350" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="B1351" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="B1352" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="B1353" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="B1354" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="B1355" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="B1356" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="B1357" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="B1358" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="B1359" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="B1360" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="B1361" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="B1362" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="B1363" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="B1364" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="B1365" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B1366" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="B1367" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="B1368" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" s="1" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="B1370" s="1"/>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="B1371" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="B1372" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="B1373" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="B1374" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="B1375" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="B1376" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="B1377" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="B1378" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="B1379" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="B1380" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="B1381" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1382" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="B1383" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="B1384" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="B1385" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="B1386" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="B1387" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="B1388" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="B1389" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="B1390" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="B1391" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="B1392" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B1393" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="B1394" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="B1395" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="B1396" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1397" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="B1398" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="B1399" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="B1400" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="B1401" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="B1402" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="B1403" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="B1404" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="B1405" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="B1406" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="B1407" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="B1408" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="B1409" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="B1410" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="B1411" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="B1412" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="B1413" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="B1414" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="B1415" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="B1416" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="B1417" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="B1418" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="B1419" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="B1420" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="B1421" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="B1422" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="B1423" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="B1424" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="B1425" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="B1426" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="B1427" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="B1428" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="B1429" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="B1430" t="s">
         <v>1091</v>
@@ -36306,297 +36312,285 @@
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="B1431" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="B1432" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="B1433" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="B1434" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="B1435" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="B1436" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1437" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="B1438" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="B1439" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="B1440" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="B1441" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="B1442" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="B1443" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="B1444" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" s="1" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="B1446" s="1"/>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="B1447" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="B1448" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="B1449" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="B1450" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="B1451" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="B1452" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="B1453" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="B1454" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="B1455" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1456" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="B1457" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="B1458" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="B1459" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1460" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1461" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="B1462" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1463" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="B1464" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="B1465" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="B1466" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="B1467" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="B1468" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A602:B602"/>
-    <mergeCell ref="A677:B677"/>
-    <mergeCell ref="A753:B753"/>
-    <mergeCell ref="A834:B834"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="A455:B455"/>
-    <mergeCell ref="A529:B529"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A302:B302"/>
     <mergeCell ref="A1216:B1216"/>
     <mergeCell ref="A1294:B1294"/>
     <mergeCell ref="A1370:B1370"/>
@@ -36605,6 +36599,18 @@
     <mergeCell ref="A982:B982"/>
     <mergeCell ref="A1058:B1058"/>
     <mergeCell ref="A1138:B1138"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A602:B602"/>
+    <mergeCell ref="A677:B677"/>
+    <mergeCell ref="A753:B753"/>
+    <mergeCell ref="A834:B834"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="A529:B529"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -25249,8 +25249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A918" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="B929" sqref="B929"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1041" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="A1041" sqref="A1041"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36591,6 +36591,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A602:B602"/>
+    <mergeCell ref="A677:B677"/>
+    <mergeCell ref="A753:B753"/>
+    <mergeCell ref="A834:B834"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="A529:B529"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A302:B302"/>
     <mergeCell ref="A1216:B1216"/>
     <mergeCell ref="A1294:B1294"/>
     <mergeCell ref="A1370:B1370"/>
@@ -36599,18 +36611,6 @@
     <mergeCell ref="A982:B982"/>
     <mergeCell ref="A1058:B1058"/>
     <mergeCell ref="A1138:B1138"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A602:B602"/>
-    <mergeCell ref="A677:B677"/>
-    <mergeCell ref="A753:B753"/>
-    <mergeCell ref="A834:B834"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="A455:B455"/>
-    <mergeCell ref="A529:B529"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -13064,10 +13064,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>envisage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>affix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13317,16 +13313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.正规；想象</t>
-    <rPh sb="2" eb="3">
-      <t>zheng gui</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xiang xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v.粘上，贴上；(尤指在末尾)添上</t>
     <rPh sb="2" eb="3">
       <t>nian shang</t>
@@ -24841,28 +24827,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adj.辛辣的，开胃的；开胃的</t>
-    <rPh sb="4" eb="5">
-      <t>xin la</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>kai wei</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>kai wei</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adj.未留遗嘱的</t>
     <rPh sb="4" eb="5">
       <t>wei</t>
@@ -24920,6 +24884,45 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>wu zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.正视；想象</t>
+    <rPh sb="2" eb="3">
+      <t>zheng gui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>envisage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.辛辣的，开胃的；刺激的</t>
+    <rPh sb="4" eb="5">
+      <t>xin la</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kai wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ci ji</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -25249,8 +25252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1041" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="A1041" sqref="A1041"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A891" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="B901" sqref="B901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27204,12 +27207,12 @@
         <v>443</v>
       </c>
       <c r="B252" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="B253" t="s">
         <v>474</v>
@@ -27544,7 +27547,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B296" t="s">
         <v>557</v>
@@ -27726,7 +27729,7 @@
         <v>578</v>
       </c>
       <c r="B320" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -27790,7 +27793,7 @@
         <v>586</v>
       </c>
       <c r="B328" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -28349,7 +28352,7 @@
         <v>737</v>
       </c>
       <c r="B401" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -28687,7 +28690,7 @@
         <v>828</v>
       </c>
       <c r="B444" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -29911,7 +29914,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B602" s="1"/>
     </row>
@@ -30328,7 +30331,7 @@
         <v>1215</v>
       </c>
       <c r="B654" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -30495,7 +30498,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="B677" s="1"/>
     </row>
@@ -31081,7 +31084,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="B753" s="1"/>
     </row>
@@ -31233,7 +31236,7 @@
         <v>1464</v>
       </c>
       <c r="B773" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
@@ -31241,7 +31244,7 @@
         <v>1465</v>
       </c>
       <c r="B774" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
@@ -31249,7 +31252,7 @@
         <v>1466</v>
       </c>
       <c r="B775" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
@@ -31257,7 +31260,7 @@
         <v>1467</v>
       </c>
       <c r="B776" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
@@ -31265,7 +31268,7 @@
         <v>1468</v>
       </c>
       <c r="B777" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
@@ -31273,7 +31276,7 @@
         <v>1469</v>
       </c>
       <c r="B778" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
@@ -31281,7 +31284,7 @@
         <v>1470</v>
       </c>
       <c r="B779" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
@@ -31289,7 +31292,7 @@
         <v>1471</v>
       </c>
       <c r="B780" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
@@ -31297,12 +31300,12 @@
         <v>1472</v>
       </c>
       <c r="B781" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B782" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
@@ -31310,7 +31313,7 @@
         <v>1473</v>
       </c>
       <c r="B783" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
@@ -31318,1681 +31321,1681 @@
         <v>1474</v>
       </c>
       <c r="B784" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>1475</v>
+        <v>2795</v>
       </c>
       <c r="B785" t="s">
-        <v>1506</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B786" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B787" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B788" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B789" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B790" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B791" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B792" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B793" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B794" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B795" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B796" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B797" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B798" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B799" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B800" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B801" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B802" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B803" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B804" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B805" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B806" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="B807" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="B808" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B809" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="B810" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B811" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="B812" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B813" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B814" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B815" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B816" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B817" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B818" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B819" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B820" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B821" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B822" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B823" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B824" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B825" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B826" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B827" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B828" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B829" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B830" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B831" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B832" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="B834" s="1"/>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B835" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B836" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B837" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B838" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B839" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B840" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B841" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B842" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B843" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B844" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B845" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B846" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B847" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B848" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B849" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B850" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B851" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B852" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="B853" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B854" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B855" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B856" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B857" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B858" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B859" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B860" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B861" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B862" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B863" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B864" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B865" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B866" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B867" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B868" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B869" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B870" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B871" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B872" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="B873" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B874" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B875" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B876" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B877" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="B878" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B879" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="B880" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B881" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B882" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B883" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B884" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B885" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="B886" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="B887" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="B888" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="B889" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B890" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="B891" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="B892" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="B893" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B894" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="B895" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B896" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="B897" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B898" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B899" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B900" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B901" t="s">
-        <v>2792</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B902" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B903" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B904" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B905" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B906" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="1" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="B908" s="1"/>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B909" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B910" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B911" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B912" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B913" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B914" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B915" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B916" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B917" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B918" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B919" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="B920" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B921" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="B922" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="B923" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="B924" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B925" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="B926" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="B927" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="B928" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="B929" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="B930" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B931" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B932" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="B933" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B934" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B935" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="B936" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="B937" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="B938" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="B939" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="B940" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="B941" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="B942" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="B943" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="B944" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B945" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B946" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="B947" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B948" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="B949" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B950" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="B951" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B952" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B953" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B954" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="B955" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B956" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="B957" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B958" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B959" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="B960" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B961" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="B962" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="B963" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="B964" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="B965" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="B966" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="B967" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="B968" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="B969" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="B970" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="B971" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="B972" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B973" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B974" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="B975" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="B976" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="B977" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="B978" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="B979" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="B980" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" s="1" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B982" s="1"/>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="B983" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="B984" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="B985" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="B986" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="B987" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="B988" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="B989" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="B990" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="B991" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="B992" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B993" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="B994" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="B995" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="B996" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="B997" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="B998" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B999" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B1000" t="s">
         <v>1161</v>
@@ -33000,2397 +33003,2397 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B1001" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B1002" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B1003" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="B1004" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B1005" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1006" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="B1007" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="B1008" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B1009" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B1010" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="B1011" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1012" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="B1013" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1014" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="B1015" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B1016" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B1017" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="B1018" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B1019" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B1020" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B1021" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="B1022" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="B1023" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="B1024" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1025" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B1026" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="B1027" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="B1028" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="B1029" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="B1030" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B1031" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="B1032" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B1033" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="B1034" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B1035" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="B1036" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B1037" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="B1038" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="B1039" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="B1040" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B1041" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B1042" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1043" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B1044" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B1045" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B1046" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B1047" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B1048" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B1049" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B1050" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B1051" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B1052" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="B1053" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B1054" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B1055" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B1056" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" s="1" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="B1058" s="1"/>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B1059" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B1060" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B1061" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B1062" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B1063" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1064" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B1065" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B1066" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B1067" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B1068" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B1069" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B1070" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B1071" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B1072" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B1073" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B1074" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1075" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="B1076" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="B1077" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1078" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1079" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B1080" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="B1081" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="B1082" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B1083" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="B1084" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="B1085" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B1086" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="B1087" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="B1088" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="B1089" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="B1090" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B1091" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="B1092" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1093" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="B1094" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="B1095" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="B1096" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="B1097" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="B1098" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="B1099" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="B1100" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="B1101" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="B1102" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="B1103" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="B1104" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B1105" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="B1106" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="B1107" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="B1108" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="B1109" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B1110" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1111" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1112" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="B1113" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="B1114" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="B1115" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="B1116" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="B1117" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="B1118" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="B1119" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="B1120" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="B1121" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="B1122" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="B1123" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="B1124" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="B1125" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="B1126" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B1127" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="B1128" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="B1129" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="B1130" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="B1131" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="B1132" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="B1133" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="B1134" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="B1135" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="B1136" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" s="1" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B1138" s="1"/>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="B1139" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="B1140" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="B1141" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="B1142" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B1143" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="B1144" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="B1145" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="B1146" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="B1147" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="B1148" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="B1149" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="B1150" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="B1151" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="B1152" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B1153" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1154" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="B1155" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="B1156" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="B1157" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="B1158" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="B1159" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B1160" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="B1161" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1162" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="B1163" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="B1164" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="B1165" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="B1166" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="B1167" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="B1168" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B1169" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="B1170" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B1171" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="B1172" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1173" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B1174" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="B1175" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="B1176" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="B1177" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="B1178" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="B1179" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="B1180" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="B1181" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="B1182" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1183" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="B1184" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="B1185" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="B1186" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="B1187" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="B1188" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B1189" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B1190" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B1191" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="B1192" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="B1193" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="B1194" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="B1195" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B1196" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="B1197" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="B1198" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B1199" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="B1200" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="B1201" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="B1202" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="B1203" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="B1204" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B1205" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="B1206" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="B1207" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="B1208" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="B1209" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1210" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="B1211" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1212" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="B1213" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="B1214" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" s="1" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="B1216" s="1"/>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="B1217" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="B1218" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="B1219" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="B1220" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="B1221" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="B1222" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="B1223" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="B1224" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="B1225" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1226" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="B1227" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="B1228" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="B1229" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="B1230" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="B1231" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B1232" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="B1233" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="B1234" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1235" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="B1236" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="B1237" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="B1238" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B1239" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="B1240" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="B1241" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="B1242" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="B1243" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="B1244" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="B1245" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="B1246" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="B1247" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="B1248" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="B1249" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="B1250" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="B1251" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B1252" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="B1253" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="B1254" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="B1255" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="B1256" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="B1257" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="B1258" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="B1259" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="B1260" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="B1261" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="B1262" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="B1263" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="B1264" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1265" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="B1266" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="B1267" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="B1268" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="B1269" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="B1270" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="B1271" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="B1272" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="B1273" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="B1274" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="B1275" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="B1276" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="B1277" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="B1278" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1279" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="B1280" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="B1281" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="B1282" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="B1283" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="B1284" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="B1285" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="B1286" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="B1287" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1288" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="B1289" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="B1290" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="B1291" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="B1292" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" s="1" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="B1294" s="1"/>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="B1295" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="B1296" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="B1297" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="B1298" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="B1299" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B1300" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="B1301" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="B1302" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="B1303" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="B1304" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1305" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="B1306" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="B1307" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="B1308" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="B1309" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B1310" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1311" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="B1312" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="B1313" t="s">
         <v>508</v>
@@ -35398,913 +35401,913 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="B1314" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="B1315" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1316" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="B1317" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="B1318" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="B1319" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="B1320" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="B1321" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="B1322" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B1323" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="B1324" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="B1325" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="B1326" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="B1327" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="B1328" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="B1329" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1330" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B1331" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="B1332" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="B1333" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="B1334" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="B1335" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="B1336" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="B1337" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="B1338" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="B1339" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="B1340" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="B1341" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="B1342" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="B1343" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="B1344" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="B1345" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="B1346" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="B1347" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="B1348" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="B1349" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="B1350" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="B1351" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="B1352" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="B1353" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="B1354" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="B1355" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="B1356" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="B1357" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="B1358" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="B1359" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="B1360" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="B1361" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="B1362" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="B1363" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="B1364" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="B1365" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="B1366" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="B1367" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="B1368" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" s="1" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="B1370" s="1"/>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="B1371" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="B1372" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="B1373" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="B1374" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="B1375" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="B1376" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="B1377" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="B1378" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="B1379" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="B1380" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="B1381" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1382" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="B1383" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="B1384" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="B1385" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="B1386" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="B1387" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="B1388" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="B1389" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="B1390" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="B1391" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="B1392" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="B1393" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="B1394" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B1395" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="B1396" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1397" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="B1398" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="B1399" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="B1400" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="B1401" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="B1402" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="B1403" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="B1404" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="B1405" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="B1406" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="B1407" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="B1408" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="B1409" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="B1410" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="B1411" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="B1412" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="B1413" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="B1414" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="B1415" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="B1416" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="B1417" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="B1418" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="B1419" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="B1420" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="B1421" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="B1422" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="B1423" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="B1424" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="B1425" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="B1426" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="B1427" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="B1428" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="B1429" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="B1430" t="s">
         <v>1091</v>
@@ -36312,297 +36315,285 @@
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="B1431" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="B1432" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="B1433" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="B1434" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="B1435" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="B1436" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1437" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="B1438" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="B1439" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="B1440" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="B1441" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="B1442" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="B1443" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="B1444" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" s="1" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="B1446" s="1"/>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="B1447" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="B1448" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="B1449" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="B1450" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="B1451" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="B1452" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="B1453" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="B1454" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="B1455" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1456" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="B1457" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="B1458" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="B1459" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1460" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1461" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="B1462" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1463" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="B1464" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="B1465" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="B1466" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="B1467" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="B1468" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A602:B602"/>
-    <mergeCell ref="A677:B677"/>
-    <mergeCell ref="A753:B753"/>
-    <mergeCell ref="A834:B834"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="A455:B455"/>
-    <mergeCell ref="A529:B529"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A302:B302"/>
     <mergeCell ref="A1216:B1216"/>
     <mergeCell ref="A1294:B1294"/>
     <mergeCell ref="A1370:B1370"/>
@@ -36611,6 +36602,18 @@
     <mergeCell ref="A982:B982"/>
     <mergeCell ref="A1058:B1058"/>
     <mergeCell ref="A1138:B1138"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A602:B602"/>
+    <mergeCell ref="A677:B677"/>
+    <mergeCell ref="A753:B753"/>
+    <mergeCell ref="A834:B834"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="A529:B529"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -20019,19 +20019,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.感到窒息的</t>
-    <rPh sb="2" eb="3">
-      <t>gan dao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhi xi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n.被风吹落的果实；</t>
     <rPh sb="2" eb="3">
       <t>bei</t>
@@ -24923,6 +24910,22 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.感到窒息；抑止</t>
+    <rPh sb="2" eb="3">
+      <t>gan dao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -25252,8 +25255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A891" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="B901" sqref="B901"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1171" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="B1181" sqref="B1181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30331,7 +30334,7 @@
         <v>1215</v>
       </c>
       <c r="B654" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -31326,10 +31329,10 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B785" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
@@ -31976,7 +31979,7 @@
         <v>1620</v>
       </c>
       <c r="B869" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
@@ -32013,7 +32016,7 @@
         <v>1624</v>
       </c>
       <c r="B874" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
@@ -32229,7 +32232,7 @@
         <v>1703</v>
       </c>
       <c r="B901" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
@@ -32274,7 +32277,7 @@
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B908" s="1"/>
     </row>
@@ -32443,7 +32446,7 @@
         <v>1757</v>
       </c>
       <c r="B929" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
@@ -32792,7 +32795,7 @@
         <v>1832</v>
       </c>
       <c r="B973" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
@@ -32853,7 +32856,7 @@
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B982" s="1"/>
     </row>
@@ -33439,7 +33442,7 @@
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B1058" s="1"/>
     </row>
@@ -34048,7 +34051,7 @@
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B1138" s="1"/>
     </row>
@@ -34387,7 +34390,7 @@
         <v>2227</v>
       </c>
       <c r="B1181" t="s">
-        <v>2250</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
@@ -34395,12 +34398,12 @@
         <v>2228</v>
       </c>
       <c r="B1182" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1183" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
@@ -34408,7 +34411,7 @@
         <v>2229</v>
       </c>
       <c r="B1184" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
@@ -34416,7 +34419,7 @@
         <v>2230</v>
       </c>
       <c r="B1185" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
@@ -34424,7 +34427,7 @@
         <v>2231</v>
       </c>
       <c r="B1186" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
@@ -34432,7 +34435,7 @@
         <v>2232</v>
       </c>
       <c r="B1187" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
@@ -34440,7 +34443,7 @@
         <v>2233</v>
       </c>
       <c r="B1188" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
@@ -34448,630 +34451,630 @@
         <v>2234</v>
       </c>
       <c r="B1189" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B1190" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="B1191" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="B1192" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B1193" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="B1194" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="B1195" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B1196" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B1197" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B1198" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B1199" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="B1200" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B1201" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B1202" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="B1203" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="B1204" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="B1205" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="B1206" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="B1207" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B1208" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="B1209" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B1210" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B1211" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1212" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B1213" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B1214" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B1216" s="1"/>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B1217" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="B1218" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B1219" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="B1220" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="B1221" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="B1222" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="B1223" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="B1224" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="B1225" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1226" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B1227" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="B1228" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="B1229" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="B1230" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="B1231" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B1232" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B1233" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B1234" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1235" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B1236" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="B1237" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B1238" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B1239" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B1240" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B1241" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B1242" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B1243" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B1244" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B1245" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B1246" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B1247" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B1248" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B1249" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B1250" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B1251" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B1252" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B1253" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B1254" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B1255" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B1256" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B1257" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B1258" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B1259" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B1260" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B1261" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B1262" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B1263" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B1264" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1265" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B1266" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B1267" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B1268" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B1269" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B1270" t="s">
         <v>1559</v>
@@ -35079,321 +35082,321 @@
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B1271" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B1272" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B1273" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B1274" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B1275" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B1276" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B1277" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B1278" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1279" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B1280" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B1281" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B1282" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B1283" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="B1284" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B1285" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B1286" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B1287" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1288" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B1289" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="B1290" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B1291" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B1292" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B1294" s="1"/>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="B1295" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B1296" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B1297" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B1298" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B1299" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B1300" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B1301" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B1302" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B1303" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="B1304" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1305" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B1306" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B1307" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B1308" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B1309" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B1310" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1311" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B1312" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B1313" t="s">
         <v>508</v>
@@ -35401,913 +35404,913 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B1314" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B1315" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1316" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B1317" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B1318" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B1319" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B1320" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B1321" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B1322" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B1323" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B1324" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B1325" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B1326" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B1327" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B1328" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B1329" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1330" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B1331" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B1332" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B1333" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B1334" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B1335" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B1336" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B1337" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B1338" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B1339" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B1340" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B1341" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B1342" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="B1343" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="B1344" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="B1345" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B1346" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="B1347" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B1348" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="B1349" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B1350" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B1351" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="B1352" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B1353" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B1354" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B1355" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B1356" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B1357" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B1358" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B1359" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B1360" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B1361" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B1362" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B1363" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B1364" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B1365" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B1366" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="B1367" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B1368" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1370" s="1"/>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B1371" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B1372" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B1373" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="B1374" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B1375" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B1376" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B1377" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B1378" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B1379" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B1380" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B1381" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1382" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B1383" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B1384" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B1385" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B1386" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B1387" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B1388" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B1389" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="B1390" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="B1391" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B1392" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="B1393" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="B1394" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B1395" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B1396" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1397" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B1398" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B1399" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B1400" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B1401" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="B1402" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B1403" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="B1404" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B1405" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B1406" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B1407" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B1408" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B1409" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B1410" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B1411" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B1412" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B1413" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B1414" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B1415" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B1416" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B1417" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B1418" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B1419" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B1420" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B1421" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B1422" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B1423" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B1424" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B1425" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B1426" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B1427" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="B1428" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B1429" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B1430" t="s">
         <v>1091</v>
@@ -36315,285 +36318,297 @@
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B1431" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="B1432" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B1433" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="B1434" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="B1435" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="B1436" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1437" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B1438" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B1439" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B1440" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B1441" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B1442" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B1443" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B1444" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="B1446" s="1"/>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B1447" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B1448" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B1449" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B1450" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B1451" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B1452" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B1453" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B1454" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="B1455" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1456" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="B1457" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="B1458" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="B1459" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1460" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1461" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="B1462" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1463" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="B1464" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B1465" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="B1466" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="B1467" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="B1468" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A602:B602"/>
+    <mergeCell ref="A677:B677"/>
+    <mergeCell ref="A753:B753"/>
+    <mergeCell ref="A834:B834"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="A529:B529"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A302:B302"/>
     <mergeCell ref="A1216:B1216"/>
     <mergeCell ref="A1294:B1294"/>
     <mergeCell ref="A1370:B1370"/>
@@ -36602,18 +36617,6 @@
     <mergeCell ref="A982:B982"/>
     <mergeCell ref="A1058:B1058"/>
     <mergeCell ref="A1138:B1138"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A602:B602"/>
-    <mergeCell ref="A677:B677"/>
-    <mergeCell ref="A753:B753"/>
-    <mergeCell ref="A834:B834"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="A455:B455"/>
-    <mergeCell ref="A529:B529"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -22645,19 +22645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.使发出咯咯声</t>
-    <rPh sb="2" eb="3">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>fa chu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ge ge sheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>compulsory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -24926,6 +24913,25 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使发出咯咯声；使慌乱</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fa chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ge ge sheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huang luan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -25255,8 +25261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1171" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="B1181" sqref="B1181"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1321" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="B1339" sqref="B1339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31329,10 +31335,10 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B785" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
@@ -31979,7 +31985,7 @@
         <v>1620</v>
       </c>
       <c r="B869" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
@@ -32016,7 +32022,7 @@
         <v>1624</v>
       </c>
       <c r="B874" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
@@ -32232,7 +32238,7 @@
         <v>1703</v>
       </c>
       <c r="B901" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
@@ -32446,7 +32452,7 @@
         <v>1757</v>
       </c>
       <c r="B929" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
@@ -32795,7 +32801,7 @@
         <v>1832</v>
       </c>
       <c r="B973" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
@@ -34390,7 +34396,7 @@
         <v>2227</v>
       </c>
       <c r="B1181" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
@@ -34653,7 +34659,7 @@
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="B1216" s="1"/>
     </row>
@@ -35252,7 +35258,7 @@
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B1294" s="1"/>
     </row>
@@ -35601,716 +35607,716 @@
         <v>2520</v>
       </c>
       <c r="B1339" t="s">
-        <v>2542</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="B1340" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B1341" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B1342" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B1343" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="B1344" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="B1345" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="B1346" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B1347" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="B1348" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B1349" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="B1350" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B1351" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B1352" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="B1353" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B1354" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B1355" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B1356" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B1357" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B1358" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B1359" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B1360" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B1361" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B1362" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B1363" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B1364" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B1365" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B1366" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B1367" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="B1368" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B1370" s="1"/>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B1371" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B1372" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B1373" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B1374" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="B1375" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B1376" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B1377" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B1378" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B1379" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B1380" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B1381" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1382" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B1383" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B1384" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B1385" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B1386" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B1387" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B1388" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B1389" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B1390" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="B1391" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="B1392" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B1393" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="B1394" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="B1395" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B1396" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1397" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B1398" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B1399" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B1400" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B1401" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B1402" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="B1403" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B1404" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="B1405" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B1406" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B1407" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B1408" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B1409" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B1410" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B1411" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B1412" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B1413" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B1414" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B1415" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B1416" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B1417" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B1418" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B1419" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B1420" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B1421" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B1422" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B1423" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B1424" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B1425" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B1426" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B1427" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B1428" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="B1429" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B1430" t="s">
         <v>1091</v>
@@ -36318,297 +36324,285 @@
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B1431" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B1432" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="B1433" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B1434" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="B1435" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="B1436" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1437" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="B1438" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B1439" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B1440" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B1441" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B1442" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B1443" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B1444" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1446" s="1"/>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B1447" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B1448" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B1449" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B1450" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B1451" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B1452" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B1453" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B1454" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="B1455" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1456" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="B1457" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="B1458" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="B1459" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1460" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1461" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="B1462" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1463" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="B1464" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="B1465" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B1466" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="B1467" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="B1468" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A602:B602"/>
-    <mergeCell ref="A677:B677"/>
-    <mergeCell ref="A753:B753"/>
-    <mergeCell ref="A834:B834"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="A455:B455"/>
-    <mergeCell ref="A529:B529"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A302:B302"/>
     <mergeCell ref="A1216:B1216"/>
     <mergeCell ref="A1294:B1294"/>
     <mergeCell ref="A1370:B1370"/>
@@ -36617,6 +36611,18 @@
     <mergeCell ref="A982:B982"/>
     <mergeCell ref="A1058:B1058"/>
     <mergeCell ref="A1138:B1138"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A602:B602"/>
+    <mergeCell ref="A677:B677"/>
+    <mergeCell ref="A753:B753"/>
+    <mergeCell ref="A834:B834"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="A529:B529"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -15148,16 +15148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.凝视，注视</t>
-    <rPh sb="2" eb="3">
-      <t>ning shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhu shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v.／n. 强夺，攫取</t>
     <rPh sb="6" eb="7">
       <t>qiang</t>
@@ -16009,19 +15999,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n.钩子，扣子；紧握</t>
-    <rPh sb="2" eb="3">
-      <t>gou zi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>kou zi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jin wo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n.传单；大片土地</t>
     <rPh sb="2" eb="3">
       <t>chuan dan</t>
@@ -24950,6 +24927,29 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>nong min</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.／n. 凝视，注视</t>
+    <rPh sb="6" eb="7">
+      <t>ning shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhu shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.钩子，扣子；v.紧握</t>
+    <rPh sb="2" eb="3">
+      <t>gou zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kou zi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jin wo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -25279,8 +25279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A747" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="B758" sqref="B758"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A938" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="B949" sqref="B949"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25603,7 +25603,7 @@
         <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -27082,7 +27082,7 @@
         <v>423</v>
       </c>
       <c r="B233" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -27351,7 +27351,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -27756,7 +27756,7 @@
         <v>575</v>
       </c>
       <c r="B320" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -27820,7 +27820,7 @@
         <v>583</v>
       </c>
       <c r="B328" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -28379,7 +28379,7 @@
         <v>734</v>
       </c>
       <c r="B401" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -28717,7 +28717,7 @@
         <v>825</v>
       </c>
       <c r="B444" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -30358,7 +30358,7 @@
         <v>1212</v>
       </c>
       <c r="B654" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -31152,7 +31152,7 @@
         <v>1415</v>
       </c>
       <c r="B758" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
@@ -31353,10 +31353,10 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="B785" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
@@ -32003,7 +32003,7 @@
         <v>1616</v>
       </c>
       <c r="B869" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
@@ -32040,7 +32040,7 @@
         <v>1620</v>
       </c>
       <c r="B874" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
@@ -32192,7 +32192,7 @@
         <v>1691</v>
       </c>
       <c r="B893" t="s">
-        <v>1720</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
@@ -32200,7 +32200,7 @@
         <v>1692</v>
       </c>
       <c r="B894" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
@@ -32208,7 +32208,7 @@
         <v>1693</v>
       </c>
       <c r="B895" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
@@ -32216,7 +32216,7 @@
         <v>1694</v>
       </c>
       <c r="B896" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
@@ -32224,7 +32224,7 @@
         <v>1695</v>
       </c>
       <c r="B897" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
@@ -32232,7 +32232,7 @@
         <v>1696</v>
       </c>
       <c r="B898" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
@@ -32240,7 +32240,7 @@
         <v>1697</v>
       </c>
       <c r="B899" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
@@ -32248,7 +32248,7 @@
         <v>1698</v>
       </c>
       <c r="B900" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
@@ -32256,7 +32256,7 @@
         <v>1699</v>
       </c>
       <c r="B901" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
@@ -32264,7 +32264,7 @@
         <v>1700</v>
       </c>
       <c r="B902" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
@@ -32272,7 +32272,7 @@
         <v>1701</v>
       </c>
       <c r="B903" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.2">
@@ -32280,7 +32280,7 @@
         <v>1702</v>
       </c>
       <c r="B904" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.2">
@@ -32288,7 +32288,7 @@
         <v>1703</v>
       </c>
       <c r="B905" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
@@ -32296,12 +32296,12 @@
         <v>1704</v>
       </c>
       <c r="B906" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="1" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="B908" s="1"/>
     </row>
@@ -32310,7 +32310,7 @@
         <v>1705</v>
       </c>
       <c r="B909" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
@@ -32318,7 +32318,7 @@
         <v>1706</v>
       </c>
       <c r="B910" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
@@ -32326,7 +32326,7 @@
         <v>1707</v>
       </c>
       <c r="B911" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
@@ -32334,7 +32334,7 @@
         <v>1708</v>
       </c>
       <c r="B912" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
@@ -32342,7 +32342,7 @@
         <v>1709</v>
       </c>
       <c r="B913" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
@@ -32350,7 +32350,7 @@
         <v>1710</v>
       </c>
       <c r="B914" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
@@ -32358,7 +32358,7 @@
         <v>1711</v>
       </c>
       <c r="B915" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
@@ -32366,7 +32366,7 @@
         <v>1712</v>
       </c>
       <c r="B916" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
@@ -32374,7 +32374,7 @@
         <v>1713</v>
       </c>
       <c r="B917" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
@@ -32382,7 +32382,7 @@
         <v>1714</v>
       </c>
       <c r="B918" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
@@ -32390,7 +32390,7 @@
         <v>1715</v>
       </c>
       <c r="B919" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
@@ -32398,7 +32398,7 @@
         <v>1716</v>
       </c>
       <c r="B920" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
@@ -32406,7 +32406,7 @@
         <v>1717</v>
       </c>
       <c r="B921" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
@@ -32414,615 +32414,615 @@
         <v>1718</v>
       </c>
       <c r="B922" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B923" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B924" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B925" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B926" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B927" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B928" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B929" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B930" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B931" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B932" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B933" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B934" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B935" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B936" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B937" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B938" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B939" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B940" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B941" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B942" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B943" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B944" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B945" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B946" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B947" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B948" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B949" t="s">
-        <v>1804</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B950" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B951" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B952" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B953" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B954" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B955" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B956" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B957" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="B958" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="B959" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B960" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="B961" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B962" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="B963" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B964" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B965" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="B966" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B967" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="B968" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="B969" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="B970" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="B971" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="B972" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="B973" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="B974" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="B975" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="B976" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="B977" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="B978" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B979" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B980" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" s="1" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="B982" s="1"/>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="B983" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="B984" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="B985" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="B986" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="B987" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="B988" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="B989" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="B990" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="B991" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="B992" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="B993" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="B994" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="B995" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="B996" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="B997" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="B998" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B999" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="B1000" t="s">
         <v>1158</v>
@@ -33030,2075 +33030,2075 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="B1001" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="B1002" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="B1003" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="B1004" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B1005" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1006" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B1007" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B1008" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B1009" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B1010" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="B1011" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1012" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B1013" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="B1014" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="B1015" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B1016" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="B1017" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="B1018" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="B1019" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="B1020" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="B1021" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="B1022" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B1023" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="B1024" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1025" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B1026" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B1027" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="B1028" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="B1029" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="B1030" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B1031" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="B1032" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="B1033" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="B1034" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="B1035" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="B1036" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B1037" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="B1038" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B1039" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B1040" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B1041" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="B1042" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1043" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="B1044" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="B1045" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="B1046" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="B1047" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B1048" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B1049" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B1050" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B1051" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B1052" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B1053" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B1054" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B1055" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B1056" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" s="1" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="B1058" s="1"/>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B1059" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B1060" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="B1061" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B1062" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B1063" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1064" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B1065" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B1066" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B1067" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B1068" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B1069" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B1070" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B1071" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B1072" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B1073" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="B1074" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1075" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="B1076" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="B1077" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1078" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1079" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="B1080" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="B1081" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="B1082" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B1083" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="B1084" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="B1085" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B1086" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="B1087" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="B1088" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B1089" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="B1090" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="B1091" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="B1092" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1093" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="B1094" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="B1095" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="B1096" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="B1097" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B1098" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="B1099" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="B1100" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="B1101" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="B1102" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="B1103" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="B1104" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="B1105" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="B1106" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="B1107" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B1108" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="B1109" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="B1110" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1111" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1112" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="B1113" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="B1114" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="B1115" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="B1116" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="B1117" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B1118" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="B1119" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="B1120" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="B1121" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="B1122" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="B1123" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="B1124" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="B1125" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="B1126" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="B1127" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="B1128" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="B1129" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="B1130" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="B1131" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="B1132" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B1133" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="B1134" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="B1135" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="B1136" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" s="1" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="B1138" s="1"/>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="B1139" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="B1140" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="B1141" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="B1142" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="B1143" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="B1144" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="B1145" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="B1146" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="B1147" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="B1148" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B1149" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="B1150" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="B1151" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="B1152" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="B1153" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1154" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="B1155" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="B1156" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="B1157" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="B1158" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="B1159" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B1160" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="B1161" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="B1162" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="B1163" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="B1164" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="B1165" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="B1166" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="B1167" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="B1168" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="B1169" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B1170" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="B1171" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="B1172" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1173" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="B1174" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="B1175" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B1176" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="B1177" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B1178" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="B1179" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B1180" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="B1181" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="B1182" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1183" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="B1184" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="B1185" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="B1186" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="B1187" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="B1188" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="B1189" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="B1190" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="B1191" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="B1192" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B1193" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="B1194" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B1195" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="B1196" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B1197" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B1198" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="B1199" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="B1200" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="B1201" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="B1202" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B1203" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="B1204" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="B1205" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B1206" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="B1207" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="B1208" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="B1209" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="B1210" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="B1211" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1212" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B1213" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="B1214" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" s="1" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="B1216" s="1"/>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="B1217" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="B1218" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="B1219" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1220" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="B1221" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="B1222" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="B1223" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="B1224" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="B1225" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1226" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="B1227" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="B1228" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="B1229" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="B1230" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="B1231" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="B1232" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="B1233" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="B1234" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1235" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="B1236" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="B1237" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="B1238" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="B1239" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B1240" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="B1241" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="B1242" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="B1243" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="B1244" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="B1245" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B1246" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="B1247" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="B1248" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="B1249" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="B1250" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="B1251" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="B1252" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="B1253" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="B1254" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="B1255" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="B1256" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="B1257" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="B1258" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B1259" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="B1260" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="B1261" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="B1262" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="B1263" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="B1264" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1265" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="B1266" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="B1267" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="B1268" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="B1269" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="B1270" t="s">
         <v>1555</v>
@@ -35106,321 +35106,321 @@
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="B1271" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="B1272" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="B1273" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="B1274" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="B1275" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="B1276" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="B1277" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="B1278" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1279" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="B1280" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="B1281" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="B1282" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="B1283" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="B1284" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="B1285" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="B1286" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="B1287" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1288" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="B1289" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="B1290" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="B1291" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="B1292" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" s="1" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="B1294" s="1"/>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="B1295" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="B1296" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="B1297" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="B1298" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="B1299" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="B1300" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="B1301" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="B1302" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="B1303" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="B1304" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1305" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="B1306" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="B1307" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B1308" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="B1309" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="B1310" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1311" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="B1312" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="B1313" t="s">
         <v>506</v>
@@ -35428,913 +35428,913 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="B1314" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="B1315" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1316" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="B1317" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="B1318" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="B1319" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="B1320" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="B1321" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="B1322" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="B1323" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="B1324" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="B1325" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="B1326" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="B1327" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="B1328" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="B1329" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1330" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B1331" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="B1332" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="B1333" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="B1334" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="B1335" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="B1336" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="B1337" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B1338" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="B1339" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="B1340" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="B1341" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="B1342" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="B1343" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="B1344" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="B1345" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="B1346" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="B1347" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="B1348" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="B1349" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="B1350" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="B1351" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="B1352" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="B1353" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="B1354" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="B1355" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="B1356" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="B1357" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="B1358" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="B1359" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="B1360" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="B1361" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="B1362" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="B1363" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="B1364" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="B1365" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="B1366" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="B1367" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B1368" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" s="1" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="B1370" s="1"/>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="B1371" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="B1372" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="B1373" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B1374" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="B1375" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="B1376" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="B1377" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="B1378" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="B1379" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="B1380" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="B1381" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1382" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="B1383" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="B1384" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="B1385" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="B1386" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="B1387" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="B1388" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="B1389" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="B1390" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="B1391" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="B1392" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="B1393" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="B1394" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="B1395" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="B1396" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1397" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="B1398" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="B1399" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="B1400" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="B1401" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="B1402" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="B1403" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="B1404" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="B1405" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="B1406" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="B1407" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="B1408" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="B1409" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="B1410" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="B1411" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="B1412" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="B1413" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="B1414" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="B1415" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="B1416" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="B1417" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="B1418" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="B1419" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="B1420" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="B1421" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="B1422" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="B1423" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="B1424" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="B1425" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="B1426" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="B1427" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="B1428" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="B1429" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="B1430" t="s">
         <v>1088</v>
@@ -36342,285 +36342,297 @@
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="B1431" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="B1432" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="B1433" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="B1434" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="B1435" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="B1436" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1437" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="B1438" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="B1439" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="B1440" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="B1441" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="B1442" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="B1443" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="B1444" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" s="1" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="B1446" s="1"/>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="B1447" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="B1448" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="B1449" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="B1450" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="B1451" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="B1452" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="B1453" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="B1454" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="B1455" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1456" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="B1457" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="B1458" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="B1459" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1460" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1461" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="B1462" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1463" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="B1464" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="B1465" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="B1466" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="B1467" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="B1468" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A602:B602"/>
+    <mergeCell ref="A677:B677"/>
+    <mergeCell ref="A753:B753"/>
+    <mergeCell ref="A834:B834"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="A529:B529"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A302:B302"/>
     <mergeCell ref="A1216:B1216"/>
     <mergeCell ref="A1294:B1294"/>
     <mergeCell ref="A1370:B1370"/>
@@ -36629,18 +36641,6 @@
     <mergeCell ref="A982:B982"/>
     <mergeCell ref="A1058:B1058"/>
     <mergeCell ref="A1138:B1138"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A602:B602"/>
-    <mergeCell ref="A677:B677"/>
-    <mergeCell ref="A753:B753"/>
-    <mergeCell ref="A834:B834"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="A455:B455"/>
-    <mergeCell ref="A529:B529"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="460" windowWidth="19180" windowHeight="14020" tabRatio="500"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="11080" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14106,16 +14106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n.光辉，关泽</t>
-    <rPh sb="2" eb="3">
-      <t>guang hui</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>guan ze</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v.轻声地笑，咯咯地笑</t>
     <rPh sb="2" eb="3">
       <t>qing sheng</t>
@@ -24950,6 +24940,13 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>jin wo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.光辉，光泽</t>
+    <rPh sb="2" eb="3">
+      <t>guang hui</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -25279,8 +25276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A938" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="B949" sqref="B949"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A824" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="B839" sqref="B839"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25603,7 +25600,7 @@
         <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -27082,7 +27079,7 @@
         <v>423</v>
       </c>
       <c r="B233" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -27234,12 +27231,12 @@
         <v>442</v>
       </c>
       <c r="B252" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B253" t="s">
         <v>472</v>
@@ -27351,7 +27348,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -27574,7 +27571,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B296" t="s">
         <v>554</v>
@@ -27756,7 +27753,7 @@
         <v>575</v>
       </c>
       <c r="B320" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -27820,7 +27817,7 @@
         <v>583</v>
       </c>
       <c r="B328" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -28379,7 +28376,7 @@
         <v>734</v>
       </c>
       <c r="B401" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -28717,7 +28714,7 @@
         <v>825</v>
       </c>
       <c r="B444" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -29941,7 +29938,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B602" s="1"/>
     </row>
@@ -30358,7 +30355,7 @@
         <v>1212</v>
       </c>
       <c r="B654" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -30525,7 +30522,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B677" s="1"/>
     </row>
@@ -31111,7 +31108,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B753" s="1"/>
     </row>
@@ -31152,7 +31149,7 @@
         <v>1415</v>
       </c>
       <c r="B758" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
@@ -31353,10 +31350,10 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B785" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
@@ -31722,7 +31719,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B834" s="1"/>
     </row>
@@ -31771,7 +31768,7 @@
         <v>1550</v>
       </c>
       <c r="B840" t="s">
-        <v>1587</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.2">
@@ -31779,7 +31776,7 @@
         <v>1551</v>
       </c>
       <c r="B841" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.2">
@@ -31787,7 +31784,7 @@
         <v>1552</v>
       </c>
       <c r="B842" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
@@ -31795,7 +31792,7 @@
         <v>1553</v>
       </c>
       <c r="B843" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
@@ -31803,1226 +31800,1226 @@
         <v>1554</v>
       </c>
       <c r="B844" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B845" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B846" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B847" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B848" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B849" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B850" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B851" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B852" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B853" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B854" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B855" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B856" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B857" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B858" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B859" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B860" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B861" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B862" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B863" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B864" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B865" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B866" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B867" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B868" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B869" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B870" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B871" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B872" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B873" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B874" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B875" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B876" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B877" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B878" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B879" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B880" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B881" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B882" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B883" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B884" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B885" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B886" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B887" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B888" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B889" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B890" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B891" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B892" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B893" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B894" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B895" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B896" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B897" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B898" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B899" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B900" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B901" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B902" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B903" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B904" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B905" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B906" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B908" s="1"/>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B909" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B910" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B911" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B912" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B913" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B914" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B915" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B916" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B917" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B918" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B919" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B920" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B921" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B922" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B923" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B924" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B925" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B926" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B927" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B928" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B929" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B930" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B931" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B932" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B933" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B934" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B935" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B936" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B937" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B938" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B939" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B940" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B941" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B942" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B943" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B944" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B945" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B946" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B947" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B948" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B949" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B950" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B951" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B952" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B953" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B954" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B955" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B956" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B957" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B958" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B959" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B960" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B961" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B962" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B963" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B964" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B965" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B966" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B967" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B968" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B969" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B970" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B971" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B972" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B973" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B974" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B975" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B976" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B977" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B978" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B979" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B980" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="B982" s="1"/>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B983" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B984" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B985" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B986" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B987" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B988" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B989" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B990" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B991" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B992" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B993" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B994" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B995" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B996" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B997" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B998" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B999" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B1000" t="s">
         <v>1158</v>
@@ -33030,2075 +33027,2075 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B1001" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B1002" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B1003" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B1004" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B1005" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1006" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B1007" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B1008" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B1009" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B1010" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B1011" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1012" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B1013" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B1014" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B1015" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B1016" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B1017" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B1018" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B1019" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B1020" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B1021" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B1022" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B1023" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B1024" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1025" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B1026" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B1027" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B1028" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B1029" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B1030" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B1031" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B1032" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B1033" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B1034" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B1035" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B1036" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B1037" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B1038" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B1039" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B1040" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B1041" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B1042" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1043" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B1044" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B1045" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B1046" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B1047" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B1048" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B1049" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B1050" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B1051" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B1052" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B1053" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B1054" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B1055" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B1056" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="B1058" s="1"/>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B1059" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B1060" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B1061" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1062" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1063" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1064" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B1065" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B1066" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B1067" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B1068" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B1069" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B1070" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B1071" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B1072" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B1073" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B1074" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1075" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B1076" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B1077" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1078" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1079" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B1080" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B1081" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B1082" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B1083" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B1084" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B1085" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B1086" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B1087" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B1088" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B1089" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B1090" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B1091" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B1092" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1093" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B1094" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B1095" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B1096" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B1097" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B1098" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B1099" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B1100" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B1101" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B1102" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1103" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B1104" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B1105" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B1106" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B1107" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1108" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B1109" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B1110" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1111" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1112" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B1113" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B1114" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B1115" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B1116" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B1117" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B1118" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B1119" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B1120" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B1121" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B1122" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B1123" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B1124" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B1125" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B1126" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B1127" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B1128" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B1129" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B1130" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B1131" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B1132" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B1133" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B1134" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B1135" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B1136" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B1138" s="1"/>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B1139" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B1140" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B1141" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B1142" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B1143" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B1144" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B1145" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B1146" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B1147" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B1148" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B1149" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B1150" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B1151" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B1152" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B1153" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1154" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B1155" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B1156" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B1157" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B1158" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B1159" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B1160" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B1161" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B1162" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B1163" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B1164" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B1165" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B1166" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B1167" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B1168" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B1169" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B1170" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1171" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B1172" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1173" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B1174" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B1175" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B1176" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B1177" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B1178" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B1179" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B1180" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B1181" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B1182" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1183" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B1184" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B1185" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B1186" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B1187" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="B1188" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="B1189" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B1190" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B1191" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B1192" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B1193" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B1194" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B1195" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B1196" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B1197" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="B1198" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="B1199" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B1200" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="B1201" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="B1202" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B1203" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B1204" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B1205" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B1206" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="B1207" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B1208" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B1209" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="B1210" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="B1211" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1212" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="B1213" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="B1214" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B1216" s="1"/>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="B1217" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B1218" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="B1219" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B1220" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B1221" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B1222" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B1223" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B1224" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B1225" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1226" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="B1227" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B1228" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B1229" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="B1230" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="B1231" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="B1232" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="B1233" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B1234" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1235" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="B1236" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="B1237" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="B1238" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="B1239" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B1240" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B1241" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B1242" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B1243" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="B1244" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B1245" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B1246" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B1247" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B1248" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B1249" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B1250" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B1251" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B1252" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B1253" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B1254" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B1255" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B1256" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B1257" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B1258" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B1259" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B1260" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B1261" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B1262" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B1263" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B1264" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1265" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B1266" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B1267" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B1268" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B1269" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B1270" t="s">
         <v>1555</v>
@@ -35106,321 +35103,321 @@
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B1271" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B1272" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B1273" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B1274" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B1275" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B1276" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B1277" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B1278" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1279" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B1280" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B1281" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B1282" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B1283" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B1284" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B1285" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B1286" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B1287" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1288" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="B1289" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B1290" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B1291" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="B1292" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="B1294" s="1"/>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B1295" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B1296" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B1297" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B1298" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="B1299" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B1300" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B1301" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="B1302" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B1303" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B1304" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1305" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B1306" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B1307" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B1308" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B1309" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B1310" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1311" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B1312" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="B1313" t="s">
         <v>506</v>
@@ -35428,913 +35425,913 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B1314" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B1315" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1316" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B1317" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="B1318" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="B1319" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B1320" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="B1321" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="B1322" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B1323" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B1324" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B1325" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B1326" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B1327" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B1328" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B1329" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1330" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B1331" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B1332" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B1333" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B1334" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B1335" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B1336" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B1337" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B1338" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B1339" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="B1340" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="B1341" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="B1342" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B1343" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="B1344" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B1345" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="B1346" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="B1347" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B1348" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B1349" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B1350" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="B1351" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="B1352" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="B1353" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B1354" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="B1355" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B1356" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="B1357" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B1358" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B1359" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="B1360" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B1361" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B1362" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B1363" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B1364" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B1365" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B1366" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="B1367" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="B1368" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="B1370" s="1"/>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="B1371" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B1372" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="B1373" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B1374" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="B1375" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B1376" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="B1377" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B1378" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B1379" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B1380" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B1381" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1382" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="B1383" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B1384" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B1385" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B1386" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B1387" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B1388" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B1389" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B1390" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B1391" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B1392" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B1393" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B1394" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B1395" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B1396" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1397" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B1398" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="B1399" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B1400" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B1401" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B1402" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B1403" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B1404" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B1405" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B1406" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B1407" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B1408" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B1409" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="B1410" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B1411" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="B1412" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B1413" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B1414" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B1415" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B1416" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B1417" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B1418" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B1419" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B1420" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B1421" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B1422" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B1423" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="B1424" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B1425" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B1426" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B1427" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B1428" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="B1429" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B1430" t="s">
         <v>1088</v>
@@ -36342,297 +36339,285 @@
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B1431" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B1432" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B1433" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B1434" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B1435" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="B1436" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1437" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B1438" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B1439" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B1440" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="B1441" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B1442" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="B1443" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="B1444" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B1446" s="1"/>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="B1447" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B1448" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B1449" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B1450" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B1451" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B1452" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B1453" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B1454" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="B1455" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1456" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="B1457" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="B1458" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="B1459" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1460" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1461" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="B1462" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1463" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="B1464" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="B1465" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="B1466" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="B1467" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="B1468" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A602:B602"/>
-    <mergeCell ref="A677:B677"/>
-    <mergeCell ref="A753:B753"/>
-    <mergeCell ref="A834:B834"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="A455:B455"/>
-    <mergeCell ref="A529:B529"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A302:B302"/>
     <mergeCell ref="A1216:B1216"/>
     <mergeCell ref="A1294:B1294"/>
     <mergeCell ref="A1370:B1370"/>
@@ -36641,6 +36626,18 @@
     <mergeCell ref="A982:B982"/>
     <mergeCell ref="A1058:B1058"/>
     <mergeCell ref="A1138:B1138"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A602:B602"/>
+    <mergeCell ref="A677:B677"/>
+    <mergeCell ref="A753:B753"/>
+    <mergeCell ref="A834:B834"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="A529:B529"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part II.xlsx
+++ b/vocabulary_part II.xlsx
@@ -24271,9 +24271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>慎重的，恰如其分的</t>
-  </si>
-  <si>
     <t>adj.密封的；神秘的，深奥的</t>
     <rPh sb="4" eb="5">
       <t>mi feng</t>
@@ -24948,6 +24945,10 @@
     <rPh sb="2" eb="3">
       <t>guang hui</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慎重的，恰如其分的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -25276,8 +25277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A824" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="B839" sqref="B839"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1431" zoomScale="134" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="B1444" sqref="B1444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25600,7 +25601,7 @@
         <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -27079,7 +27080,7 @@
         <v>423</v>
       </c>
       <c r="B233" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -27348,7 +27349,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -31149,7 +31150,7 @@
         <v>1415</v>
       </c>
       <c r="B758" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
@@ -31350,10 +31351,10 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B785" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
@@ -31768,7 +31769,7 @@
         <v>1550</v>
       </c>
       <c r="B840" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.2">
@@ -32000,7 +32001,7 @@
         <v>1615</v>
       </c>
       <c r="B869" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
@@ -32037,7 +32038,7 @@
         <v>1619</v>
       </c>
       <c r="B874" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
@@ -32189,7 +32190,7 @@
         <v>1690</v>
       </c>
       <c r="B893" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
@@ -32253,7 +32254,7 @@
         <v>1698</v>
       </c>
       <c r="B901" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
@@ -32467,7 +32468,7 @@
         <v>1751</v>
       </c>
       <c r="B929" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
@@ -32624,7 +32625,7 @@
         <v>1770</v>
       </c>
       <c r="B949" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
@@ -32816,7 +32817,7 @@
         <v>1825</v>
       </c>
       <c r="B973" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
@@ -34411,7 +34412,7 @@
         <v>2220</v>
       </c>
       <c r="B1181" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
@@ -34674,7 +34675,7 @@
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="B1216" s="1"/>
     </row>
@@ -35273,7 +35274,7 @@
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B1294" s="1"/>
     </row>
@@ -35622,7 +35623,7 @@
         <v>2513</v>
       </c>
       <c r="B1339" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
@@ -35859,7 +35860,7 @@
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="B1370" s="1"/>
     </row>
@@ -36387,7 +36388,7 @@
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1437" t="s">
-        <v>2737</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
@@ -36395,7 +36396,7 @@
         <v>2710</v>
       </c>
       <c r="B1438" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
@@ -36403,7 +36404,7 @@
         <v>2711</v>
       </c>
       <c r="B1439" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
@@ -36411,7 +36412,7 @@
         <v>2712</v>
       </c>
       <c r="B1440" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
@@ -36419,7 +36420,7 @@
         <v>2713</v>
       </c>
       <c r="B1441" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
@@ -36427,7 +36428,7 @@
         <v>2714</v>
       </c>
       <c r="B1442" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
@@ -36435,7 +36436,7 @@
         <v>2715</v>
       </c>
       <c r="B1443" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
@@ -36443,12 +36444,12 @@
         <v>2716</v>
       </c>
       <c r="B1444" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="B1446" s="1"/>
     </row>
@@ -36457,7 +36458,7 @@
         <v>2717</v>
       </c>
       <c r="B1447" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
@@ -36465,7 +36466,7 @@
         <v>2718</v>
       </c>
       <c r="B1448" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
@@ -36473,7 +36474,7 @@
         <v>2719</v>
       </c>
       <c r="B1449" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
@@ -36481,7 +36482,7 @@
         <v>2720</v>
       </c>
       <c r="B1450" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
@@ -36489,7 +36490,7 @@
         <v>2721</v>
       </c>
       <c r="B1451" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
@@ -36497,7 +36498,7 @@
         <v>2722</v>
       </c>
       <c r="B1452" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
@@ -36505,7 +36506,7 @@
         <v>2723</v>
       </c>
       <c r="B1453" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
@@ -36513,111 +36514,123 @@
         <v>2724</v>
       </c>
       <c r="B1454" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="B1455" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1456" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="B1457" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="B1458" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="B1459" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1460" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1461" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="B1462" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1463" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="B1464" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="B1465" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="B1466" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="B1467" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="B1468" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A602:B602"/>
+    <mergeCell ref="A677:B677"/>
+    <mergeCell ref="A753:B753"/>
+    <mergeCell ref="A834:B834"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="A529:B529"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A302:B302"/>
     <mergeCell ref="A1216:B1216"/>
     <mergeCell ref="A1294:B1294"/>
     <mergeCell ref="A1370:B1370"/>
@@ -36626,18 +36639,6 @@
     <mergeCell ref="A982:B982"/>
     <mergeCell ref="A1058:B1058"/>
     <mergeCell ref="A1138:B1138"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A602:B602"/>
-    <mergeCell ref="A677:B677"/>
-    <mergeCell ref="A753:B753"/>
-    <mergeCell ref="A834:B834"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="A455:B455"/>
-    <mergeCell ref="A529:B529"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
